--- a/金融科技/data/IC.xlsx
+++ b/金融科技/data/IC.xlsx
@@ -8177,537 +8177,404 @@
         </is>
       </c>
       <c r="B6" s="22" t="n"/>
-      <c r="C6" s="13">
-        <f t="array" ref="C6">MATCH(MAX(ABS(C3:C5)), ABS(C3:C5), 0)</f>
-        <v/>
-      </c>
-      <c r="D6" s="13">
-        <f t="array" ref="D6">MATCH(MAX(ABS(D3:D5)), ABS(D3:D5), 0)</f>
-        <v/>
-      </c>
-      <c r="E6" s="13">
-        <f t="array" ref="E6">MATCH(MAX(ABS(E3:E5)), ABS(E3:E5), 0)</f>
-        <v/>
-      </c>
-      <c r="F6" s="13">
-        <f t="array" ref="F6">MATCH(MAX(ABS(F3:F5)), ABS(F3:F5), 0)</f>
-        <v/>
-      </c>
-      <c r="G6" s="13">
-        <f t="array" ref="G6">MATCH(MAX(ABS(G3:G5)), ABS(G3:G5), 0)</f>
-        <v/>
-      </c>
-      <c r="H6" s="13">
-        <f t="array" ref="H6">MATCH(MAX(ABS(H3:H5)), ABS(H3:H5), 0)</f>
-        <v/>
-      </c>
-      <c r="I6" s="13">
-        <f t="array" ref="I6">MATCH(MAX(ABS(I3:I5)), ABS(I3:I5), 0)</f>
-        <v/>
-      </c>
-      <c r="J6" s="13">
-        <f t="array" ref="J6">MATCH(MAX(ABS(J3:J5)), ABS(J3:J5), 0)</f>
-        <v/>
-      </c>
-      <c r="K6" s="13">
-        <f t="array" ref="K6">MATCH(MAX(ABS(K3:K5)), ABS(K3:K5), 0)</f>
-        <v/>
-      </c>
-      <c r="L6" s="13">
-        <f t="array" ref="L6">MATCH(MAX(ABS(L3:L5)), ABS(L3:L5), 0)</f>
-        <v/>
-      </c>
-      <c r="M6" s="13">
-        <f t="array" ref="M6">MATCH(MAX(ABS(M3:M5)), ABS(M3:M5), 0)</f>
-        <v/>
-      </c>
-      <c r="N6" s="13">
-        <f t="array" ref="N6">MATCH(MAX(ABS(N3:N5)), ABS(N3:N5), 0)</f>
-        <v/>
-      </c>
-      <c r="O6" s="13">
-        <f t="array" ref="O6">MATCH(MAX(ABS(O3:O5)), ABS(O3:O5), 0)</f>
-        <v/>
-      </c>
-      <c r="P6" s="13">
-        <f t="array" ref="P6">MATCH(MAX(ABS(P3:P5)), ABS(P3:P5), 0)</f>
-        <v/>
-      </c>
-      <c r="Q6" s="13">
-        <f t="array" ref="Q6">MATCH(MAX(ABS(Q3:Q5)), ABS(Q3:Q5), 0)</f>
-        <v/>
-      </c>
-      <c r="R6" s="13">
-        <f t="array" ref="R6">MATCH(MAX(ABS(R3:R5)), ABS(R3:R5), 0)</f>
-        <v/>
-      </c>
-      <c r="S6" s="13">
-        <f t="array" ref="S6">MATCH(MAX(ABS(S3:S5)), ABS(S3:S5), 0)</f>
-        <v/>
-      </c>
-      <c r="T6" s="13">
-        <f t="array" ref="T6">MATCH(MAX(ABS(T3:T5)), ABS(T3:T5), 0)</f>
-        <v/>
-      </c>
-      <c r="U6" s="13">
-        <f t="array" ref="U6">MATCH(MAX(ABS(U3:U5)), ABS(U3:U5), 0)</f>
-        <v/>
-      </c>
-      <c r="V6" s="13">
-        <f t="array" ref="V6">MATCH(MAX(ABS(V3:V5)), ABS(V3:V5), 0)</f>
-        <v/>
-      </c>
-      <c r="W6" s="13">
-        <f t="array" ref="W6">MATCH(MAX(ABS(W3:W5)), ABS(W3:W5), 0)</f>
-        <v/>
-      </c>
-      <c r="X6" s="13">
-        <f t="array" ref="X6">MATCH(MAX(ABS(X3:X5)), ABS(X3:X5), 0)</f>
-        <v/>
-      </c>
-      <c r="Y6" s="13">
-        <f t="array" ref="Y6">MATCH(MAX(ABS(Y3:Y5)), ABS(Y3:Y5), 0)</f>
-        <v/>
-      </c>
-      <c r="Z6" s="13">
-        <f t="array" ref="Z6">MATCH(MAX(ABS(Z3:Z5)), ABS(Z3:Z5), 0)</f>
-        <v/>
-      </c>
-      <c r="AA6" s="13">
-        <f t="array" ref="AA6">MATCH(MAX(ABS(AA3:AA5)), ABS(AA3:AA5), 0)</f>
-        <v/>
-      </c>
-      <c r="AB6" s="13">
-        <f t="array" ref="AB6">MATCH(MAX(ABS(AB3:AB5)), ABS(AB3:AB5), 0)</f>
-        <v/>
-      </c>
-      <c r="AC6" s="13">
-        <f t="array" ref="AC6">MATCH(MAX(ABS(AC3:AC5)), ABS(AC3:AC5), 0)</f>
-        <v/>
-      </c>
-      <c r="AD6" s="13">
-        <f t="array" ref="AD6">MATCH(MAX(ABS(AD3:AD5)), ABS(AD3:AD5), 0)</f>
-        <v/>
-      </c>
-      <c r="AE6" s="13">
-        <f t="array" ref="AE6">MATCH(MAX(ABS(AE3:AE5)), ABS(AE3:AE5), 0)</f>
-        <v/>
-      </c>
-      <c r="AF6" s="13">
-        <f t="array" ref="AF6">MATCH(MAX(ABS(AF3:AF5)), ABS(AF3:AF5), 0)</f>
-        <v/>
-      </c>
-      <c r="AG6" s="13">
-        <f t="array" ref="AG6">MATCH(MAX(ABS(AG3:AG5)), ABS(AG3:AG5), 0)</f>
-        <v/>
-      </c>
-      <c r="AH6" s="13">
-        <f t="array" ref="AH6">MATCH(MAX(ABS(AH3:AH5)), ABS(AH3:AH5), 0)</f>
-        <v/>
-      </c>
-      <c r="AI6" s="13">
-        <f t="array" ref="AI6">MATCH(MAX(ABS(AI3:AI5)), ABS(AI3:AI5), 0)</f>
-        <v/>
-      </c>
-      <c r="AJ6" s="13">
-        <f t="array" ref="AJ6">MATCH(MAX(ABS(AJ3:AJ5)), ABS(AJ3:AJ5), 0)</f>
-        <v/>
-      </c>
-      <c r="AK6" s="13">
-        <f t="array" ref="AK6">MATCH(MAX(ABS(AK3:AK5)), ABS(AK3:AK5), 0)</f>
-        <v/>
-      </c>
-      <c r="AL6" s="13">
-        <f t="array" ref="AL6">MATCH(MAX(ABS(AL3:AL5)), ABS(AL3:AL5), 0)</f>
-        <v/>
-      </c>
-      <c r="AM6" s="13">
-        <f t="array" ref="AM6">MATCH(MAX(ABS(AM3:AM5)), ABS(AM3:AM5), 0)</f>
-        <v/>
-      </c>
-      <c r="AN6" s="13">
-        <f t="array" ref="AN6">MATCH(MAX(ABS(AN3:AN5)), ABS(AN3:AN5), 0)</f>
-        <v/>
-      </c>
-      <c r="AO6" s="13">
-        <f t="array" ref="AO6">MATCH(MAX(ABS(AO3:AO5)), ABS(AO3:AO5), 0)</f>
-        <v/>
-      </c>
-      <c r="AP6" s="13">
-        <f t="array" ref="AP6">MATCH(MAX(ABS(AP3:AP5)), ABS(AP3:AP5), 0)</f>
-        <v/>
-      </c>
-      <c r="AQ6" s="13">
-        <f t="array" ref="AQ6">MATCH(MAX(ABS(AQ3:AQ5)), ABS(AQ3:AQ5), 0)</f>
-        <v/>
-      </c>
-      <c r="AR6" s="13">
-        <f t="array" ref="AR6">MATCH(MAX(ABS(AR3:AR5)), ABS(AR3:AR5), 0)</f>
-        <v/>
-      </c>
-      <c r="AS6" s="13">
-        <f t="array" ref="AS6">MATCH(MAX(ABS(AS3:AS5)), ABS(AS3:AS5), 0)</f>
-        <v/>
-      </c>
-      <c r="AT6" s="13">
-        <f t="array" ref="AT6">MATCH(MAX(ABS(AT3:AT5)), ABS(AT3:AT5), 0)</f>
-        <v/>
-      </c>
-      <c r="AU6" s="13">
-        <f t="array" ref="AU6">MATCH(MAX(ABS(AU3:AU5)), ABS(AU3:AU5), 0)</f>
-        <v/>
-      </c>
-      <c r="AV6" s="13">
-        <f t="array" ref="AV6">MATCH(MAX(ABS(AV3:AV5)), ABS(AV3:AV5), 0)</f>
-        <v/>
-      </c>
-      <c r="AW6" s="13">
-        <f t="array" ref="AW6">MATCH(MAX(ABS(AW3:AW5)), ABS(AW3:AW5), 0)</f>
-        <v/>
-      </c>
-      <c r="AX6" s="13">
-        <f t="array" ref="AX6">MATCH(MAX(ABS(AX3:AX5)), ABS(AX3:AX5), 0)</f>
-        <v/>
-      </c>
-      <c r="AY6" s="13">
-        <f t="array" ref="AY6">MATCH(MAX(ABS(AY3:AY5)), ABS(AY3:AY5), 0)</f>
-        <v/>
-      </c>
-      <c r="AZ6" s="13">
-        <f t="array" ref="AZ6">MATCH(MAX(ABS(AZ3:AZ5)), ABS(AZ3:AZ5), 0)</f>
-        <v/>
-      </c>
-      <c r="BA6" s="13">
-        <f t="array" ref="BA6">MATCH(MAX(ABS(BA3:BA5)), ABS(BA3:BA5), 0)</f>
-        <v/>
-      </c>
-      <c r="BB6" s="13">
-        <f t="array" ref="BB6">MATCH(MAX(ABS(BB3:BB5)), ABS(BB3:BB5), 0)</f>
-        <v/>
-      </c>
-      <c r="BC6" s="13">
-        <f t="array" ref="BC6">MATCH(MAX(ABS(BC3:BC5)), ABS(BC3:BC5), 0)</f>
-        <v/>
-      </c>
-      <c r="BD6" s="13">
-        <f t="array" ref="BD6">MATCH(MAX(ABS(BD3:BD5)), ABS(BD3:BD5), 0)</f>
-        <v/>
-      </c>
-      <c r="BE6" s="13">
-        <f t="array" ref="BE6">MATCH(MAX(ABS(BE3:BE5)), ABS(BE3:BE5), 0)</f>
-        <v/>
-      </c>
-      <c r="BF6" s="13">
-        <f t="array" ref="BF6">MATCH(MAX(ABS(BF3:BF5)), ABS(BF3:BF5), 0)</f>
-        <v/>
-      </c>
-      <c r="BG6" s="13">
-        <f t="array" ref="BG6">MATCH(MAX(ABS(BG3:BG5)), ABS(BG3:BG5), 0)</f>
-        <v/>
-      </c>
-      <c r="BH6" s="13">
-        <f t="array" ref="BH6">MATCH(MAX(ABS(BH3:BH5)), ABS(BH3:BH5), 0)</f>
-        <v/>
-      </c>
-      <c r="BI6" s="13">
-        <f t="array" ref="BI6">MATCH(MAX(ABS(BI3:BI5)), ABS(BI3:BI5), 0)</f>
-        <v/>
-      </c>
-      <c r="BJ6" s="13">
-        <f t="array" ref="BJ6">MATCH(MAX(ABS(BJ3:BJ5)), ABS(BJ3:BJ5), 0)</f>
-        <v/>
-      </c>
-      <c r="BK6" s="13">
-        <f t="array" ref="BK6">MATCH(MAX(ABS(BK3:BK5)), ABS(BK3:BK5), 0)</f>
-        <v/>
-      </c>
-      <c r="BL6" s="13">
-        <f t="array" ref="BL6">MATCH(MAX(ABS(BL3:BL5)), ABS(BL3:BL5), 0)</f>
-        <v/>
-      </c>
-      <c r="BM6" s="13">
-        <f t="array" ref="BM6">MATCH(MAX(ABS(BM3:BM5)), ABS(BM3:BM5), 0)</f>
-        <v/>
-      </c>
-      <c r="BN6" s="13">
-        <f t="array" ref="BN6">MATCH(MAX(ABS(BN3:BN5)), ABS(BN3:BN5), 0)</f>
-        <v/>
-      </c>
-      <c r="BO6" s="13">
-        <f t="array" ref="BO6">MATCH(MAX(ABS(BO3:BO5)), ABS(BO3:BO5), 0)</f>
-        <v/>
-      </c>
-      <c r="BP6" s="13">
-        <f t="array" ref="BP6">MATCH(MAX(ABS(BP3:BP5)), ABS(BP3:BP5), 0)</f>
-        <v/>
-      </c>
-      <c r="BQ6" s="13">
-        <f t="array" ref="BQ6">MATCH(MAX(ABS(BQ3:BQ5)), ABS(BQ3:BQ5), 0)</f>
-        <v/>
-      </c>
-      <c r="BR6" s="13">
-        <f t="array" ref="BR6">MATCH(MAX(ABS(BR3:BR5)), ABS(BR3:BR5), 0)</f>
-        <v/>
-      </c>
-      <c r="BS6" s="13">
-        <f t="array" ref="BS6">MATCH(MAX(ABS(BS3:BS5)), ABS(BS3:BS5), 0)</f>
-        <v/>
-      </c>
-      <c r="BT6" s="13">
-        <f t="array" ref="BT6">MATCH(MAX(ABS(BT3:BT5)), ABS(BT3:BT5), 0)</f>
-        <v/>
-      </c>
-      <c r="BU6" s="13">
-        <f t="array" ref="BU6">MATCH(MAX(ABS(BU3:BU5)), ABS(BU3:BU5), 0)</f>
-        <v/>
-      </c>
-      <c r="BV6" s="13">
-        <f t="array" ref="BV6">MATCH(MAX(ABS(BV3:BV5)), ABS(BV3:BV5), 0)</f>
-        <v/>
-      </c>
-      <c r="BW6" s="13">
-        <f t="array" ref="BW6">MATCH(MAX(ABS(BW3:BW5)), ABS(BW3:BW5), 0)</f>
-        <v/>
-      </c>
-      <c r="BX6" s="13">
-        <f t="array" ref="BX6">MATCH(MAX(ABS(BX3:BX5)), ABS(BX3:BX5), 0)</f>
-        <v/>
-      </c>
-      <c r="BY6" s="13">
-        <f t="array" ref="BY6">MATCH(MAX(ABS(BY3:BY5)), ABS(BY3:BY5), 0)</f>
-        <v/>
-      </c>
-      <c r="BZ6" s="13">
-        <f t="array" ref="BZ6">MATCH(MAX(ABS(BZ3:BZ5)), ABS(BZ3:BZ5), 0)</f>
-        <v/>
-      </c>
-      <c r="CA6" s="13">
-        <f t="array" ref="CA6">MATCH(MAX(ABS(CA3:CA5)), ABS(CA3:CA5), 0)</f>
-        <v/>
-      </c>
-      <c r="CB6" s="13">
-        <f t="array" ref="CB6">MATCH(MAX(ABS(CB3:CB5)), ABS(CB3:CB5), 0)</f>
-        <v/>
-      </c>
-      <c r="CC6" s="13">
-        <f t="array" ref="CC6">MATCH(MAX(ABS(CC3:CC5)), ABS(CC3:CC5), 0)</f>
-        <v/>
-      </c>
-      <c r="CD6" s="13">
-        <f t="array" ref="CD6">MATCH(MAX(ABS(CD3:CD5)), ABS(CD3:CD5), 0)</f>
-        <v/>
-      </c>
-      <c r="CE6" s="13">
-        <f t="array" ref="CE6">MATCH(MAX(ABS(CE3:CE5)), ABS(CE3:CE5), 0)</f>
-        <v/>
-      </c>
-      <c r="CF6" s="13">
-        <f t="array" ref="CF6">MATCH(MAX(ABS(CF3:CF5)), ABS(CF3:CF5), 0)</f>
-        <v/>
-      </c>
-      <c r="CG6" s="13">
-        <f t="array" ref="CG6">MATCH(MAX(ABS(CG3:CG5)), ABS(CG3:CG5), 0)</f>
-        <v/>
-      </c>
-      <c r="CH6" s="13">
-        <f t="array" ref="CH6">MATCH(MAX(ABS(CH3:CH5)), ABS(CH3:CH5), 0)</f>
-        <v/>
-      </c>
-      <c r="CI6" s="13">
-        <f t="array" ref="CI6">MATCH(MAX(ABS(CI3:CI5)), ABS(CI3:CI5), 0)</f>
-        <v/>
-      </c>
-      <c r="CJ6" s="13">
-        <f t="array" ref="CJ6">MATCH(MAX(ABS(CJ3:CJ5)), ABS(CJ3:CJ5), 0)</f>
-        <v/>
-      </c>
-      <c r="CK6" s="13">
-        <f t="array" ref="CK6">MATCH(MAX(ABS(CK3:CK5)), ABS(CK3:CK5), 0)</f>
-        <v/>
-      </c>
-      <c r="CL6" s="13">
-        <f t="array" ref="CL6">MATCH(MAX(ABS(CL3:CL5)), ABS(CL3:CL5), 0)</f>
-        <v/>
-      </c>
-      <c r="CM6" s="13">
-        <f t="array" ref="CM6">MATCH(MAX(ABS(CM3:CM5)), ABS(CM3:CM5), 0)</f>
-        <v/>
-      </c>
-      <c r="CN6" s="13">
-        <f t="array" ref="CN6">MATCH(MAX(ABS(CN3:CN5)), ABS(CN3:CN5), 0)</f>
-        <v/>
-      </c>
-      <c r="CO6" s="13">
-        <f t="array" ref="CO6">MATCH(MAX(ABS(CO3:CO5)), ABS(CO3:CO5), 0)</f>
-        <v/>
-      </c>
-      <c r="CP6" s="13">
-        <f t="array" ref="CP6">MATCH(MAX(ABS(CP3:CP5)), ABS(CP3:CP5), 0)</f>
-        <v/>
-      </c>
-      <c r="CQ6" s="13">
-        <f t="array" ref="CQ6">MATCH(MAX(ABS(CQ3:CQ5)), ABS(CQ3:CQ5), 0)</f>
-        <v/>
-      </c>
-      <c r="CR6" s="13">
-        <f t="array" ref="CR6">MATCH(MAX(ABS(CR3:CR5)), ABS(CR3:CR5), 0)</f>
-        <v/>
-      </c>
-      <c r="CS6" s="13">
-        <f t="array" ref="CS6">MATCH(MAX(ABS(CS3:CS5)), ABS(CS3:CS5), 0)</f>
-        <v/>
-      </c>
-      <c r="CT6" s="13">
-        <f t="array" ref="CT6">MATCH(MAX(ABS(CT3:CT5)), ABS(CT3:CT5), 0)</f>
-        <v/>
-      </c>
-      <c r="CU6" s="13">
-        <f t="array" ref="CU6">MATCH(MAX(ABS(CU3:CU5)), ABS(CU3:CU5), 0)</f>
-        <v/>
-      </c>
-      <c r="CV6" s="13">
-        <f t="array" ref="CV6">MATCH(MAX(ABS(CV3:CV5)), ABS(CV3:CV5), 0)</f>
-        <v/>
-      </c>
-      <c r="CW6" s="13">
-        <f t="array" ref="CW6">MATCH(MAX(ABS(CW3:CW5)), ABS(CW3:CW5), 0)</f>
-        <v/>
-      </c>
-      <c r="CX6" s="13">
-        <f t="array" ref="CX6">MATCH(MAX(ABS(CX3:CX5)), ABS(CX3:CX5), 0)</f>
-        <v/>
-      </c>
-      <c r="CY6" s="13">
-        <f t="array" ref="CY6">MATCH(MAX(ABS(CY3:CY5)), ABS(CY3:CY5), 0)</f>
-        <v/>
-      </c>
-      <c r="CZ6" s="13">
-        <f t="array" ref="CZ6">MATCH(MAX(ABS(CZ3:CZ5)), ABS(CZ3:CZ5), 0)</f>
-        <v/>
-      </c>
-      <c r="DA6" s="13">
-        <f t="array" ref="DA6">MATCH(MAX(ABS(DA3:DA5)), ABS(DA3:DA5), 0)</f>
-        <v/>
-      </c>
-      <c r="DB6" s="13">
-        <f t="array" ref="DB6">MATCH(MAX(ABS(DB3:DB5)), ABS(DB3:DB5), 0)</f>
-        <v/>
-      </c>
-      <c r="DC6" s="13">
-        <f t="array" ref="DC6">MATCH(MAX(ABS(DC3:DC5)), ABS(DC3:DC5), 0)</f>
-        <v/>
-      </c>
-      <c r="DD6" s="13">
-        <f t="array" ref="DD6">MATCH(MAX(ABS(DD3:DD5)), ABS(DD3:DD5), 0)</f>
-        <v/>
-      </c>
-      <c r="DE6" s="13">
-        <f t="array" ref="DE6">MATCH(MAX(ABS(DE3:DE5)), ABS(DE3:DE5), 0)</f>
-        <v/>
-      </c>
-      <c r="DF6" s="13">
-        <f t="array" ref="DF6">MATCH(MAX(ABS(DF3:DF5)), ABS(DF3:DF5), 0)</f>
-        <v/>
-      </c>
-      <c r="DG6" s="13">
-        <f t="array" ref="DG6">MATCH(MAX(ABS(DG3:DG5)), ABS(DG3:DG5), 0)</f>
-        <v/>
-      </c>
-      <c r="DH6" s="13">
-        <f t="array" ref="DH6">MATCH(MAX(ABS(DH3:DH5)), ABS(DH3:DH5), 0)</f>
-        <v/>
-      </c>
-      <c r="DI6" s="13">
-        <f t="array" ref="DI6">MATCH(MAX(ABS(DI3:DI5)), ABS(DI3:DI5), 0)</f>
-        <v/>
-      </c>
-      <c r="DJ6" s="13">
-        <f t="array" ref="DJ6">MATCH(MAX(ABS(DJ3:DJ5)), ABS(DJ3:DJ5), 0)</f>
-        <v/>
-      </c>
-      <c r="DK6" s="13">
-        <f t="array" ref="DK6">MATCH(MAX(ABS(DK3:DK5)), ABS(DK3:DK5), 0)</f>
-        <v/>
-      </c>
-      <c r="DL6" s="13">
-        <f t="array" ref="DL6">MATCH(MAX(ABS(DL3:DL5)), ABS(DL3:DL5), 0)</f>
-        <v/>
-      </c>
-      <c r="DM6" s="13">
-        <f t="array" ref="DM6">MATCH(MAX(ABS(DM3:DM5)), ABS(DM3:DM5), 0)</f>
-        <v/>
-      </c>
-      <c r="DN6" s="13">
-        <f t="array" ref="DN6">MATCH(MAX(ABS(DN3:DN5)), ABS(DN3:DN5), 0)</f>
-        <v/>
-      </c>
-      <c r="DO6" s="13">
-        <f t="array" ref="DO6">MATCH(MAX(ABS(DO3:DO5)), ABS(DO3:DO5), 0)</f>
-        <v/>
-      </c>
-      <c r="DP6" s="13">
-        <f t="array" ref="DP6">MATCH(MAX(ABS(DP3:DP5)), ABS(DP3:DP5), 0)</f>
-        <v/>
-      </c>
-      <c r="DQ6" s="13">
-        <f t="array" ref="DQ6">MATCH(MAX(ABS(DQ3:DQ5)), ABS(DQ3:DQ5), 0)</f>
-        <v/>
-      </c>
-      <c r="DR6" s="13">
-        <f t="array" ref="DR6">MATCH(MAX(ABS(DR3:DR5)), ABS(DR3:DR5), 0)</f>
-        <v/>
-      </c>
-      <c r="DS6" s="13">
-        <f t="array" ref="DS6">MATCH(MAX(ABS(DS3:DS5)), ABS(DS3:DS5), 0)</f>
-        <v/>
-      </c>
-      <c r="DT6" s="13">
-        <f t="array" ref="DT6">MATCH(MAX(ABS(DT3:DT5)), ABS(DT3:DT5), 0)</f>
-        <v/>
-      </c>
-      <c r="DU6" s="13">
-        <f t="array" ref="DU6">MATCH(MAX(ABS(DU3:DU5)), ABS(DU3:DU5), 0)</f>
-        <v/>
-      </c>
-      <c r="DV6" s="13">
-        <f t="array" ref="DV6">MATCH(MAX(ABS(DV3:DV5)), ABS(DV3:DV5), 0)</f>
-        <v/>
-      </c>
-      <c r="DW6" s="13">
-        <f t="array" ref="DW6">MATCH(MAX(ABS(DW3:DW5)), ABS(DW3:DW5), 0)</f>
-        <v/>
-      </c>
-      <c r="DX6" s="13">
-        <f t="array" ref="DX6">MATCH(MAX(ABS(DX3:DX5)), ABS(DX3:DX5), 0)</f>
-        <v/>
-      </c>
-      <c r="DY6" s="13">
-        <f t="array" ref="DY6">MATCH(MAX(ABS(DY3:DY5)), ABS(DY3:DY5), 0)</f>
-        <v/>
-      </c>
-      <c r="DZ6" s="13">
-        <f t="array" ref="DZ6">MATCH(MAX(ABS(DZ3:DZ5)), ABS(DZ3:DZ5), 0)</f>
-        <v/>
-      </c>
-      <c r="EA6" s="13">
-        <f t="array" ref="EA6">MATCH(MAX(ABS(EA3:EA5)), ABS(EA3:EA5), 0)</f>
-        <v/>
-      </c>
-      <c r="EB6" s="13">
-        <f t="array" ref="EB6">MATCH(MAX(ABS(EB3:EB5)), ABS(EB3:EB5), 0)</f>
-        <v/>
-      </c>
-      <c r="EC6" s="13">
-        <f t="array" ref="EC6">MATCH(MAX(ABS(EC3:EC5)), ABS(EC3:EC5), 0)</f>
-        <v/>
-      </c>
-      <c r="ED6" s="13">
-        <f t="array" ref="ED6">MATCH(MAX(ABS(ED3:ED5)), ABS(ED3:ED5), 0)</f>
-        <v/>
-      </c>
-      <c r="EE6" s="13">
-        <f t="array" ref="EE6">MATCH(MAX(ABS(EE3:EE5)), ABS(EE3:EE5), 0)</f>
-        <v/>
+      <c r="C6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CZ6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DE6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DK6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DL6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DM6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DO6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DP6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DR6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DV6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DZ6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="EA6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="EB6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE6" s="14" t="n">
+        <v>3</v>
       </c>
       <c r="EF6" s="13">
         <f t="array" ref="EF6">MATCH(MAX(ABS(EF3:EF5)), ABS(EF3:EF5), 0)</f>
@@ -8715,275 +8582,1073 @@
       </c>
     </row>
     <row r="7" ht="16.15" customFormat="1" customHeight="1" s="5" thickBot="1">
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="I7" s="13" t="n"/>
-      <c r="J7" s="13" t="n"/>
-      <c r="K7" s="13" t="n"/>
-      <c r="L7" s="13" t="n"/>
-      <c r="M7" s="13" t="n"/>
-      <c r="N7" s="13" t="n"/>
-      <c r="O7" s="13" t="n"/>
-      <c r="P7" s="13" t="n"/>
-      <c r="Q7" s="13" t="n"/>
-      <c r="R7" s="13" t="n"/>
-      <c r="S7" s="13" t="n"/>
-      <c r="T7" s="13" t="n"/>
-      <c r="U7" s="13" t="n"/>
-      <c r="V7" s="13" t="n"/>
-      <c r="W7" s="13" t="n"/>
-      <c r="X7" s="13" t="n"/>
-      <c r="Y7" s="13" t="n"/>
-      <c r="Z7" s="13" t="n"/>
-      <c r="AA7" s="13" t="n"/>
-      <c r="AB7" s="13" t="n"/>
-      <c r="AC7" s="13" t="n"/>
-      <c r="AD7" s="13" t="n"/>
-      <c r="AE7" s="13" t="n"/>
-      <c r="AF7" s="13" t="n"/>
-      <c r="AG7" s="13" t="n"/>
-      <c r="AH7" s="13" t="n"/>
-      <c r="AI7" s="13" t="n"/>
-      <c r="AJ7" s="13" t="n"/>
-      <c r="AK7" s="13" t="n"/>
-      <c r="AL7" s="13" t="n"/>
-      <c r="AM7" s="13" t="n"/>
-      <c r="AN7" s="13" t="n"/>
-      <c r="AO7" s="13" t="n"/>
-      <c r="AP7" s="13" t="n"/>
-      <c r="AQ7" s="13" t="n"/>
-      <c r="AR7" s="13" t="n"/>
-      <c r="AS7" s="13" t="n"/>
-      <c r="AT7" s="13" t="n"/>
-      <c r="AU7" s="13" t="n"/>
-      <c r="AV7" s="13" t="n"/>
-      <c r="AW7" s="13" t="n"/>
-      <c r="AX7" s="13" t="n"/>
-      <c r="AY7" s="13" t="n"/>
-      <c r="AZ7" s="13" t="n"/>
-      <c r="BA7" s="13" t="n"/>
-      <c r="BB7" s="13" t="n"/>
-      <c r="BC7" s="13" t="n"/>
-      <c r="BD7" s="13" t="n"/>
-      <c r="BE7" s="13" t="n"/>
-      <c r="BF7" s="13" t="n"/>
-      <c r="BG7" s="13" t="n"/>
-      <c r="BH7" s="13" t="n"/>
-      <c r="BI7" s="13" t="n"/>
-      <c r="BJ7" s="13" t="n"/>
-      <c r="BK7" s="13" t="n"/>
-      <c r="BL7" s="13" t="n"/>
-      <c r="BM7" s="13" t="n"/>
-      <c r="BN7" s="13" t="n"/>
-      <c r="BO7" s="13" t="n"/>
-      <c r="BP7" s="13" t="n"/>
-      <c r="BQ7" s="13" t="n"/>
-      <c r="BR7" s="13" t="n"/>
-      <c r="BS7" s="13" t="n"/>
-      <c r="BT7" s="13" t="n"/>
-      <c r="BU7" s="13" t="n"/>
-      <c r="BV7" s="13" t="n"/>
-      <c r="BW7" s="13" t="n"/>
-      <c r="BX7" s="13" t="n"/>
-      <c r="BY7" s="13" t="n"/>
-      <c r="BZ7" s="13" t="n"/>
-      <c r="CA7" s="13" t="n"/>
-      <c r="CB7" s="13" t="n"/>
-      <c r="CC7" s="13" t="n"/>
-      <c r="CD7" s="13" t="n"/>
-      <c r="CE7" s="13" t="n"/>
-      <c r="CF7" s="13" t="n"/>
-      <c r="CG7" s="13" t="n"/>
-      <c r="CH7" s="13" t="n"/>
-      <c r="CI7" s="13" t="n"/>
-      <c r="CJ7" s="13" t="n"/>
-      <c r="CK7" s="13" t="n"/>
-      <c r="CL7" s="13" t="n"/>
-      <c r="CM7" s="13" t="n"/>
-      <c r="CN7" s="13" t="n"/>
-      <c r="CO7" s="13" t="n"/>
-      <c r="CP7" s="13" t="n"/>
-      <c r="CQ7" s="13" t="n"/>
-      <c r="CR7" s="13" t="n"/>
-      <c r="CS7" s="13" t="n"/>
-      <c r="CT7" s="13" t="n"/>
-      <c r="CU7" s="13" t="n"/>
-      <c r="CV7" s="13" t="n"/>
-      <c r="CW7" s="13" t="n"/>
-      <c r="CX7" s="13" t="n"/>
-      <c r="CY7" s="13" t="n"/>
-      <c r="CZ7" s="13" t="n"/>
-      <c r="DA7" s="13" t="n"/>
-      <c r="DB7" s="13" t="n"/>
-      <c r="DC7" s="13" t="n"/>
-      <c r="DD7" s="13" t="n"/>
-      <c r="DE7" s="13" t="n"/>
-      <c r="DF7" s="13" t="n"/>
-      <c r="DG7" s="13" t="n"/>
-      <c r="DH7" s="13" t="n"/>
-      <c r="DI7" s="13" t="n"/>
-      <c r="DJ7" s="13" t="n"/>
-      <c r="DK7" s="13" t="n"/>
-      <c r="DL7" s="13" t="n"/>
-      <c r="DM7" s="13" t="n"/>
-      <c r="DN7" s="13" t="n"/>
-      <c r="DO7" s="13" t="n"/>
-      <c r="DP7" s="13" t="n"/>
-      <c r="DQ7" s="13" t="n"/>
-      <c r="DR7" s="13" t="n"/>
-      <c r="DS7" s="13" t="n"/>
-      <c r="DT7" s="13" t="n"/>
-      <c r="DU7" s="13" t="n"/>
-      <c r="DV7" s="13" t="n"/>
-      <c r="DW7" s="13" t="n"/>
-      <c r="DX7" s="13" t="n"/>
-      <c r="DY7" s="13" t="n"/>
-      <c r="DZ7" s="13" t="n"/>
-      <c r="EA7" s="13" t="n"/>
-      <c r="EB7" s="13" t="n"/>
-      <c r="EC7" s="13" t="n"/>
-      <c r="ED7" s="13" t="n"/>
-      <c r="EE7" s="13" t="n"/>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="F7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="G7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="H7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="I7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="J7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="K7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="L7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="M7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="N7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="O7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="P7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="Q7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="R7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="S7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="T7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="U7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="V7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="W7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="X7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Y7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="Z7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="AA7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="AB7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="AC7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AD7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AE7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AF7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AG7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AH7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AI7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AJ7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AK7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AL7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="AM7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="AN7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="AO7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AP7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="AQ7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="AR7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="AS7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="AT7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AU7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AV7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="AW7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="AX7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AY7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="AZ7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BA7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="BB7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="BC7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="BD7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="BE7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="BF7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BG7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="BH7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="BI7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BJ7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BK7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BL7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BM7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BN7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BO7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="BP7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="BQ7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BR7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="BS7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BT7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BU7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="BV7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="BW7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BX7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="BY7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="BZ7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="CA7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="CB7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="CC7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="CD7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CE7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="CF7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CG7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CH7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CI7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CJ7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="CK7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CL7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CM7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="CN7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="CO7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CP7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="CQ7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CR7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CS7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="CT7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CU7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CV7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="CW7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CX7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CY7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="CZ7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DA7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="DB7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="DC7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="DD7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DE7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DF7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DG7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DH7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="DI7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DJ7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DK7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DL7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DM7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DN7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DO7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DP7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="DQ7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DR7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="DS7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DT7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DU7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DV7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DW7" s="14" t="inlineStr">
+        <is>
+          <t>bm</t>
+        </is>
+      </c>
+      <c r="DX7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DY7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="DZ7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="EA7" s="14" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="EB7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="EC7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="ED7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
+      <c r="EE7" s="14" t="inlineStr">
+        <is>
+          <t>mom</t>
+        </is>
+      </c>
       <c r="EF7" s="13" t="n"/>
     </row>
     <row r="8" ht="16.15" customFormat="1" customHeight="1" s="5" thickBot="1">
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="13" t="n"/>
-      <c r="L8" s="13" t="n"/>
-      <c r="M8" s="13" t="n"/>
-      <c r="N8" s="13" t="n"/>
-      <c r="O8" s="13" t="n"/>
-      <c r="P8" s="13" t="n"/>
-      <c r="Q8" s="13" t="n"/>
-      <c r="R8" s="13" t="n"/>
-      <c r="S8" s="13" t="n"/>
-      <c r="T8" s="13" t="n"/>
-      <c r="U8" s="13" t="n"/>
-      <c r="V8" s="13" t="n"/>
-      <c r="W8" s="13" t="n"/>
-      <c r="X8" s="13" t="n"/>
-      <c r="Y8" s="13" t="n"/>
-      <c r="Z8" s="13" t="n"/>
-      <c r="AA8" s="13" t="n"/>
-      <c r="AB8" s="13" t="n"/>
-      <c r="AC8" s="13" t="n"/>
-      <c r="AD8" s="13" t="n"/>
-      <c r="AE8" s="13" t="n"/>
-      <c r="AF8" s="13" t="n"/>
-      <c r="AG8" s="13" t="n"/>
-      <c r="AH8" s="13" t="n"/>
-      <c r="AI8" s="13" t="n"/>
-      <c r="AJ8" s="13" t="n"/>
-      <c r="AK8" s="13" t="n"/>
-      <c r="AL8" s="13" t="n"/>
-      <c r="AM8" s="13" t="n"/>
-      <c r="AN8" s="13" t="n"/>
-      <c r="AO8" s="13" t="n"/>
-      <c r="AP8" s="13" t="n"/>
-      <c r="AQ8" s="13" t="n"/>
-      <c r="AR8" s="13" t="n"/>
-      <c r="AS8" s="13" t="n"/>
-      <c r="AT8" s="13" t="n"/>
-      <c r="AU8" s="13" t="n"/>
-      <c r="AV8" s="13" t="n"/>
-      <c r="AW8" s="13" t="n"/>
-      <c r="AX8" s="13" t="n"/>
-      <c r="AY8" s="13" t="n"/>
-      <c r="AZ8" s="13" t="n"/>
-      <c r="BA8" s="13" t="n"/>
-      <c r="BB8" s="13" t="n"/>
-      <c r="BC8" s="13" t="n"/>
-      <c r="BD8" s="13" t="n"/>
-      <c r="BE8" s="13" t="n"/>
-      <c r="BF8" s="13" t="n"/>
-      <c r="BG8" s="13" t="n"/>
-      <c r="BH8" s="13" t="n"/>
-      <c r="BI8" s="13" t="n"/>
-      <c r="BJ8" s="13" t="n"/>
-      <c r="BK8" s="13" t="n"/>
-      <c r="BL8" s="13" t="n"/>
-      <c r="BM8" s="13" t="n"/>
-      <c r="BN8" s="13" t="n"/>
-      <c r="BO8" s="13" t="n"/>
-      <c r="BP8" s="13" t="n"/>
-      <c r="BQ8" s="13" t="n"/>
-      <c r="BR8" s="13" t="n"/>
-      <c r="BS8" s="13" t="n"/>
-      <c r="BT8" s="13" t="n"/>
-      <c r="BU8" s="13" t="n"/>
-      <c r="BV8" s="13" t="n"/>
-      <c r="BW8" s="13" t="n"/>
-      <c r="BX8" s="13" t="n"/>
-      <c r="BY8" s="13" t="n"/>
-      <c r="BZ8" s="13" t="n"/>
-      <c r="CA8" s="13" t="n"/>
-      <c r="CB8" s="13" t="n"/>
-      <c r="CC8" s="13" t="n"/>
-      <c r="CD8" s="13" t="n"/>
-      <c r="CE8" s="13" t="n"/>
-      <c r="CF8" s="13" t="n"/>
-      <c r="CG8" s="13" t="n"/>
-      <c r="CH8" s="13" t="n"/>
-      <c r="CI8" s="13" t="n"/>
-      <c r="CJ8" s="13" t="n"/>
-      <c r="CK8" s="13" t="n"/>
-      <c r="CL8" s="13" t="n"/>
-      <c r="CM8" s="13" t="n"/>
-      <c r="CN8" s="13" t="n"/>
-      <c r="CO8" s="13" t="n"/>
-      <c r="CP8" s="13" t="n"/>
-      <c r="CQ8" s="13" t="n"/>
-      <c r="CR8" s="13" t="n"/>
-      <c r="CS8" s="13" t="n"/>
-      <c r="CT8" s="13" t="n"/>
-      <c r="CU8" s="13" t="n"/>
-      <c r="CV8" s="13" t="n"/>
-      <c r="CW8" s="13" t="n"/>
-      <c r="CX8" s="13" t="n"/>
-      <c r="CY8" s="13" t="n"/>
-      <c r="CZ8" s="13" t="n"/>
-      <c r="DA8" s="13" t="n"/>
-      <c r="DB8" s="13" t="n"/>
-      <c r="DC8" s="13" t="n"/>
-      <c r="DD8" s="13" t="n"/>
-      <c r="DE8" s="13" t="n"/>
-      <c r="DF8" s="13" t="n"/>
-      <c r="DG8" s="13" t="n"/>
-      <c r="DH8" s="13" t="n"/>
-      <c r="DI8" s="13" t="n"/>
-      <c r="DJ8" s="13" t="n"/>
-      <c r="DK8" s="13" t="n"/>
-      <c r="DL8" s="13" t="n"/>
-      <c r="DM8" s="13" t="n"/>
-      <c r="DN8" s="13" t="n"/>
-      <c r="DO8" s="13" t="n"/>
-      <c r="DP8" s="13" t="n"/>
-      <c r="DQ8" s="13" t="n"/>
-      <c r="DR8" s="13" t="n"/>
-      <c r="DS8" s="13" t="n"/>
-      <c r="DT8" s="13" t="n"/>
-      <c r="DU8" s="13" t="n"/>
-      <c r="DV8" s="13" t="n"/>
-      <c r="DW8" s="13" t="n"/>
-      <c r="DX8" s="13" t="n"/>
-      <c r="DY8" s="13" t="n"/>
-      <c r="DZ8" s="13" t="n"/>
-      <c r="EA8" s="13" t="n"/>
-      <c r="EB8" s="13" t="n"/>
-      <c r="EC8" s="13" t="n"/>
-      <c r="ED8" s="13" t="n"/>
-      <c r="EE8" s="13" t="n"/>
+      <c r="C8" s="14" t="n">
+        <v>-0.209358</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>-0.196253</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>0.524848</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>0.046837</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>-0.210471</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>0.474415</v>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>-0.196766</v>
+      </c>
+      <c r="J8" s="14" t="n">
+        <v>0.27883</v>
+      </c>
+      <c r="K8" s="14" t="n">
+        <v>0.275528</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>-0.430043</v>
+      </c>
+      <c r="M8" s="14" t="n">
+        <v>0.323768</v>
+      </c>
+      <c r="N8" s="14" t="n">
+        <v>-0.348242</v>
+      </c>
+      <c r="O8" s="14" t="n">
+        <v>0.310847</v>
+      </c>
+      <c r="P8" s="14" t="n">
+        <v>0.395466</v>
+      </c>
+      <c r="Q8" s="14" t="n">
+        <v>-0.123071</v>
+      </c>
+      <c r="R8" s="14" t="n">
+        <v>-0.112558</v>
+      </c>
+      <c r="S8" s="14" t="n">
+        <v>0.305792</v>
+      </c>
+      <c r="T8" s="14" t="n">
+        <v>-0.144585</v>
+      </c>
+      <c r="U8" s="14" t="n">
+        <v>-0.262808</v>
+      </c>
+      <c r="V8" s="14" t="n">
+        <v>-0.139367</v>
+      </c>
+      <c r="W8" s="14" t="n">
+        <v>-0.39469</v>
+      </c>
+      <c r="X8" s="14" t="n">
+        <v>-0.169731</v>
+      </c>
+      <c r="Y8" s="14" t="n">
+        <v>-0.681273</v>
+      </c>
+      <c r="Z8" s="14" t="n">
+        <v>0.10309</v>
+      </c>
+      <c r="AA8" s="14" t="n">
+        <v>0.486377</v>
+      </c>
+      <c r="AB8" s="14" t="n">
+        <v>-0.23482</v>
+      </c>
+      <c r="AC8" s="14" t="n">
+        <v>-0.08916300000000001</v>
+      </c>
+      <c r="AD8" s="14" t="n">
+        <v>0.145141</v>
+      </c>
+      <c r="AE8" s="14" t="n">
+        <v>0.074669</v>
+      </c>
+      <c r="AF8" s="14" t="n">
+        <v>0.17577</v>
+      </c>
+      <c r="AG8" s="14" t="n">
+        <v>-0.30336</v>
+      </c>
+      <c r="AH8" s="14" t="n">
+        <v>-0.34825</v>
+      </c>
+      <c r="AI8" s="14" t="n">
+        <v>0.258724</v>
+      </c>
+      <c r="AJ8" s="14" t="n">
+        <v>-0.488892</v>
+      </c>
+      <c r="AK8" s="14" t="n">
+        <v>0.132548</v>
+      </c>
+      <c r="AL8" s="14" t="n">
+        <v>0.187381</v>
+      </c>
+      <c r="AM8" s="14" t="n">
+        <v>0.09683700000000001</v>
+      </c>
+      <c r="AN8" s="14" t="n">
+        <v>0.207574</v>
+      </c>
+      <c r="AO8" s="14" t="n">
+        <v>0.184463</v>
+      </c>
+      <c r="AP8" s="14" t="n">
+        <v>0.079751</v>
+      </c>
+      <c r="AQ8" s="14" t="n">
+        <v>-0.21144</v>
+      </c>
+      <c r="AR8" s="14" t="n">
+        <v>0.114431</v>
+      </c>
+      <c r="AS8" s="14" t="n">
+        <v>0.14111</v>
+      </c>
+      <c r="AT8" s="14" t="n">
+        <v>0.151645</v>
+      </c>
+      <c r="AU8" s="14" t="n">
+        <v>-0.200837</v>
+      </c>
+      <c r="AV8" s="14" t="n">
+        <v>-0.217699</v>
+      </c>
+      <c r="AW8" s="14" t="n">
+        <v>-0.174155</v>
+      </c>
+      <c r="AX8" s="14" t="n">
+        <v>0.112293</v>
+      </c>
+      <c r="AY8" s="14" t="n">
+        <v>-0.118056</v>
+      </c>
+      <c r="AZ8" s="14" t="n">
+        <v>0.20622</v>
+      </c>
+      <c r="BA8" s="14" t="n">
+        <v>0.1605</v>
+      </c>
+      <c r="BB8" s="14" t="n">
+        <v>-0.252464</v>
+      </c>
+      <c r="BC8" s="14" t="n">
+        <v>0.156737</v>
+      </c>
+      <c r="BD8" s="14" t="n">
+        <v>0.166883</v>
+      </c>
+      <c r="BE8" s="14" t="n">
+        <v>-0.131472</v>
+      </c>
+      <c r="BF8" s="14" t="n">
+        <v>-0.285262</v>
+      </c>
+      <c r="BG8" s="14" t="n">
+        <v>0.315311</v>
+      </c>
+      <c r="BH8" s="14" t="n">
+        <v>0.270101</v>
+      </c>
+      <c r="BI8" s="14" t="n">
+        <v>0.058127</v>
+      </c>
+      <c r="BJ8" s="14" t="n">
+        <v>-0.25987</v>
+      </c>
+      <c r="BK8" s="14" t="n">
+        <v>0.184879</v>
+      </c>
+      <c r="BL8" s="14" t="n">
+        <v>-0.269132</v>
+      </c>
+      <c r="BM8" s="14" t="n">
+        <v>0.171738</v>
+      </c>
+      <c r="BN8" s="14" t="n">
+        <v>-0.180922</v>
+      </c>
+      <c r="BO8" s="14" t="n">
+        <v>-0.149288</v>
+      </c>
+      <c r="BP8" s="14" t="n">
+        <v>0.08362700000000001</v>
+      </c>
+      <c r="BQ8" s="14" t="n">
+        <v>-0.16861</v>
+      </c>
+      <c r="BR8" s="14" t="n">
+        <v>0.213465</v>
+      </c>
+      <c r="BS8" s="14" t="n">
+        <v>0.124424</v>
+      </c>
+      <c r="BT8" s="14" t="n">
+        <v>0.207722</v>
+      </c>
+      <c r="BU8" s="14" t="n">
+        <v>0.113779</v>
+      </c>
+      <c r="BV8" s="14" t="n">
+        <v>0.171973</v>
+      </c>
+      <c r="BW8" s="14" t="n">
+        <v>-0.126802</v>
+      </c>
+      <c r="BX8" s="14" t="n">
+        <v>-0.10582</v>
+      </c>
+      <c r="BY8" s="14" t="n">
+        <v>-0.182695</v>
+      </c>
+      <c r="BZ8" s="14" t="n">
+        <v>-0.140713</v>
+      </c>
+      <c r="CA8" s="14" t="n">
+        <v>0.073473</v>
+      </c>
+      <c r="CB8" s="14" t="n">
+        <v>0.198019</v>
+      </c>
+      <c r="CC8" s="14" t="n">
+        <v>-0.294464</v>
+      </c>
+      <c r="CD8" s="14" t="n">
+        <v>0.327423</v>
+      </c>
+      <c r="CE8" s="14" t="n">
+        <v>0.218797</v>
+      </c>
+      <c r="CF8" s="14" t="n">
+        <v>-0.149373</v>
+      </c>
+      <c r="CG8" s="14" t="n">
+        <v>0.1632</v>
+      </c>
+      <c r="CH8" s="14" t="n">
+        <v>-0.069038</v>
+      </c>
+      <c r="CI8" s="14" t="n">
+        <v>-0.115362</v>
+      </c>
+      <c r="CJ8" s="14" t="n">
+        <v>-0.391113</v>
+      </c>
+      <c r="CK8" s="14" t="n">
+        <v>0.378974</v>
+      </c>
+      <c r="CL8" s="14" t="n">
+        <v>-0.07638300000000001</v>
+      </c>
+      <c r="CM8" s="14" t="n">
+        <v>0.183112</v>
+      </c>
+      <c r="CN8" s="14" t="n">
+        <v>-0.397462</v>
+      </c>
+      <c r="CO8" s="14" t="n">
+        <v>0.437168</v>
+      </c>
+      <c r="CP8" s="14" t="n">
+        <v>-0.095682</v>
+      </c>
+      <c r="CQ8" s="14" t="n">
+        <v>-0.499352</v>
+      </c>
+      <c r="CR8" s="14" t="n">
+        <v>0.339857</v>
+      </c>
+      <c r="CS8" s="14" t="n">
+        <v>-0.279011</v>
+      </c>
+      <c r="CT8" s="14" t="n">
+        <v>0.22462</v>
+      </c>
+      <c r="CU8" s="14" t="n">
+        <v>-0.251718</v>
+      </c>
+      <c r="CV8" s="14" t="n">
+        <v>0.11175</v>
+      </c>
+      <c r="CW8" s="14" t="n">
+        <v>0.210877</v>
+      </c>
+      <c r="CX8" s="14" t="n">
+        <v>0.250162</v>
+      </c>
+      <c r="CY8" s="14" t="n">
+        <v>-0.524134</v>
+      </c>
+      <c r="CZ8" s="14" t="n">
+        <v>0.821618</v>
+      </c>
+      <c r="DA8" s="14" t="n">
+        <v>0.312541</v>
+      </c>
+      <c r="DB8" s="14" t="n">
+        <v>-0.155646</v>
+      </c>
+      <c r="DC8" s="14" t="n">
+        <v>-0.186959</v>
+      </c>
+      <c r="DD8" s="14" t="n">
+        <v>-0.420839</v>
+      </c>
+      <c r="DE8" s="14" t="n">
+        <v>-0.227972</v>
+      </c>
+      <c r="DF8" s="14" t="n">
+        <v>-0.33716</v>
+      </c>
+      <c r="DG8" s="14" t="n">
+        <v>-0.444004</v>
+      </c>
+      <c r="DH8" s="14" t="n">
+        <v>0.157626</v>
+      </c>
+      <c r="DI8" s="14" t="n">
+        <v>0.308969</v>
+      </c>
+      <c r="DJ8" s="14" t="n">
+        <v>-0.286692</v>
+      </c>
+      <c r="DK8" s="14" t="n">
+        <v>0.846212</v>
+      </c>
+      <c r="DL8" s="14" t="n">
+        <v>-0.16924</v>
+      </c>
+      <c r="DM8" s="14" t="n">
+        <v>-0.43945</v>
+      </c>
+      <c r="DN8" s="14" t="n">
+        <v>0.747513</v>
+      </c>
+      <c r="DO8" s="14" t="n">
+        <v>-0.399964</v>
+      </c>
+      <c r="DP8" s="14" t="n">
+        <v>0.161131</v>
+      </c>
+      <c r="DQ8" s="14" t="n">
+        <v>-0.588634</v>
+      </c>
+      <c r="DR8" s="14" t="n">
+        <v>-0.129244</v>
+      </c>
+      <c r="DS8" s="14" t="n">
+        <v>-0.198785</v>
+      </c>
+      <c r="DT8" s="14" t="n">
+        <v>0.413212</v>
+      </c>
+      <c r="DU8" s="14" t="n">
+        <v>-0.170654</v>
+      </c>
+      <c r="DV8" s="14" t="n">
+        <v>0.68828</v>
+      </c>
+      <c r="DW8" s="14" t="n">
+        <v>0.06615600000000001</v>
+      </c>
+      <c r="DX8" s="14" t="n">
+        <v>-0.199935</v>
+      </c>
+      <c r="DY8" s="14" t="n">
+        <v>0.566314</v>
+      </c>
+      <c r="DZ8" s="14" t="n">
+        <v>0.473629</v>
+      </c>
+      <c r="EA8" s="14" t="n">
+        <v>-0.194881</v>
+      </c>
+      <c r="EB8" s="14" t="n">
+        <v>-1.076361</v>
+      </c>
+      <c r="EC8" s="14" t="n">
+        <v>-0.136106</v>
+      </c>
+      <c r="ED8" s="14" t="n">
+        <v>-0.273497</v>
+      </c>
+      <c r="EE8" s="14" t="n">
+        <v>0.601349</v>
+      </c>
       <c r="EF8" s="13" t="n"/>
     </row>
     <row r="9" ht="16.15" customFormat="1" customHeight="1" s="5" thickBot="1"/>
@@ -9821,7 +10486,7 @@
         <v>96</v>
       </c>
       <c r="C12" s="14" t="n">
-        <v>0.01449925</v>
+        <v>-0.01467855</v>
       </c>
       <c r="D12" s="14" t="n">
         <v>-0.01467855</v>
@@ -10228,7 +10893,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="14" t="n">
-        <v>-0.00747736</v>
+        <v>0.00545686</v>
       </c>
       <c r="D13" s="14" t="n">
         <v>0.00545686</v>
@@ -10635,7 +11300,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="14" t="n">
-        <v>-0.03322898</v>
+        <v>0.14164365</v>
       </c>
       <c r="D14" s="14" t="n">
         <v>0.14164365</v>
@@ -11042,7 +11707,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="14" t="n">
-        <v>-0.03635023</v>
+        <v>0.27303487</v>
       </c>
       <c r="D15" s="14" t="n">
         <v>0.27303487</v>
@@ -11449,7 +12114,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="14" t="n">
-        <v>-0.03943539</v>
+        <v>0.23433798</v>
       </c>
       <c r="D16" s="14" t="n">
         <v>0.23433798</v>
@@ -11856,7 +12521,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="14" t="n">
-        <v>-0.03891347</v>
+        <v>0.16854736</v>
       </c>
       <c r="D17" s="14" t="n">
         <v>0.16854736</v>
@@ -12263,7 +12928,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="14" t="n">
-        <v>-0.0591468</v>
+        <v>0.18401889</v>
       </c>
       <c r="D18" s="14" t="n">
         <v>0.18401889</v>
@@ -12670,7 +13335,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="14" t="n">
-        <v>-0.07386193000000001</v>
+        <v>0.21954287</v>
       </c>
       <c r="D19" s="14" t="n">
         <v>0.21954287</v>
@@ -13077,7 +13742,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="14" t="n">
-        <v>0.01124133</v>
+        <v>0.22258639</v>
       </c>
       <c r="D20" s="14" t="n">
         <v>0.22258639</v>
@@ -13484,7 +14149,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="n">
-        <v>0.01038483</v>
+        <v>0.32500828</v>
       </c>
       <c r="D21" s="14" t="n">
         <v>0.32500828</v>
@@ -13891,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="14" t="n">
-        <v>0.02592233</v>
+        <v>0.41742192</v>
       </c>
       <c r="D22" s="14" t="n">
         <v>0.41742192</v>
@@ -14298,7 +14963,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="14" t="n">
-        <v>0.03132568</v>
+        <v>-0.08896662</v>
       </c>
       <c r="D23" s="14" t="n">
         <v>-0.08896662</v>
@@ -14705,7 +15370,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="14" t="n">
-        <v>0.02776697</v>
+        <v>-0.08198838</v>
       </c>
       <c r="D24" s="14" t="n">
         <v>-0.08198838</v>

--- a/金融科技/data/IC.xlsx
+++ b/金融科技/data/IC.xlsx
@@ -10486,61 +10486,61 @@
         <v>96</v>
       </c>
       <c r="C12" s="14" t="n">
-        <v>-0.01467855</v>
+        <v>0.01449925</v>
       </c>
       <c r="D12" s="14" t="n">
-        <v>-0.01467855</v>
+        <v>0.11417438</v>
       </c>
       <c r="E12" s="14" t="n">
-        <v>0.00139372</v>
+        <v>-0.00139372</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>0.05595938</v>
+        <v>-0.05595938</v>
       </c>
       <c r="G12" s="14" t="n">
         <v>-0.03194745</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>-0.00959926</v>
+        <v>0.00959926</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>0.00865815</v>
+        <v>-0.03630856</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>-0.00738979</v>
+        <v>0.04240914</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>-0.029188</v>
+        <v>0.029188</v>
       </c>
       <c r="L12" s="14" t="n">
         <v>-0.00875856</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>-0.02688917</v>
+        <v>0.02688917</v>
       </c>
       <c r="N12" s="14" t="n">
         <v>0.03470335</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>-0.02791476</v>
+        <v>0.01869244</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>0.00025433</v>
+        <v>-0.00025433</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>-0.0041954</v>
+        <v>0.03379278</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>-0.01280542</v>
+        <v>-0.01289817</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>-0.01105503</v>
+        <v>0.01105503</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>-0.04786772</v>
+        <v>0.04340357</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>0.00135652</v>
+        <v>0.0200804</v>
       </c>
       <c r="V12" s="14" t="n">
         <v>-0.0096554</v>
@@ -10549,31 +10549,31 @@
         <v>0.02839057</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>0.10892036</v>
+        <v>0.02633929</v>
       </c>
       <c r="Y12" s="14" t="n">
         <v>-0.02049478</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>0.05167267</v>
+        <v>0.06493404</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>-0.02691848</v>
+        <v>-0.03863679</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>-0.01073333</v>
+        <v>-0.03460426</v>
       </c>
       <c r="AC12" s="14" t="n">
         <v>0.04677295</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>0.00253043</v>
+        <v>-0.00253043</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>-0.04643772</v>
+        <v>0.04643772</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>0.0520121</v>
+        <v>-0.0520121</v>
       </c>
       <c r="AG12" s="14" t="n">
         <v>0.00381493</v>
@@ -10582,124 +10582,124 @@
         <v>0.01571303</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>-0.008793789999999999</v>
+        <v>0.008793789999999999</v>
       </c>
       <c r="AJ12" s="14" t="n">
         <v>0.02103366</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>0.02097597</v>
+        <v>-0.02097597</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>0.04489094</v>
+        <v>0.01650579</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>-0.01973838</v>
+        <v>0.02621694</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>-0.02689752</v>
+        <v>0.06928955000000001</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>-0.01619056</v>
+        <v>0.01619056</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>-0.00638037</v>
+        <v>0.00463394</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>0.00169693</v>
+        <v>0.0060815</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>-0.02222303</v>
+        <v>0.00750443</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>-0.01997627</v>
+        <v>0.01937647</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>-0.07413279</v>
+        <v>0.07413279</v>
       </c>
       <c r="AU12" s="14" t="n">
         <v>-0.00371354</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>-0.05371563</v>
+        <v>-0.0217899</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>-0.0171697</v>
+        <v>-0.00175207</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>0.04384826</v>
+        <v>-0.04384826</v>
       </c>
       <c r="AY12" s="14" t="n">
         <v>-0.01690956</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>0.02361455</v>
+        <v>-0.02361455</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>0.02643433</v>
+        <v>0.00376895</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>0.02903665</v>
+        <v>0.00578539</v>
       </c>
       <c r="BC12" s="14" t="n">
-        <v>-0.02669097</v>
+        <v>0.01227279</v>
       </c>
       <c r="BD12" s="14" t="n">
-        <v>0.008221579999999999</v>
+        <v>0.01092102</v>
       </c>
       <c r="BE12" s="14" t="n">
-        <v>0.03536855</v>
+        <v>-0.02107787</v>
       </c>
       <c r="BF12" s="14" t="n">
         <v>0.06761695</v>
       </c>
       <c r="BG12" s="14" t="n">
-        <v>0.04675775</v>
+        <v>0.03382252</v>
       </c>
       <c r="BH12" s="14" t="n">
-        <v>0.03507959</v>
+        <v>0.01196024</v>
       </c>
       <c r="BI12" s="14" t="n">
-        <v>0.04375606</v>
+        <v>-0.04375606</v>
       </c>
       <c r="BJ12" s="14" t="n">
         <v>0.02466313</v>
       </c>
       <c r="BK12" s="14" t="n">
-        <v>0.0006573800000000001</v>
+        <v>-0.0006573800000000001</v>
       </c>
       <c r="BL12" s="14" t="n">
         <v>0.0321291</v>
       </c>
       <c r="BM12" s="14" t="n">
-        <v>-0.05030568</v>
+        <v>0.05030568</v>
       </c>
       <c r="BN12" s="14" t="n">
         <v>0.01157597</v>
       </c>
       <c r="BO12" s="14" t="n">
-        <v>0.00249404</v>
+        <v>-0.02424631</v>
       </c>
       <c r="BP12" s="14" t="n">
-        <v>-0.0151588</v>
+        <v>0.02642196</v>
       </c>
       <c r="BQ12" s="14" t="n">
         <v>0.01871551</v>
       </c>
       <c r="BR12" s="14" t="n">
-        <v>-0.06869362</v>
+        <v>-0.00150666</v>
       </c>
       <c r="BS12" s="14" t="n">
-        <v>0.03264285</v>
+        <v>-0.03264285</v>
       </c>
       <c r="BT12" s="14" t="n">
-        <v>-0.01636478</v>
+        <v>0.01636478</v>
       </c>
       <c r="BU12" s="14" t="n">
-        <v>-0.01691502</v>
+        <v>0.0102977</v>
       </c>
       <c r="BV12" s="14" t="n">
-        <v>0.04228239</v>
+        <v>-0.03205323</v>
       </c>
       <c r="BW12" s="14" t="n">
         <v>0.044477</v>
@@ -10708,31 +10708,31 @@
         <v>0.00698515</v>
       </c>
       <c r="BY12" s="14" t="n">
-        <v>-0.05892992</v>
+        <v>-0.04581599</v>
       </c>
       <c r="BZ12" s="14" t="n">
-        <v>-0.03237873</v>
+        <v>-0.04800457</v>
       </c>
       <c r="CA12" s="14" t="n">
-        <v>-0.00060369</v>
+        <v>-0.03158368</v>
       </c>
       <c r="CB12" s="14" t="n">
-        <v>0.02717386</v>
+        <v>-0.07247588000000001</v>
       </c>
       <c r="CC12" s="14" t="n">
-        <v>-0.01612118</v>
+        <v>0.06556661</v>
       </c>
       <c r="CD12" s="14" t="n">
-        <v>0.04435526</v>
+        <v>-0.04435526</v>
       </c>
       <c r="CE12" s="14" t="n">
-        <v>0.05081654</v>
+        <v>0.01117842</v>
       </c>
       <c r="CF12" s="14" t="n">
         <v>-0.00802127</v>
       </c>
       <c r="CG12" s="14" t="n">
-        <v>0.04927796</v>
+        <v>-0.04927796</v>
       </c>
       <c r="CH12" s="14" t="n">
         <v>0.01646311</v>
@@ -10741,64 +10741,64 @@
         <v>0.03562034</v>
       </c>
       <c r="CJ12" s="14" t="n">
-        <v>-0.05412007</v>
+        <v>-0.0168923</v>
       </c>
       <c r="CK12" s="14" t="n">
-        <v>-0.05610144</v>
+        <v>0.05610144</v>
       </c>
       <c r="CL12" s="14" t="n">
         <v>-0.07844028</v>
       </c>
       <c r="CM12" s="14" t="n">
-        <v>0.02635395</v>
+        <v>-0.01438269</v>
       </c>
       <c r="CN12" s="14" t="n">
-        <v>-0.0784652</v>
+        <v>0.02558996</v>
       </c>
       <c r="CO12" s="14" t="n">
-        <v>0.02481979</v>
+        <v>-0.02481979</v>
       </c>
       <c r="CP12" s="14" t="n">
-        <v>0.00100502</v>
+        <v>-0.04519343</v>
       </c>
       <c r="CQ12" s="14" t="n">
         <v>0.06268435</v>
       </c>
       <c r="CR12" s="14" t="n">
-        <v>0.05715999</v>
+        <v>-0.05715999</v>
       </c>
       <c r="CS12" s="14" t="n">
-        <v>-0.00097857</v>
+        <v>-0.01296163</v>
       </c>
       <c r="CT12" s="14" t="n">
-        <v>0.00932906</v>
+        <v>-0.00932906</v>
       </c>
       <c r="CU12" s="14" t="n">
         <v>0.07419312</v>
       </c>
       <c r="CV12" s="14" t="n">
-        <v>-0.06538206000000001</v>
+        <v>-0.00463158</v>
       </c>
       <c r="CW12" s="14" t="n">
-        <v>-0.01303667</v>
+        <v>0.01303667</v>
       </c>
       <c r="CX12" s="14" t="n">
-        <v>0.03075264</v>
+        <v>-0.03075264</v>
       </c>
       <c r="CY12" s="14" t="n">
         <v>-0.0164206</v>
       </c>
       <c r="CZ12" s="14" t="n">
-        <v>0.01232426</v>
+        <v>-0.01232426</v>
       </c>
       <c r="DA12" s="14" t="n">
-        <v>-0.01682433</v>
+        <v>0.00500562</v>
       </c>
       <c r="DB12" s="14" t="n">
-        <v>-0.03558528</v>
+        <v>0.0224059</v>
       </c>
       <c r="DC12" s="14" t="n">
-        <v>0.00450136</v>
+        <v>-0.03447259</v>
       </c>
       <c r="DD12" s="14" t="n">
         <v>0.06996055</v>
@@ -10813,16 +10813,16 @@
         <v>0.04739442</v>
       </c>
       <c r="DH12" s="14" t="n">
-        <v>-0.03080316</v>
+        <v>-0.0616404</v>
       </c>
       <c r="DI12" s="14" t="n">
-        <v>-0.02997925</v>
+        <v>0.02997925</v>
       </c>
       <c r="DJ12" s="14" t="n">
         <v>-0.04137804</v>
       </c>
       <c r="DK12" s="14" t="n">
-        <v>-0.0010712</v>
+        <v>0.0010712</v>
       </c>
       <c r="DL12" s="14" t="n">
         <v>-0.01866983</v>
@@ -10831,46 +10831,46 @@
         <v>-0.009143490000000001</v>
       </c>
       <c r="DN12" s="14" t="n">
-        <v>0.01854144</v>
+        <v>-0.01854144</v>
       </c>
       <c r="DO12" s="14" t="n">
         <v>0.01903073</v>
       </c>
       <c r="DP12" s="14" t="n">
-        <v>0.05940869</v>
+        <v>0.03258445</v>
       </c>
       <c r="DQ12" s="14" t="n">
         <v>-0.07454065</v>
       </c>
       <c r="DR12" s="14" t="n">
-        <v>0.01085205</v>
+        <v>0.01731901</v>
       </c>
       <c r="DS12" s="14" t="n">
         <v>-0.04602428</v>
       </c>
       <c r="DT12" s="14" t="n">
-        <v>-0.02481384</v>
+        <v>0.02481384</v>
       </c>
       <c r="DU12" s="14" t="n">
         <v>-0.04578714</v>
       </c>
       <c r="DV12" s="14" t="n">
-        <v>0.01675144</v>
+        <v>-0.01675144</v>
       </c>
       <c r="DW12" s="14" t="n">
-        <v>-0.00207621</v>
+        <v>0.04095836</v>
       </c>
       <c r="DX12" s="14" t="n">
         <v>-0.01809914</v>
       </c>
       <c r="DY12" s="14" t="n">
-        <v>-0.06272822</v>
+        <v>0.06272822</v>
       </c>
       <c r="DZ12" s="14" t="n">
-        <v>-0.02003889</v>
+        <v>0.02003889</v>
       </c>
       <c r="EA12" s="14" t="n">
-        <v>0.11312704</v>
+        <v>0.05174842</v>
       </c>
       <c r="EB12" s="14" t="n">
         <v>0.03052578</v>
@@ -10882,7 +10882,7 @@
         <v>-0.02344458</v>
       </c>
       <c r="EE12" s="14" t="n">
-        <v>0.02821628</v>
+        <v>-0.02821628</v>
       </c>
     </row>
     <row r="13" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -10893,61 +10893,61 @@
         <v>48</v>
       </c>
       <c r="C13" s="14" t="n">
-        <v>0.00545686</v>
+        <v>-0.00747736</v>
       </c>
       <c r="D13" s="14" t="n">
-        <v>0.00545686</v>
+        <v>0.12374503</v>
       </c>
       <c r="E13" s="14" t="n">
-        <v>0.00552363</v>
+        <v>-0.00552363</v>
       </c>
       <c r="F13" s="14" t="n">
-        <v>0.05998653</v>
+        <v>-0.05998653</v>
       </c>
       <c r="G13" s="14" t="n">
         <v>-0.0120474</v>
       </c>
       <c r="H13" s="14" t="n">
-        <v>-0.01738839</v>
+        <v>0.01738839</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>-0.03228599</v>
+        <v>-0.03731568</v>
       </c>
       <c r="J13" s="14" t="n">
-        <v>-0.02300041</v>
+        <v>0.03765853</v>
       </c>
       <c r="K13" s="14" t="n">
-        <v>-0.06032614</v>
+        <v>0.06032614</v>
       </c>
       <c r="L13" s="14" t="n">
         <v>-0.02198047</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>-0.00327976</v>
+        <v>0.00327976</v>
       </c>
       <c r="N13" s="14" t="n">
         <v>0.04339242</v>
       </c>
       <c r="O13" s="14" t="n">
-        <v>-0.0174227</v>
+        <v>0.03637337</v>
       </c>
       <c r="P13" s="14" t="n">
-        <v>0.00627765</v>
+        <v>-0.00627765</v>
       </c>
       <c r="Q13" s="14" t="n">
-        <v>0.01745638</v>
+        <v>0.04354253</v>
       </c>
       <c r="R13" s="14" t="n">
-        <v>-0.01651071</v>
+        <v>-0.01157692</v>
       </c>
       <c r="S13" s="14" t="n">
-        <v>0.0060138</v>
+        <v>-0.0060138</v>
       </c>
       <c r="T13" s="14" t="n">
-        <v>-0.07423407999999999</v>
+        <v>0.0502519</v>
       </c>
       <c r="U13" s="14" t="n">
-        <v>-0.02876133</v>
+        <v>0.05277485</v>
       </c>
       <c r="V13" s="14" t="n">
         <v>-0.00221664</v>
@@ -10956,31 +10956,31 @@
         <v>0.0309689</v>
       </c>
       <c r="X13" s="14" t="n">
-        <v>0.12312815</v>
+        <v>0.05327689</v>
       </c>
       <c r="Y13" s="14" t="n">
         <v>0.00668336</v>
       </c>
       <c r="Z13" s="14" t="n">
-        <v>0.0812514</v>
+        <v>0.07287805</v>
       </c>
       <c r="AA13" s="14" t="n">
-        <v>-0.04771265</v>
+        <v>-0.03368103</v>
       </c>
       <c r="AB13" s="14" t="n">
-        <v>-0.01500157</v>
+        <v>-0.04667822</v>
       </c>
       <c r="AC13" s="14" t="n">
         <v>0.0667717</v>
       </c>
       <c r="AD13" s="14" t="n">
-        <v>0.02044023</v>
+        <v>-0.02044023</v>
       </c>
       <c r="AE13" s="14" t="n">
-        <v>-0.07707142</v>
+        <v>0.07707142</v>
       </c>
       <c r="AF13" s="14" t="n">
-        <v>0.07328116</v>
+        <v>-0.07328116</v>
       </c>
       <c r="AG13" s="14" t="n">
         <v>-0.009905209999999999</v>
@@ -10989,124 +10989,124 @@
         <v>0.02495521</v>
       </c>
       <c r="AI13" s="14" t="n">
-        <v>-0.01864605</v>
+        <v>0.01864605</v>
       </c>
       <c r="AJ13" s="14" t="n">
         <v>0.00170745</v>
       </c>
       <c r="AK13" s="14" t="n">
-        <v>0.03835939</v>
+        <v>-0.03835939</v>
       </c>
       <c r="AL13" s="14" t="n">
-        <v>0.04656453</v>
+        <v>0.02331835</v>
       </c>
       <c r="AM13" s="14" t="n">
-        <v>0.00768004</v>
+        <v>0.05300034</v>
       </c>
       <c r="AN13" s="14" t="n">
-        <v>-0.03771648</v>
+        <v>0.10524544</v>
       </c>
       <c r="AO13" s="14" t="n">
-        <v>0.0051583</v>
+        <v>-0.0051583</v>
       </c>
       <c r="AP13" s="14" t="n">
-        <v>0.00211071</v>
+        <v>0.00658799</v>
       </c>
       <c r="AQ13" s="14" t="n">
-        <v>0.00234007</v>
+        <v>0.00307863</v>
       </c>
       <c r="AR13" s="14" t="n">
-        <v>-0.02084804</v>
+        <v>-0.00925073</v>
       </c>
       <c r="AS13" s="14" t="n">
-        <v>-0.02340496</v>
+        <v>0.04131312</v>
       </c>
       <c r="AT13" s="14" t="n">
-        <v>-0.08642291000000001</v>
+        <v>0.08642291000000001</v>
       </c>
       <c r="AU13" s="14" t="n">
         <v>0.01569542</v>
       </c>
       <c r="AV13" s="14" t="n">
-        <v>-0.07966598</v>
+        <v>-0.01095891</v>
       </c>
       <c r="AW13" s="14" t="n">
-        <v>-0.02682124</v>
+        <v>0.00148014</v>
       </c>
       <c r="AX13" s="14" t="n">
-        <v>0.02838278</v>
+        <v>-0.02838278</v>
       </c>
       <c r="AY13" s="14" t="n">
         <v>-0.01146735</v>
       </c>
       <c r="AZ13" s="14" t="n">
-        <v>0.03122054</v>
+        <v>-0.03122054</v>
       </c>
       <c r="BA13" s="14" t="n">
-        <v>0.02618827</v>
+        <v>0.007894450000000001</v>
       </c>
       <c r="BB13" s="14" t="n">
-        <v>0.0225474</v>
+        <v>0.02604635</v>
       </c>
       <c r="BC13" s="14" t="n">
-        <v>-0.01911087</v>
+        <v>0.00979212</v>
       </c>
       <c r="BD13" s="14" t="n">
-        <v>0.01096231</v>
+        <v>0.00360893</v>
       </c>
       <c r="BE13" s="14" t="n">
-        <v>0.04377379</v>
+        <v>-0.02537806</v>
       </c>
       <c r="BF13" s="14" t="n">
         <v>0.12165714</v>
       </c>
       <c r="BG13" s="14" t="n">
-        <v>0.08839755000000001</v>
+        <v>0.04139871</v>
       </c>
       <c r="BH13" s="14" t="n">
-        <v>0.04102366</v>
+        <v>0.008082260000000001</v>
       </c>
       <c r="BI13" s="14" t="n">
-        <v>0.02160156</v>
+        <v>-0.02160156</v>
       </c>
       <c r="BJ13" s="14" t="n">
         <v>0.02426609</v>
       </c>
       <c r="BK13" s="14" t="n">
-        <v>0.0088784</v>
+        <v>-0.0088784</v>
       </c>
       <c r="BL13" s="14" t="n">
         <v>0.03446004</v>
       </c>
       <c r="BM13" s="14" t="n">
-        <v>-0.05337177</v>
+        <v>0.05337177</v>
       </c>
       <c r="BN13" s="14" t="n">
         <v>0.03555271</v>
       </c>
       <c r="BO13" s="14" t="n">
-        <v>0.0044924</v>
+        <v>-0.03173531</v>
       </c>
       <c r="BP13" s="14" t="n">
-        <v>-0.01845625</v>
+        <v>0.007951150000000001</v>
       </c>
       <c r="BQ13" s="14" t="n">
         <v>-0.00115082</v>
       </c>
       <c r="BR13" s="14" t="n">
-        <v>-0.07983146000000001</v>
+        <v>-0.00707138</v>
       </c>
       <c r="BS13" s="14" t="n">
-        <v>0.04018051</v>
+        <v>-0.04018051</v>
       </c>
       <c r="BT13" s="14" t="n">
-        <v>-0.00052107</v>
+        <v>0.00052107</v>
       </c>
       <c r="BU13" s="14" t="n">
-        <v>-0.01552717</v>
+        <v>0.01652699</v>
       </c>
       <c r="BV13" s="14" t="n">
-        <v>0.07993082999999999</v>
+        <v>-0.03144074</v>
       </c>
       <c r="BW13" s="14" t="n">
         <v>0.07571401</v>
@@ -11115,31 +11115,31 @@
         <v>0.00074564</v>
       </c>
       <c r="BY13" s="14" t="n">
-        <v>-0.03920196</v>
+        <v>-0.03082776</v>
       </c>
       <c r="BZ13" s="14" t="n">
-        <v>-0.06597673</v>
+        <v>-0.07692787</v>
       </c>
       <c r="CA13" s="14" t="n">
-        <v>-0.01102099</v>
+        <v>-0.03238228</v>
       </c>
       <c r="CB13" s="14" t="n">
-        <v>0.02601738</v>
+        <v>-0.12042697</v>
       </c>
       <c r="CC13" s="14" t="n">
-        <v>0.008224810000000001</v>
+        <v>0.12011817</v>
       </c>
       <c r="CD13" s="14" t="n">
-        <v>0.02120414</v>
+        <v>-0.02120414</v>
       </c>
       <c r="CE13" s="14" t="n">
-        <v>0.07943786999999999</v>
+        <v>0.01015914</v>
       </c>
       <c r="CF13" s="14" t="n">
         <v>0.01204367</v>
       </c>
       <c r="CG13" s="14" t="n">
-        <v>0.05801497</v>
+        <v>-0.05801497</v>
       </c>
       <c r="CH13" s="14" t="n">
         <v>0.00402951</v>
@@ -11148,64 +11148,64 @@
         <v>0.0145333</v>
       </c>
       <c r="CJ13" s="14" t="n">
-        <v>-0.05481018</v>
+        <v>0.00246563</v>
       </c>
       <c r="CK13" s="14" t="n">
-        <v>-0.06568713</v>
+        <v>0.06568713</v>
       </c>
       <c r="CL13" s="14" t="n">
         <v>-0.07272418</v>
       </c>
       <c r="CM13" s="14" t="n">
-        <v>0.01401073</v>
+        <v>-0.0102968</v>
       </c>
       <c r="CN13" s="14" t="n">
-        <v>-0.10099417</v>
+        <v>0.02326963</v>
       </c>
       <c r="CO13" s="14" t="n">
-        <v>0.03533434</v>
+        <v>-0.03533434</v>
       </c>
       <c r="CP13" s="14" t="n">
-        <v>-0.020577</v>
+        <v>-0.06972654</v>
       </c>
       <c r="CQ13" s="14" t="n">
         <v>0.07117886</v>
       </c>
       <c r="CR13" s="14" t="n">
-        <v>0.11164489</v>
+        <v>-0.11164489</v>
       </c>
       <c r="CS13" s="14" t="n">
-        <v>-0.00956765</v>
+        <v>0.00394765</v>
       </c>
       <c r="CT13" s="14" t="n">
-        <v>-0.00040854</v>
+        <v>0.00040854</v>
       </c>
       <c r="CU13" s="14" t="n">
         <v>0.10709096</v>
       </c>
       <c r="CV13" s="14" t="n">
-        <v>-0.07765605</v>
+        <v>-0.02431898</v>
       </c>
       <c r="CW13" s="14" t="n">
-        <v>-0.03630912</v>
+        <v>0.03630912</v>
       </c>
       <c r="CX13" s="14" t="n">
-        <v>0.03058284</v>
+        <v>-0.03058284</v>
       </c>
       <c r="CY13" s="14" t="n">
         <v>-0.04120175</v>
       </c>
       <c r="CZ13" s="14" t="n">
-        <v>0.00489822</v>
+        <v>-0.00489822</v>
       </c>
       <c r="DA13" s="14" t="n">
-        <v>-0.01693663</v>
+        <v>-0.00662765</v>
       </c>
       <c r="DB13" s="14" t="n">
-        <v>-0.06135619</v>
+        <v>0.03946396</v>
       </c>
       <c r="DC13" s="14" t="n">
-        <v>0.01414987</v>
+        <v>-0.02977557</v>
       </c>
       <c r="DD13" s="14" t="n">
         <v>0.06897706000000001</v>
@@ -11220,16 +11220,16 @@
         <v>0.07133576</v>
       </c>
       <c r="DH13" s="14" t="n">
-        <v>-0.03880652</v>
+        <v>-0.0887206</v>
       </c>
       <c r="DI13" s="14" t="n">
-        <v>-0.02957042</v>
+        <v>0.02957042</v>
       </c>
       <c r="DJ13" s="14" t="n">
         <v>-0.00702112</v>
       </c>
       <c r="DK13" s="14" t="n">
-        <v>0.02340089</v>
+        <v>-0.02340089</v>
       </c>
       <c r="DL13" s="14" t="n">
         <v>-0.02205069</v>
@@ -11238,46 +11238,46 @@
         <v>0.01165589</v>
       </c>
       <c r="DN13" s="14" t="n">
-        <v>0.01277589</v>
+        <v>-0.01277589</v>
       </c>
       <c r="DO13" s="14" t="n">
         <v>0.04432514</v>
       </c>
       <c r="DP13" s="14" t="n">
-        <v>0.05803231</v>
+        <v>0.04723815</v>
       </c>
       <c r="DQ13" s="14" t="n">
         <v>-0.08531036</v>
       </c>
       <c r="DR13" s="14" t="n">
-        <v>0.01446696</v>
+        <v>0.01516855</v>
       </c>
       <c r="DS13" s="14" t="n">
         <v>-0.02991519</v>
       </c>
       <c r="DT13" s="14" t="n">
-        <v>-0.02984581</v>
+        <v>0.02984581</v>
       </c>
       <c r="DU13" s="14" t="n">
         <v>-0.02369885</v>
       </c>
       <c r="DV13" s="14" t="n">
-        <v>0.0098528</v>
+        <v>-0.0098528</v>
       </c>
       <c r="DW13" s="14" t="n">
-        <v>-0.01309823</v>
+        <v>0.04346533</v>
       </c>
       <c r="DX13" s="14" t="n">
         <v>-0.02322961</v>
       </c>
       <c r="DY13" s="14" t="n">
-        <v>-0.00950462</v>
+        <v>0.00950462</v>
       </c>
       <c r="DZ13" s="14" t="n">
-        <v>-0.03028525</v>
+        <v>0.03028525</v>
       </c>
       <c r="EA13" s="14" t="n">
-        <v>0.12446896</v>
+        <v>0.06168907</v>
       </c>
       <c r="EB13" s="14" t="n">
         <v>0.05720529</v>
@@ -11289,7 +11289,7 @@
         <v>-0.05397802</v>
       </c>
       <c r="EE13" s="14" t="n">
-        <v>0.03586748</v>
+        <v>-0.03586748</v>
       </c>
     </row>
     <row r="14" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -11300,61 +11300,61 @@
         <v>19</v>
       </c>
       <c r="C14" s="14" t="n">
-        <v>0.14164365</v>
+        <v>-0.03322898</v>
       </c>
       <c r="D14" s="14" t="n">
-        <v>0.14164365</v>
+        <v>0.22230845</v>
       </c>
       <c r="E14" s="14" t="n">
-        <v>0.04792075</v>
+        <v>-0.04792075</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>0.0603419</v>
+        <v>-0.0603419</v>
       </c>
       <c r="G14" s="14" t="n">
         <v>-0.05365663</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>0.01150826</v>
+        <v>-0.01150826</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>-0.03010014</v>
+        <v>-0.04848941</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>-0.04523157</v>
+        <v>0.01441091</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>-0.05082747</v>
+        <v>0.05082747</v>
       </c>
       <c r="L14" s="14" t="n">
         <v>-0.05627108</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>0.01902171</v>
+        <v>-0.01902171</v>
       </c>
       <c r="N14" s="14" t="n">
         <v>0.05736943</v>
       </c>
       <c r="O14" s="14" t="n">
-        <v>-0.00149441</v>
+        <v>0.03747579</v>
       </c>
       <c r="P14" s="14" t="n">
-        <v>-0.00654142</v>
+        <v>0.00654142</v>
       </c>
       <c r="Q14" s="14" t="n">
-        <v>0.07929766000000001</v>
+        <v>0.12410387</v>
       </c>
       <c r="R14" s="14" t="n">
-        <v>0.01776231</v>
+        <v>0.0068058</v>
       </c>
       <c r="S14" s="14" t="n">
-        <v>0.02480675</v>
+        <v>-0.02480675</v>
       </c>
       <c r="T14" s="14" t="n">
-        <v>-0.03501955</v>
+        <v>0.06984148</v>
       </c>
       <c r="U14" s="14" t="n">
-        <v>-0.03055617</v>
+        <v>0.11190364</v>
       </c>
       <c r="V14" s="14" t="n">
         <v>0.0524213</v>
@@ -11363,31 +11363,31 @@
         <v>0.047795</v>
       </c>
       <c r="X14" s="14" t="n">
-        <v>0.1866857</v>
+        <v>0.05358171</v>
       </c>
       <c r="Y14" s="14" t="n">
         <v>0.05519099</v>
       </c>
       <c r="Z14" s="14" t="n">
-        <v>0.11670403</v>
+        <v>0.0456464</v>
       </c>
       <c r="AA14" s="14" t="n">
-        <v>-0.09990588</v>
+        <v>-0.03945018</v>
       </c>
       <c r="AB14" s="14" t="n">
-        <v>-0.02733598</v>
+        <v>-0.07040908999999999</v>
       </c>
       <c r="AC14" s="14" t="n">
         <v>-0.00308656</v>
       </c>
       <c r="AD14" s="14" t="n">
-        <v>0.06987459</v>
+        <v>-0.06987459</v>
       </c>
       <c r="AE14" s="14" t="n">
-        <v>-0.11683692</v>
+        <v>0.11683692</v>
       </c>
       <c r="AF14" s="14" t="n">
-        <v>0.0960801</v>
+        <v>-0.0960801</v>
       </c>
       <c r="AG14" s="14" t="n">
         <v>-0.0253293</v>
@@ -11396,124 +11396,124 @@
         <v>0.08095218</v>
       </c>
       <c r="AI14" s="14" t="n">
-        <v>0.03546264</v>
+        <v>-0.03546264</v>
       </c>
       <c r="AJ14" s="14" t="n">
         <v>-0.02450558</v>
       </c>
       <c r="AK14" s="14" t="n">
-        <v>0.07747534</v>
+        <v>-0.07747534</v>
       </c>
       <c r="AL14" s="14" t="n">
-        <v>0.05123018</v>
+        <v>0.03796919</v>
       </c>
       <c r="AM14" s="14" t="n">
-        <v>0.00537089</v>
+        <v>0.06237433</v>
       </c>
       <c r="AN14" s="14" t="n">
-        <v>-0.01913252</v>
+        <v>0.09787823</v>
       </c>
       <c r="AO14" s="14" t="n">
-        <v>0.03804435</v>
+        <v>-0.03804435</v>
       </c>
       <c r="AP14" s="14" t="n">
-        <v>-0.00835178</v>
+        <v>-0.00705483</v>
       </c>
       <c r="AQ14" s="14" t="n">
-        <v>-0.02973338</v>
+        <v>0.00018125</v>
       </c>
       <c r="AR14" s="14" t="n">
-        <v>-0.00758269</v>
+        <v>-0.01817082</v>
       </c>
       <c r="AS14" s="14" t="n">
-        <v>0.00666934</v>
+        <v>0.08296902</v>
       </c>
       <c r="AT14" s="14" t="n">
-        <v>-0.07940348</v>
+        <v>0.07940348</v>
       </c>
       <c r="AU14" s="14" t="n">
         <v>0.05742161</v>
       </c>
       <c r="AV14" s="14" t="n">
-        <v>-0.06625875000000001</v>
+        <v>0.00842645</v>
       </c>
       <c r="AW14" s="14" t="n">
-        <v>-0.05392868</v>
+        <v>0.01542138</v>
       </c>
       <c r="AX14" s="14" t="n">
-        <v>0.01032761</v>
+        <v>-0.01032761</v>
       </c>
       <c r="AY14" s="14" t="n">
         <v>-0.00169057</v>
       </c>
       <c r="AZ14" s="14" t="n">
-        <v>0.06107058</v>
+        <v>-0.06107058</v>
       </c>
       <c r="BA14" s="14" t="n">
-        <v>0.06688983</v>
+        <v>0.01762165</v>
       </c>
       <c r="BB14" s="14" t="n">
-        <v>0.11031125</v>
+        <v>0.10189834</v>
       </c>
       <c r="BC14" s="14" t="n">
-        <v>0.02850568</v>
+        <v>-0.01518646</v>
       </c>
       <c r="BD14" s="14" t="n">
-        <v>0.05408965</v>
+        <v>0.04332778</v>
       </c>
       <c r="BE14" s="14" t="n">
-        <v>0.07008177</v>
+        <v>-0.04502913</v>
       </c>
       <c r="BF14" s="14" t="n">
         <v>0.15382926</v>
       </c>
       <c r="BG14" s="14" t="n">
-        <v>0.12530531</v>
+        <v>0.04137426</v>
       </c>
       <c r="BH14" s="14" t="n">
-        <v>0.07341346</v>
+        <v>-0.01036468</v>
       </c>
       <c r="BI14" s="14" t="n">
-        <v>-0.04103107</v>
+        <v>0.04103107</v>
       </c>
       <c r="BJ14" s="14" t="n">
         <v>0.0686042</v>
       </c>
       <c r="BK14" s="14" t="n">
-        <v>0.03369142</v>
+        <v>-0.03369142</v>
       </c>
       <c r="BL14" s="14" t="n">
         <v>0.0599969</v>
       </c>
       <c r="BM14" s="14" t="n">
-        <v>-0.04627833</v>
+        <v>0.04627833</v>
       </c>
       <c r="BN14" s="14" t="n">
         <v>0.02608796</v>
       </c>
       <c r="BO14" s="14" t="n">
-        <v>0.01323824</v>
+        <v>-0.03360905</v>
       </c>
       <c r="BP14" s="14" t="n">
-        <v>-0.01733685</v>
+        <v>-0.05033228</v>
       </c>
       <c r="BQ14" s="14" t="n">
         <v>-0.05088448</v>
       </c>
       <c r="BR14" s="14" t="n">
-        <v>-0.10005242</v>
+        <v>-0.02228235</v>
       </c>
       <c r="BS14" s="14" t="n">
-        <v>0.03033272</v>
+        <v>-0.03033272</v>
       </c>
       <c r="BT14" s="14" t="n">
-        <v>0.03072648</v>
+        <v>-0.03072648</v>
       </c>
       <c r="BU14" s="14" t="n">
-        <v>-0.01800251</v>
+        <v>0.00509203</v>
       </c>
       <c r="BV14" s="14" t="n">
-        <v>0.10798163</v>
+        <v>-0.04128249</v>
       </c>
       <c r="BW14" s="14" t="n">
         <v>0.13089751</v>
@@ -11522,31 +11522,31 @@
         <v>-0.0143353</v>
       </c>
       <c r="BY14" s="14" t="n">
-        <v>0.04260449</v>
+        <v>-0.08039977</v>
       </c>
       <c r="BZ14" s="14" t="n">
-        <v>-0.09337468</v>
+        <v>-0.10854106</v>
       </c>
       <c r="CA14" s="14" t="n">
-        <v>-0.09651632</v>
+        <v>-0.02446527</v>
       </c>
       <c r="CB14" s="14" t="n">
-        <v>0.05947706</v>
+        <v>-0.1644655</v>
       </c>
       <c r="CC14" s="14" t="n">
-        <v>0.02897568</v>
+        <v>0.12059616</v>
       </c>
       <c r="CD14" s="14" t="n">
-        <v>-0.03292639</v>
+        <v>0.03292639</v>
       </c>
       <c r="CE14" s="14" t="n">
-        <v>0.11435311</v>
+        <v>-0.0722618</v>
       </c>
       <c r="CF14" s="14" t="n">
         <v>0.04287741</v>
       </c>
       <c r="CG14" s="14" t="n">
-        <v>0.05732066</v>
+        <v>-0.05732066</v>
       </c>
       <c r="CH14" s="14" t="n">
         <v>0.04887967</v>
@@ -11555,64 +11555,64 @@
         <v>0.01470161</v>
       </c>
       <c r="CJ14" s="14" t="n">
-        <v>-0.01779612</v>
+        <v>0.03253041</v>
       </c>
       <c r="CK14" s="14" t="n">
-        <v>-0.05379209</v>
+        <v>0.05379209</v>
       </c>
       <c r="CL14" s="14" t="n">
         <v>-0.13734357</v>
       </c>
       <c r="CM14" s="14" t="n">
-        <v>-0.00509711</v>
+        <v>0.03204001</v>
       </c>
       <c r="CN14" s="14" t="n">
-        <v>-0.17459567</v>
+        <v>0.02302669</v>
       </c>
       <c r="CO14" s="14" t="n">
-        <v>0.07876376</v>
+        <v>-0.07876376</v>
       </c>
       <c r="CP14" s="14" t="n">
-        <v>-0.09365936</v>
+        <v>-0.09980933</v>
       </c>
       <c r="CQ14" s="14" t="n">
         <v>0.0322279</v>
       </c>
       <c r="CR14" s="14" t="n">
-        <v>0.20771971</v>
+        <v>-0.20771971</v>
       </c>
       <c r="CS14" s="14" t="n">
-        <v>0.00441263</v>
+        <v>-0.00381611</v>
       </c>
       <c r="CT14" s="14" t="n">
-        <v>0.009661889999999999</v>
+        <v>-0.009661889999999999</v>
       </c>
       <c r="CU14" s="14" t="n">
         <v>0.101545</v>
       </c>
       <c r="CV14" s="14" t="n">
-        <v>-0.15139684</v>
+        <v>-0.03939943</v>
       </c>
       <c r="CW14" s="14" t="n">
-        <v>-0.04476388</v>
+        <v>0.04476388</v>
       </c>
       <c r="CX14" s="14" t="n">
-        <v>0.09063923</v>
+        <v>-0.09063923</v>
       </c>
       <c r="CY14" s="14" t="n">
         <v>-0.09636113</v>
       </c>
       <c r="CZ14" s="14" t="n">
-        <v>0.0103014</v>
+        <v>-0.0103014</v>
       </c>
       <c r="DA14" s="14" t="n">
-        <v>0.05635188</v>
+        <v>-0.02235398</v>
       </c>
       <c r="DB14" s="14" t="n">
-        <v>-0.09023900999999999</v>
+        <v>0.01634278</v>
       </c>
       <c r="DC14" s="14" t="n">
-        <v>0.04299854</v>
+        <v>-0.02363261</v>
       </c>
       <c r="DD14" s="14" t="n">
         <v>0.07920534999999999</v>
@@ -11627,16 +11627,16 @@
         <v>0.08732481</v>
       </c>
       <c r="DH14" s="14" t="n">
-        <v>-0.008413240000000001</v>
+        <v>-0.05874119</v>
       </c>
       <c r="DI14" s="14" t="n">
-        <v>-0.04065913</v>
+        <v>0.04065913</v>
       </c>
       <c r="DJ14" s="14" t="n">
         <v>-0.00879403</v>
       </c>
       <c r="DK14" s="14" t="n">
-        <v>0.07741328</v>
+        <v>-0.07741328</v>
       </c>
       <c r="DL14" s="14" t="n">
         <v>-0.04075487</v>
@@ -11645,46 +11645,46 @@
         <v>0.03242192</v>
       </c>
       <c r="DN14" s="14" t="n">
-        <v>-0.04493574</v>
+        <v>0.04493574</v>
       </c>
       <c r="DO14" s="14" t="n">
         <v>0.07028855000000001</v>
       </c>
       <c r="DP14" s="14" t="n">
-        <v>0.06291481</v>
+        <v>0.04053223</v>
       </c>
       <c r="DQ14" s="14" t="n">
         <v>-0.07117256</v>
       </c>
       <c r="DR14" s="14" t="n">
-        <v>0.0054841</v>
+        <v>0.00779442</v>
       </c>
       <c r="DS14" s="14" t="n">
         <v>-0.08943775</v>
       </c>
       <c r="DT14" s="14" t="n">
-        <v>-0.00775429</v>
+        <v>0.00775429</v>
       </c>
       <c r="DU14" s="14" t="n">
         <v>-0.11891759</v>
       </c>
       <c r="DV14" s="14" t="n">
-        <v>0.04515322</v>
+        <v>-0.04515322</v>
       </c>
       <c r="DW14" s="14" t="n">
-        <v>-0.03109197</v>
+        <v>0.09180932999999999</v>
       </c>
       <c r="DX14" s="14" t="n">
         <v>-0.0276897</v>
       </c>
       <c r="DY14" s="14" t="n">
-        <v>-0.04766099</v>
+        <v>0.04766099</v>
       </c>
       <c r="DZ14" s="14" t="n">
-        <v>-0.02169759</v>
+        <v>0.02169759</v>
       </c>
       <c r="EA14" s="14" t="n">
-        <v>0.06291268</v>
+        <v>0.10752548</v>
       </c>
       <c r="EB14" s="14" t="n">
         <v>0.07817983000000001</v>
@@ -11696,7 +11696,7 @@
         <v>-0.07839926</v>
       </c>
       <c r="EE14" s="14" t="n">
-        <v>0.04250574</v>
+        <v>-0.04250574</v>
       </c>
     </row>
     <row r="15" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -11707,61 +11707,61 @@
         <v>10</v>
       </c>
       <c r="C15" s="14" t="n">
-        <v>0.27303487</v>
+        <v>-0.03635023</v>
       </c>
       <c r="D15" s="14" t="n">
-        <v>0.27303487</v>
+        <v>0.37270922</v>
       </c>
       <c r="E15" s="14" t="n">
-        <v>0.09534461</v>
+        <v>-0.09534461</v>
       </c>
       <c r="F15" s="14" t="n">
-        <v>-0.03492144</v>
+        <v>0.03492144</v>
       </c>
       <c r="G15" s="14" t="n">
         <v>-0.03440392</v>
       </c>
       <c r="H15" s="14" t="n">
-        <v>0.00124373</v>
+        <v>-0.00124373</v>
       </c>
       <c r="I15" s="14" t="n">
-        <v>-0.07929309</v>
+        <v>-0.05165516</v>
       </c>
       <c r="J15" s="14" t="n">
-        <v>-0.06212121</v>
+        <v>0.04269185</v>
       </c>
       <c r="K15" s="14" t="n">
-        <v>-0.0945148</v>
+        <v>0.0945148</v>
       </c>
       <c r="L15" s="14" t="n">
         <v>-0.08117106</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>0.00213302</v>
+        <v>-0.00213302</v>
       </c>
       <c r="N15" s="14" t="n">
         <v>0.10979619</v>
       </c>
       <c r="O15" s="14" t="n">
-        <v>0.0122708</v>
+        <v>0.07375734</v>
       </c>
       <c r="P15" s="14" t="n">
-        <v>-0.02189657</v>
+        <v>0.02189657</v>
       </c>
       <c r="Q15" s="14" t="n">
-        <v>0.04589873</v>
+        <v>0.15553684</v>
       </c>
       <c r="R15" s="14" t="n">
-        <v>0.12669106</v>
+        <v>0.05212969</v>
       </c>
       <c r="S15" s="14" t="n">
-        <v>-0.08548789</v>
+        <v>0.08548789</v>
       </c>
       <c r="T15" s="14" t="n">
-        <v>-0.04589108</v>
+        <v>0.06680012</v>
       </c>
       <c r="U15" s="14" t="n">
-        <v>-0.07819938999999999</v>
+        <v>0.13696806</v>
       </c>
       <c r="V15" s="14" t="n">
         <v>0.11012701</v>
@@ -11770,31 +11770,31 @@
         <v>0.05067142</v>
       </c>
       <c r="X15" s="14" t="n">
-        <v>0.21118633</v>
+        <v>0.07843641</v>
       </c>
       <c r="Y15" s="14" t="n">
         <v>0.0520288</v>
       </c>
       <c r="Z15" s="14" t="n">
-        <v>0.06270412</v>
+        <v>0.04671997</v>
       </c>
       <c r="AA15" s="14" t="n">
-        <v>-0.16085038</v>
+        <v>-0.05126801</v>
       </c>
       <c r="AB15" s="14" t="n">
-        <v>-0.0221664</v>
+        <v>-0.06677521</v>
       </c>
       <c r="AC15" s="14" t="n">
         <v>0.00431767</v>
       </c>
       <c r="AD15" s="14" t="n">
-        <v>0.08171336999999999</v>
+        <v>-0.08171336999999999</v>
       </c>
       <c r="AE15" s="14" t="n">
-        <v>-0.21179264</v>
+        <v>0.21179264</v>
       </c>
       <c r="AF15" s="14" t="n">
-        <v>0.13772629</v>
+        <v>-0.13772629</v>
       </c>
       <c r="AG15" s="14" t="n">
         <v>-0.04432454</v>
@@ -11803,124 +11803,124 @@
         <v>0.13296737</v>
       </c>
       <c r="AI15" s="14" t="n">
-        <v>0.02484926</v>
+        <v>-0.02484926</v>
       </c>
       <c r="AJ15" s="14" t="n">
         <v>-0.03371792</v>
       </c>
       <c r="AK15" s="14" t="n">
-        <v>0.06936145000000001</v>
+        <v>-0.06936145000000001</v>
       </c>
       <c r="AL15" s="14" t="n">
-        <v>0.03236017</v>
+        <v>0.04055565</v>
       </c>
       <c r="AM15" s="14" t="n">
-        <v>0.04702644</v>
+        <v>0.056558</v>
       </c>
       <c r="AN15" s="14" t="n">
-        <v>-0.03550046</v>
+        <v>0.09286191000000001</v>
       </c>
       <c r="AO15" s="14" t="n">
-        <v>0.05138452</v>
+        <v>-0.05138452</v>
       </c>
       <c r="AP15" s="14" t="n">
-        <v>-0.09055538</v>
+        <v>-0.01258194</v>
       </c>
       <c r="AQ15" s="14" t="n">
-        <v>-0.03645332</v>
+        <v>0.03259754</v>
       </c>
       <c r="AR15" s="14" t="n">
-        <v>-0.01773383</v>
+        <v>-0.02455082</v>
       </c>
       <c r="AS15" s="14" t="n">
-        <v>0.04873322</v>
+        <v>0.05382118</v>
       </c>
       <c r="AT15" s="14" t="n">
-        <v>-0.07098981</v>
+        <v>0.07098981</v>
       </c>
       <c r="AU15" s="14" t="n">
         <v>0.07717408000000001</v>
       </c>
       <c r="AV15" s="14" t="n">
-        <v>-0.03729793</v>
+        <v>0.0332253</v>
       </c>
       <c r="AW15" s="14" t="n">
-        <v>-0.09172747000000001</v>
+        <v>-0.01565994</v>
       </c>
       <c r="AX15" s="14" t="n">
-        <v>0.06427587999999999</v>
+        <v>-0.06427587999999999</v>
       </c>
       <c r="AY15" s="14" t="n">
         <v>-0.02900566</v>
       </c>
       <c r="AZ15" s="14" t="n">
-        <v>0.06784633</v>
+        <v>-0.06784633</v>
       </c>
       <c r="BA15" s="14" t="n">
-        <v>-0.01515174</v>
+        <v>0.01061351</v>
       </c>
       <c r="BB15" s="14" t="n">
-        <v>0.19771315</v>
+        <v>0.1087891</v>
       </c>
       <c r="BC15" s="14" t="n">
-        <v>0.03093669</v>
+        <v>0.06215514</v>
       </c>
       <c r="BD15" s="14" t="n">
-        <v>0.00964748</v>
+        <v>0.05199174</v>
       </c>
       <c r="BE15" s="14" t="n">
-        <v>0.04139797</v>
+        <v>-0.03914651</v>
       </c>
       <c r="BF15" s="14" t="n">
         <v>0.21087209</v>
       </c>
       <c r="BG15" s="14" t="n">
-        <v>0.16605122</v>
+        <v>0.00282482</v>
       </c>
       <c r="BH15" s="14" t="n">
-        <v>0.09864905</v>
+        <v>0.04015355</v>
       </c>
       <c r="BI15" s="14" t="n">
-        <v>-0.02115911</v>
+        <v>0.02115911</v>
       </c>
       <c r="BJ15" s="14" t="n">
         <v>0.13011026</v>
       </c>
       <c r="BK15" s="14" t="n">
-        <v>-0.04560493</v>
+        <v>0.04560493</v>
       </c>
       <c r="BL15" s="14" t="n">
         <v>0.05975542</v>
       </c>
       <c r="BM15" s="14" t="n">
-        <v>-0.048219</v>
+        <v>0.048219</v>
       </c>
       <c r="BN15" s="14" t="n">
         <v>0.06372073</v>
       </c>
       <c r="BO15" s="14" t="n">
-        <v>-0.06955561</v>
+        <v>-0.02153094</v>
       </c>
       <c r="BP15" s="14" t="n">
-        <v>0.01086316</v>
+        <v>-0.05161685</v>
       </c>
       <c r="BQ15" s="14" t="n">
         <v>-0.04343125</v>
       </c>
       <c r="BR15" s="14" t="n">
-        <v>-0.12376214</v>
+        <v>-0.05015743</v>
       </c>
       <c r="BS15" s="14" t="n">
-        <v>0.01186591</v>
+        <v>-0.01186591</v>
       </c>
       <c r="BT15" s="14" t="n">
-        <v>0.05985094</v>
+        <v>-0.05985094</v>
       </c>
       <c r="BU15" s="14" t="n">
-        <v>0.01514008</v>
+        <v>0.01947642</v>
       </c>
       <c r="BV15" s="14" t="n">
-        <v>0.10464004</v>
+        <v>-0.09805738999999999</v>
       </c>
       <c r="BW15" s="14" t="n">
         <v>0.29887899</v>
@@ -11929,31 +11929,31 @@
         <v>-0.05385157</v>
       </c>
       <c r="BY15" s="14" t="n">
-        <v>0.12602357</v>
+        <v>-0.09333838999999999</v>
       </c>
       <c r="BZ15" s="14" t="n">
-        <v>-0.20472002</v>
+        <v>-0.10290647</v>
       </c>
       <c r="CA15" s="14" t="n">
-        <v>-0.09292053</v>
+        <v>-0.01859202</v>
       </c>
       <c r="CB15" s="14" t="n">
-        <v>0.09268411</v>
+        <v>-0.1310914</v>
       </c>
       <c r="CC15" s="14" t="n">
-        <v>-0.03535854</v>
+        <v>0.17365171</v>
       </c>
       <c r="CD15" s="14" t="n">
-        <v>0.04711447</v>
+        <v>-0.04711447</v>
       </c>
       <c r="CE15" s="14" t="n">
-        <v>0.09749075</v>
+        <v>-0.11664001</v>
       </c>
       <c r="CF15" s="14" t="n">
         <v>0.04134943</v>
       </c>
       <c r="CG15" s="14" t="n">
-        <v>0.08588601999999999</v>
+        <v>-0.08588601999999999</v>
       </c>
       <c r="CH15" s="14" t="n">
         <v>0.08134261</v>
@@ -11962,64 +11962,64 @@
         <v>-0.00251094</v>
       </c>
       <c r="CJ15" s="14" t="n">
-        <v>-0.04067172</v>
+        <v>0.08704436</v>
       </c>
       <c r="CK15" s="14" t="n">
-        <v>-0.09564075</v>
+        <v>0.09564075</v>
       </c>
       <c r="CL15" s="14" t="n">
         <v>-0.16165447</v>
       </c>
       <c r="CM15" s="14" t="n">
-        <v>-0.04662654</v>
+        <v>0.07463112</v>
       </c>
       <c r="CN15" s="14" t="n">
-        <v>-0.14314982</v>
+        <v>0.03457067</v>
       </c>
       <c r="CO15" s="14" t="n">
-        <v>0.10697924</v>
+        <v>-0.10697924</v>
       </c>
       <c r="CP15" s="14" t="n">
-        <v>-0.13009875</v>
+        <v>-0.12753584</v>
       </c>
       <c r="CQ15" s="14" t="n">
         <v>-0.02496336</v>
       </c>
       <c r="CR15" s="14" t="n">
-        <v>0.18148893</v>
+        <v>-0.18148893</v>
       </c>
       <c r="CS15" s="14" t="n">
-        <v>-0.00648305</v>
+        <v>0.01691099</v>
       </c>
       <c r="CT15" s="14" t="n">
-        <v>-0.00494167</v>
+        <v>0.00494167</v>
       </c>
       <c r="CU15" s="14" t="n">
         <v>0.12404993</v>
       </c>
       <c r="CV15" s="14" t="n">
-        <v>-0.18261155</v>
+        <v>-0.0604445</v>
       </c>
       <c r="CW15" s="14" t="n">
-        <v>-0.02607209</v>
+        <v>0.02607209</v>
       </c>
       <c r="CX15" s="14" t="n">
-        <v>0.15238778</v>
+        <v>-0.15238778</v>
       </c>
       <c r="CY15" s="14" t="n">
         <v>-0.0929479</v>
       </c>
       <c r="CZ15" s="14" t="n">
-        <v>0.02376334</v>
+        <v>-0.02376334</v>
       </c>
       <c r="DA15" s="14" t="n">
-        <v>-0.05788215</v>
+        <v>-0.02249797</v>
       </c>
       <c r="DB15" s="14" t="n">
-        <v>-0.2096634</v>
+        <v>0.03022662</v>
       </c>
       <c r="DC15" s="14" t="n">
-        <v>0.06769243</v>
+        <v>-0.02482111</v>
       </c>
       <c r="DD15" s="14" t="n">
         <v>0.01450673</v>
@@ -12034,16 +12034,16 @@
         <v>0.11309156</v>
       </c>
       <c r="DH15" s="14" t="n">
-        <v>0.00093841</v>
+        <v>-0.12962194</v>
       </c>
       <c r="DI15" s="14" t="n">
-        <v>-0.05410832</v>
+        <v>0.05410832</v>
       </c>
       <c r="DJ15" s="14" t="n">
         <v>-0.06002378</v>
       </c>
       <c r="DK15" s="14" t="n">
-        <v>0.07218860000000001</v>
+        <v>-0.07218860000000001</v>
       </c>
       <c r="DL15" s="14" t="n">
         <v>0.00030399</v>
@@ -12052,46 +12052,46 @@
         <v>0.03905212</v>
       </c>
       <c r="DN15" s="14" t="n">
-        <v>-0.08173071</v>
+        <v>0.08173071</v>
       </c>
       <c r="DO15" s="14" t="n">
         <v>0.03410442</v>
       </c>
       <c r="DP15" s="14" t="n">
-        <v>0.13430495</v>
+        <v>0.01713232</v>
       </c>
       <c r="DQ15" s="14" t="n">
         <v>-0.03703869</v>
       </c>
       <c r="DR15" s="14" t="n">
-        <v>-0.03047264</v>
+        <v>-0.02203526</v>
       </c>
       <c r="DS15" s="14" t="n">
         <v>-0.00957154</v>
       </c>
       <c r="DT15" s="14" t="n">
-        <v>-0.05271879</v>
+        <v>0.05271879</v>
       </c>
       <c r="DU15" s="14" t="n">
         <v>-0.18864064</v>
       </c>
       <c r="DV15" s="14" t="n">
-        <v>0.04672773</v>
+        <v>-0.04672773</v>
       </c>
       <c r="DW15" s="14" t="n">
-        <v>-0.05044824</v>
+        <v>0.02553863</v>
       </c>
       <c r="DX15" s="14" t="n">
         <v>-0.02154567</v>
       </c>
       <c r="DY15" s="14" t="n">
-        <v>0.08367363</v>
+        <v>-0.08367363</v>
       </c>
       <c r="DZ15" s="14" t="n">
-        <v>-0.0365965</v>
+        <v>0.0365965</v>
       </c>
       <c r="EA15" s="14" t="n">
-        <v>0.04345122</v>
+        <v>0.10917693</v>
       </c>
       <c r="EB15" s="14" t="n">
         <v>0.08808745</v>
@@ -12103,7 +12103,7 @@
         <v>-0.11066003</v>
       </c>
       <c r="EE15" s="14" t="n">
-        <v>0.04934418</v>
+        <v>-0.04934418</v>
       </c>
     </row>
     <row r="16" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -12114,61 +12114,61 @@
         <v>9</v>
       </c>
       <c r="C16" s="14" t="n">
-        <v>0.23433798</v>
+        <v>-0.03943539</v>
       </c>
       <c r="D16" s="14" t="n">
-        <v>0.23433798</v>
+        <v>0.40819498</v>
       </c>
       <c r="E16" s="14" t="n">
-        <v>0.08670417</v>
+        <v>-0.08670417</v>
       </c>
       <c r="F16" s="14" t="n">
-        <v>-0.07871547</v>
+        <v>0.07871547</v>
       </c>
       <c r="G16" s="14" t="n">
         <v>-0.008146550000000001</v>
       </c>
       <c r="H16" s="14" t="n">
-        <v>0.00064935</v>
+        <v>-0.00064935</v>
       </c>
       <c r="I16" s="14" t="n">
-        <v>-0.10921796</v>
+        <v>-0.05000141</v>
       </c>
       <c r="J16" s="14" t="n">
-        <v>-0.07310464</v>
+        <v>0.04670993</v>
       </c>
       <c r="K16" s="14" t="n">
-        <v>-0.08642089</v>
+        <v>0.08642089</v>
       </c>
       <c r="L16" s="14" t="n">
         <v>-0.0851616</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>0.01398744</v>
+        <v>-0.01398744</v>
       </c>
       <c r="N16" s="14" t="n">
         <v>0.1202425</v>
       </c>
       <c r="O16" s="14" t="n">
-        <v>0.02858708</v>
+        <v>0.0842241</v>
       </c>
       <c r="P16" s="14" t="n">
-        <v>-0.00818818</v>
+        <v>0.00818818</v>
       </c>
       <c r="Q16" s="14" t="n">
-        <v>0.08147864</v>
+        <v>0.16241662</v>
       </c>
       <c r="R16" s="14" t="n">
-        <v>0.10310969</v>
+        <v>0.05628488</v>
       </c>
       <c r="S16" s="14" t="n">
-        <v>-0.10985904</v>
+        <v>0.10985904</v>
       </c>
       <c r="T16" s="14" t="n">
-        <v>-0.03840667</v>
+        <v>0.06721906</v>
       </c>
       <c r="U16" s="14" t="n">
-        <v>-0.09147193000000001</v>
+        <v>0.13006247</v>
       </c>
       <c r="V16" s="14" t="n">
         <v>0.07557149000000001</v>
@@ -12177,31 +12177,31 @@
         <v>0.10163136</v>
       </c>
       <c r="X16" s="14" t="n">
-        <v>0.24053196</v>
+        <v>0.07367828</v>
       </c>
       <c r="Y16" s="14" t="n">
         <v>0.05027883</v>
       </c>
       <c r="Z16" s="14" t="n">
-        <v>0.04301006</v>
+        <v>0.03403977</v>
       </c>
       <c r="AA16" s="14" t="n">
-        <v>-0.16615889</v>
+        <v>-0.04348764</v>
       </c>
       <c r="AB16" s="14" t="n">
-        <v>-0.03229541</v>
+        <v>-0.07438006</v>
       </c>
       <c r="AC16" s="14" t="n">
         <v>-0.01276545</v>
       </c>
       <c r="AD16" s="14" t="n">
-        <v>0.05313606</v>
+        <v>-0.05313606</v>
       </c>
       <c r="AE16" s="14" t="n">
-        <v>-0.20962824</v>
+        <v>0.20962824</v>
       </c>
       <c r="AF16" s="14" t="n">
-        <v>0.14791561</v>
+        <v>-0.14791561</v>
       </c>
       <c r="AG16" s="14" t="n">
         <v>-0.04377616</v>
@@ -12210,124 +12210,124 @@
         <v>0.14840163</v>
       </c>
       <c r="AI16" s="14" t="n">
-        <v>0.03338326</v>
+        <v>-0.03338326</v>
       </c>
       <c r="AJ16" s="14" t="n">
         <v>-0.04812048</v>
       </c>
       <c r="AK16" s="14" t="n">
-        <v>0.03743345</v>
+        <v>-0.03743345</v>
       </c>
       <c r="AL16" s="14" t="n">
-        <v>0.0054397</v>
+        <v>0.04868893</v>
       </c>
       <c r="AM16" s="14" t="n">
-        <v>0.05214573</v>
+        <v>0.06607673</v>
       </c>
       <c r="AN16" s="14" t="n">
-        <v>-0.02203252</v>
+        <v>0.1064562</v>
       </c>
       <c r="AO16" s="14" t="n">
-        <v>0.04109015</v>
+        <v>-0.04109015</v>
       </c>
       <c r="AP16" s="14" t="n">
-        <v>-0.09472468000000001</v>
+        <v>-0.00523989</v>
       </c>
       <c r="AQ16" s="14" t="n">
-        <v>-0.05449775</v>
+        <v>0.0384662</v>
       </c>
       <c r="AR16" s="14" t="n">
-        <v>-0.03437198</v>
+        <v>-0.03249276</v>
       </c>
       <c r="AS16" s="14" t="n">
-        <v>0.05264272</v>
+        <v>0.06506823</v>
       </c>
       <c r="AT16" s="14" t="n">
-        <v>-0.12256404</v>
+        <v>0.12256404</v>
       </c>
       <c r="AU16" s="14" t="n">
         <v>0.08209027000000001</v>
       </c>
       <c r="AV16" s="14" t="n">
-        <v>-0.05208084</v>
+        <v>0.02360888</v>
       </c>
       <c r="AW16" s="14" t="n">
-        <v>-0.10898494</v>
+        <v>-0.03925293</v>
       </c>
       <c r="AX16" s="14" t="n">
-        <v>0.07724101</v>
+        <v>-0.07724101</v>
       </c>
       <c r="AY16" s="14" t="n">
         <v>-0.01960185</v>
       </c>
       <c r="AZ16" s="14" t="n">
-        <v>0.08815017999999999</v>
+        <v>-0.08815017999999999</v>
       </c>
       <c r="BA16" s="14" t="n">
-        <v>0.03391156</v>
+        <v>0.0098082</v>
       </c>
       <c r="BB16" s="14" t="n">
-        <v>0.22547356</v>
+        <v>0.13247474</v>
       </c>
       <c r="BC16" s="14" t="n">
-        <v>0.03899939</v>
+        <v>0.0744871</v>
       </c>
       <c r="BD16" s="14" t="n">
-        <v>-0.01693622</v>
+        <v>0.03643194</v>
       </c>
       <c r="BE16" s="14" t="n">
-        <v>0.06119764</v>
+        <v>-0.05141099</v>
       </c>
       <c r="BF16" s="14" t="n">
         <v>0.24778686</v>
       </c>
       <c r="BG16" s="14" t="n">
-        <v>0.16122957</v>
+        <v>0.0122014</v>
       </c>
       <c r="BH16" s="14" t="n">
-        <v>0.09616203</v>
+        <v>0.05783534</v>
       </c>
       <c r="BI16" s="14" t="n">
-        <v>-0.04898994</v>
+        <v>0.04898994</v>
       </c>
       <c r="BJ16" s="14" t="n">
         <v>0.09656679999999999</v>
       </c>
       <c r="BK16" s="14" t="n">
-        <v>-0.05137162</v>
+        <v>0.05137162</v>
       </c>
       <c r="BL16" s="14" t="n">
         <v>0.0611736</v>
       </c>
       <c r="BM16" s="14" t="n">
-        <v>-0.03949799</v>
+        <v>0.03949799</v>
       </c>
       <c r="BN16" s="14" t="n">
         <v>0.06130475</v>
       </c>
       <c r="BO16" s="14" t="n">
-        <v>-0.07421686</v>
+        <v>-0.02189036</v>
       </c>
       <c r="BP16" s="14" t="n">
-        <v>0.01345824</v>
+        <v>-0.05775006</v>
       </c>
       <c r="BQ16" s="14" t="n">
         <v>-0.02369072</v>
       </c>
       <c r="BR16" s="14" t="n">
-        <v>-0.13058297</v>
+        <v>-0.02629685</v>
       </c>
       <c r="BS16" s="14" t="n">
-        <v>0.03200699</v>
+        <v>-0.03200699</v>
       </c>
       <c r="BT16" s="14" t="n">
-        <v>0.04666088</v>
+        <v>-0.04666088</v>
       </c>
       <c r="BU16" s="14" t="n">
-        <v>0.01506458</v>
+        <v>0.02682645</v>
       </c>
       <c r="BV16" s="14" t="n">
-        <v>0.03658564</v>
+        <v>-0.09451047</v>
       </c>
       <c r="BW16" s="14" t="n">
         <v>0.31797083</v>
@@ -12336,31 +12336,31 @@
         <v>-0.06655952</v>
       </c>
       <c r="BY16" s="14" t="n">
-        <v>0.13255841</v>
+        <v>-0.11899471</v>
       </c>
       <c r="BZ16" s="14" t="n">
-        <v>-0.13158185</v>
+        <v>-0.11152585</v>
       </c>
       <c r="CA16" s="14" t="n">
-        <v>-0.13046988</v>
+        <v>-0.02971439</v>
       </c>
       <c r="CB16" s="14" t="n">
-        <v>0.11586555</v>
+        <v>-0.13930874</v>
       </c>
       <c r="CC16" s="14" t="n">
-        <v>-0.02068316</v>
+        <v>0.04438815</v>
       </c>
       <c r="CD16" s="14" t="n">
-        <v>0.06098853</v>
+        <v>-0.06098853</v>
       </c>
       <c r="CE16" s="14" t="n">
-        <v>0.12131041</v>
+        <v>-0.13259506</v>
       </c>
       <c r="CF16" s="14" t="n">
         <v>0.05280008</v>
       </c>
       <c r="CG16" s="14" t="n">
-        <v>0.06172788</v>
+        <v>-0.06172788</v>
       </c>
       <c r="CH16" s="14" t="n">
         <v>0.05044872</v>
@@ -12369,64 +12369,64 @@
         <v>-0.00424067</v>
       </c>
       <c r="CJ16" s="14" t="n">
-        <v>-0.02970339</v>
+        <v>0.04070698</v>
       </c>
       <c r="CK16" s="14" t="n">
-        <v>-0.08842269</v>
+        <v>0.08842269</v>
       </c>
       <c r="CL16" s="14" t="n">
         <v>-0.19674044</v>
       </c>
       <c r="CM16" s="14" t="n">
-        <v>-0.00699973</v>
+        <v>0.08898863</v>
       </c>
       <c r="CN16" s="14" t="n">
-        <v>-0.16035992</v>
+        <v>0.02409813</v>
       </c>
       <c r="CO16" s="14" t="n">
-        <v>0.13464021</v>
+        <v>-0.13464021</v>
       </c>
       <c r="CP16" s="14" t="n">
-        <v>-0.11115145</v>
+        <v>-0.13663169</v>
       </c>
       <c r="CQ16" s="14" t="n">
         <v>-0.02033378</v>
       </c>
       <c r="CR16" s="14" t="n">
-        <v>0.18928653</v>
+        <v>-0.18928653</v>
       </c>
       <c r="CS16" s="14" t="n">
-        <v>-0.04085219</v>
+        <v>0.02180701</v>
       </c>
       <c r="CT16" s="14" t="n">
-        <v>-0.02555738</v>
+        <v>0.02555738</v>
       </c>
       <c r="CU16" s="14" t="n">
         <v>0.1354717</v>
       </c>
       <c r="CV16" s="14" t="n">
-        <v>-0.17225152</v>
+        <v>-0.05945399</v>
       </c>
       <c r="CW16" s="14" t="n">
-        <v>-0.04734166</v>
+        <v>0.04734166</v>
       </c>
       <c r="CX16" s="14" t="n">
-        <v>0.16226598</v>
+        <v>-0.16226598</v>
       </c>
       <c r="CY16" s="14" t="n">
         <v>-0.08128064</v>
       </c>
       <c r="CZ16" s="14" t="n">
-        <v>0.03272482</v>
+        <v>-0.03272482</v>
       </c>
       <c r="DA16" s="14" t="n">
-        <v>-0.0781063</v>
+        <v>-0.02980479</v>
       </c>
       <c r="DB16" s="14" t="n">
-        <v>-0.23166535</v>
+        <v>0.04271217</v>
       </c>
       <c r="DC16" s="14" t="n">
-        <v>0.08326405000000001</v>
+        <v>-0.03535772</v>
       </c>
       <c r="DD16" s="14" t="n">
         <v>0.03174371</v>
@@ -12441,16 +12441,16 @@
         <v>0.12637192</v>
       </c>
       <c r="DH16" s="14" t="n">
-        <v>-0.00397883</v>
+        <v>-0.13714776</v>
       </c>
       <c r="DI16" s="14" t="n">
-        <v>-0.0453995</v>
+        <v>0.0453995</v>
       </c>
       <c r="DJ16" s="14" t="n">
         <v>-0.07095505000000001</v>
       </c>
       <c r="DK16" s="14" t="n">
-        <v>0.05768577</v>
+        <v>-0.05768577</v>
       </c>
       <c r="DL16" s="14" t="n">
         <v>0.02187287</v>
@@ -12459,46 +12459,46 @@
         <v>0.01891037</v>
       </c>
       <c r="DN16" s="14" t="n">
-        <v>-0.11588673</v>
+        <v>0.11588673</v>
       </c>
       <c r="DO16" s="14" t="n">
         <v>0.04656387</v>
       </c>
       <c r="DP16" s="14" t="n">
-        <v>0.16033399</v>
+        <v>0.01984195</v>
       </c>
       <c r="DQ16" s="14" t="n">
         <v>-0.04707016</v>
       </c>
       <c r="DR16" s="14" t="n">
-        <v>-0.06830538</v>
+        <v>-0.01117817</v>
       </c>
       <c r="DS16" s="14" t="n">
         <v>0.01042302</v>
       </c>
       <c r="DT16" s="14" t="n">
-        <v>-0.05911298</v>
+        <v>0.05911298</v>
       </c>
       <c r="DU16" s="14" t="n">
         <v>-0.19010824</v>
       </c>
       <c r="DV16" s="14" t="n">
-        <v>0.04572832</v>
+        <v>-0.04572832</v>
       </c>
       <c r="DW16" s="14" t="n">
-        <v>-0.03013911</v>
+        <v>0.04091773</v>
       </c>
       <c r="DX16" s="14" t="n">
         <v>-0.02194773</v>
       </c>
       <c r="DY16" s="14" t="n">
-        <v>0.09498486</v>
+        <v>-0.09498486</v>
       </c>
       <c r="DZ16" s="14" t="n">
-        <v>-0.01264917</v>
+        <v>0.01264917</v>
       </c>
       <c r="EA16" s="14" t="n">
-        <v>0.00042052</v>
+        <v>0.13979902</v>
       </c>
       <c r="EB16" s="14" t="n">
         <v>0.1006791</v>
@@ -12510,7 +12510,7 @@
         <v>-0.11469923</v>
       </c>
       <c r="EE16" s="14" t="n">
-        <v>0.059241</v>
+        <v>-0.059241</v>
       </c>
     </row>
     <row r="17" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -12521,61 +12521,61 @@
         <v>8</v>
       </c>
       <c r="C17" s="14" t="n">
-        <v>0.16854736</v>
+        <v>-0.03891347</v>
       </c>
       <c r="D17" s="14" t="n">
-        <v>0.16854736</v>
+        <v>0.43958849</v>
       </c>
       <c r="E17" s="14" t="n">
-        <v>0.09667111</v>
+        <v>-0.09667111</v>
       </c>
       <c r="F17" s="14" t="n">
-        <v>-0.08075216</v>
+        <v>0.08075216</v>
       </c>
       <c r="G17" s="14" t="n">
         <v>-0.10538707</v>
       </c>
       <c r="H17" s="14" t="n">
-        <v>-0.00794286</v>
+        <v>0.00794286</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>-0.11307752</v>
+        <v>-0.11372503</v>
       </c>
       <c r="J17" s="14" t="n">
-        <v>-0.04828695</v>
+        <v>0.05243602</v>
       </c>
       <c r="K17" s="14" t="n">
-        <v>-0.10156008</v>
+        <v>0.10156008</v>
       </c>
       <c r="L17" s="14" t="n">
         <v>-0.04223479</v>
       </c>
       <c r="M17" s="14" t="n">
-        <v>-0.01465914</v>
+        <v>0.01465914</v>
       </c>
       <c r="N17" s="14" t="n">
         <v>0.10927783</v>
       </c>
       <c r="O17" s="14" t="n">
-        <v>0.01130668</v>
+        <v>0.10577693</v>
       </c>
       <c r="P17" s="14" t="n">
-        <v>-0.01338295</v>
+        <v>0.01338295</v>
       </c>
       <c r="Q17" s="14" t="n">
-        <v>0.10026683</v>
+        <v>0.16687903</v>
       </c>
       <c r="R17" s="14" t="n">
-        <v>0.13642645</v>
+        <v>0.06082494</v>
       </c>
       <c r="S17" s="14" t="n">
-        <v>-0.11905439</v>
+        <v>0.11905439</v>
       </c>
       <c r="T17" s="14" t="n">
-        <v>-0.02334259</v>
+        <v>0.06761646</v>
       </c>
       <c r="U17" s="14" t="n">
-        <v>-0.0624059</v>
+        <v>0.1417559</v>
       </c>
       <c r="V17" s="14" t="n">
         <v>0.09725966</v>
@@ -12584,31 +12584,31 @@
         <v>0.12866725</v>
       </c>
       <c r="X17" s="14" t="n">
-        <v>0.23798943</v>
+        <v>0.10018597</v>
       </c>
       <c r="Y17" s="14" t="n">
         <v>0.07362312999999999</v>
       </c>
       <c r="Z17" s="14" t="n">
-        <v>0.04832567</v>
+        <v>0.04372306</v>
       </c>
       <c r="AA17" s="14" t="n">
-        <v>-0.19128344</v>
+        <v>-0.03520979</v>
       </c>
       <c r="AB17" s="14" t="n">
-        <v>-0.0445383</v>
+        <v>-0.08485206000000001</v>
       </c>
       <c r="AC17" s="14" t="n">
         <v>-0.02008625</v>
       </c>
       <c r="AD17" s="14" t="n">
-        <v>0.04977738</v>
+        <v>-0.04977738</v>
       </c>
       <c r="AE17" s="14" t="n">
-        <v>-0.2221227</v>
+        <v>0.2221227</v>
       </c>
       <c r="AF17" s="14" t="n">
-        <v>0.12028632</v>
+        <v>-0.12028632</v>
       </c>
       <c r="AG17" s="14" t="n">
         <v>-0.06264014</v>
@@ -12617,124 +12617,124 @@
         <v>0.14702489</v>
       </c>
       <c r="AI17" s="14" t="n">
-        <v>0.05703798</v>
+        <v>-0.05703798</v>
       </c>
       <c r="AJ17" s="14" t="n">
         <v>-0.06161262</v>
       </c>
       <c r="AK17" s="14" t="n">
-        <v>0.02937589</v>
+        <v>-0.02937589</v>
       </c>
       <c r="AL17" s="14" t="n">
-        <v>0.02701818</v>
+        <v>0.05072441</v>
       </c>
       <c r="AM17" s="14" t="n">
-        <v>0.09335171</v>
+        <v>0.06025949</v>
       </c>
       <c r="AN17" s="14" t="n">
-        <v>0.00645614</v>
+        <v>0.11328712</v>
       </c>
       <c r="AO17" s="14" t="n">
-        <v>0.07669453</v>
+        <v>-0.07669453</v>
       </c>
       <c r="AP17" s="14" t="n">
-        <v>-0.09341758</v>
+        <v>-0.00375807</v>
       </c>
       <c r="AQ17" s="14" t="n">
-        <v>-0.06127725</v>
+        <v>0.06193206</v>
       </c>
       <c r="AR17" s="14" t="n">
-        <v>-0.04580263</v>
+        <v>-0.03499728</v>
       </c>
       <c r="AS17" s="14" t="n">
-        <v>0.05880296</v>
+        <v>0.06089016</v>
       </c>
       <c r="AT17" s="14" t="n">
-        <v>-0.12707179</v>
+        <v>0.12707179</v>
       </c>
       <c r="AU17" s="14" t="n">
         <v>0.11569961</v>
       </c>
       <c r="AV17" s="14" t="n">
-        <v>-0.05852945</v>
+        <v>0.02756305</v>
       </c>
       <c r="AW17" s="14" t="n">
-        <v>-0.07618961</v>
+        <v>-0.01916397</v>
       </c>
       <c r="AX17" s="14" t="n">
-        <v>0.07252933</v>
+        <v>-0.07252933</v>
       </c>
       <c r="AY17" s="14" t="n">
         <v>-0.01547805</v>
       </c>
       <c r="AZ17" s="14" t="n">
-        <v>0.07049423</v>
+        <v>-0.07049423</v>
       </c>
       <c r="BA17" s="14" t="n">
-        <v>0.03877162</v>
+        <v>0.009825179999999999</v>
       </c>
       <c r="BB17" s="14" t="n">
-        <v>0.23044204</v>
+        <v>0.15327128</v>
       </c>
       <c r="BC17" s="14" t="n">
-        <v>0.02729282</v>
+        <v>0.087662</v>
       </c>
       <c r="BD17" s="14" t="n">
-        <v>0.01347483</v>
+        <v>0.02235648</v>
       </c>
       <c r="BE17" s="14" t="n">
-        <v>0.04411025</v>
+        <v>-0.07735024</v>
       </c>
       <c r="BF17" s="14" t="n">
         <v>0.14777683</v>
       </c>
       <c r="BG17" s="14" t="n">
-        <v>0.18575158</v>
+        <v>-0.03539424</v>
       </c>
       <c r="BH17" s="14" t="n">
-        <v>0.13319111</v>
+        <v>0.00651488</v>
       </c>
       <c r="BI17" s="14" t="n">
-        <v>-0.0807384</v>
+        <v>0.0807384</v>
       </c>
       <c r="BJ17" s="14" t="n">
         <v>0.09786824</v>
       </c>
       <c r="BK17" s="14" t="n">
-        <v>-0.01675133</v>
+        <v>0.01675133</v>
       </c>
       <c r="BL17" s="14" t="n">
         <v>0.03415245</v>
       </c>
       <c r="BM17" s="14" t="n">
-        <v>-0.02905901</v>
+        <v>0.02905901</v>
       </c>
       <c r="BN17" s="14" t="n">
         <v>0.05347018</v>
       </c>
       <c r="BO17" s="14" t="n">
-        <v>-0.0850873</v>
+        <v>-0.03230993</v>
       </c>
       <c r="BP17" s="14" t="n">
-        <v>-0.00031058</v>
+        <v>-0.06063815</v>
       </c>
       <c r="BQ17" s="14" t="n">
         <v>-0.02560172</v>
       </c>
       <c r="BR17" s="14" t="n">
-        <v>-0.11502235</v>
+        <v>-0.00964638</v>
       </c>
       <c r="BS17" s="14" t="n">
-        <v>0.02090602</v>
+        <v>-0.02090602</v>
       </c>
       <c r="BT17" s="14" t="n">
-        <v>0.05265016</v>
+        <v>-0.05265016</v>
       </c>
       <c r="BU17" s="14" t="n">
-        <v>0.03851038</v>
+        <v>0.07112781999999999</v>
       </c>
       <c r="BV17" s="14" t="n">
-        <v>0.03824096</v>
+        <v>-0.10664392</v>
       </c>
       <c r="BW17" s="14" t="n">
         <v>0.20833683</v>
@@ -12743,31 +12743,31 @@
         <v>-0.08264099</v>
       </c>
       <c r="BY17" s="14" t="n">
-        <v>0.14247738</v>
+        <v>-0.09586087</v>
       </c>
       <c r="BZ17" s="14" t="n">
-        <v>-0.06685753</v>
+        <v>-0.12096669</v>
       </c>
       <c r="CA17" s="14" t="n">
-        <v>-0.13087785</v>
+        <v>-0.02793483</v>
       </c>
       <c r="CB17" s="14" t="n">
-        <v>0.10916584</v>
+        <v>-0.14963316</v>
       </c>
       <c r="CC17" s="14" t="n">
-        <v>-0.11468085</v>
+        <v>0.04176025</v>
       </c>
       <c r="CD17" s="14" t="n">
-        <v>0.07638512</v>
+        <v>-0.07638512</v>
       </c>
       <c r="CE17" s="14" t="n">
-        <v>0.11249459</v>
+        <v>-0.17511625</v>
       </c>
       <c r="CF17" s="14" t="n">
         <v>0.0582388</v>
       </c>
       <c r="CG17" s="14" t="n">
-        <v>0.07471499</v>
+        <v>-0.07471499</v>
       </c>
       <c r="CH17" s="14" t="n">
         <v>0.03296907</v>
@@ -12776,64 +12776,64 @@
         <v>-0.00370178</v>
       </c>
       <c r="CJ17" s="14" t="n">
-        <v>-0.02095083</v>
+        <v>0.05074232</v>
       </c>
       <c r="CK17" s="14" t="n">
-        <v>-0.08395585</v>
+        <v>0.08395585</v>
       </c>
       <c r="CL17" s="14" t="n">
         <v>-0.1368391</v>
       </c>
       <c r="CM17" s="14" t="n">
-        <v>0.00166997</v>
+        <v>0.13456934</v>
       </c>
       <c r="CN17" s="14" t="n">
-        <v>-0.17653128</v>
+        <v>0.02671806</v>
       </c>
       <c r="CO17" s="14" t="n">
-        <v>0.13741288</v>
+        <v>-0.13741288</v>
       </c>
       <c r="CP17" s="14" t="n">
-        <v>-0.10822138</v>
+        <v>-0.14815927</v>
       </c>
       <c r="CQ17" s="14" t="n">
         <v>0.0519071</v>
       </c>
       <c r="CR17" s="14" t="n">
-        <v>0.19640263</v>
+        <v>-0.19640263</v>
       </c>
       <c r="CS17" s="14" t="n">
-        <v>-0.03134582</v>
+        <v>0.01154552</v>
       </c>
       <c r="CT17" s="14" t="n">
-        <v>-0.01733928</v>
+        <v>0.01733928</v>
       </c>
       <c r="CU17" s="14" t="n">
         <v>0.15535189</v>
       </c>
       <c r="CV17" s="14" t="n">
-        <v>-0.15147138</v>
+        <v>-0.06789102</v>
       </c>
       <c r="CW17" s="14" t="n">
-        <v>-0.06339322</v>
+        <v>0.06339322</v>
       </c>
       <c r="CX17" s="14" t="n">
-        <v>0.12500986</v>
+        <v>-0.12500986</v>
       </c>
       <c r="CY17" s="14" t="n">
         <v>-0.07560891</v>
       </c>
       <c r="CZ17" s="14" t="n">
-        <v>0.03159268</v>
+        <v>-0.03159268</v>
       </c>
       <c r="DA17" s="14" t="n">
-        <v>-0.0481098</v>
+        <v>-0.04182179</v>
       </c>
       <c r="DB17" s="14" t="n">
-        <v>-0.22431697</v>
+        <v>0.03488301</v>
       </c>
       <c r="DC17" s="14" t="n">
-        <v>0.09884939</v>
+        <v>-0.04336347</v>
       </c>
       <c r="DD17" s="14" t="n">
         <v>0.02915542</v>
@@ -12848,16 +12848,16 @@
         <v>0.12321247</v>
       </c>
       <c r="DH17" s="14" t="n">
-        <v>-0.01265389</v>
+        <v>-0.1634318</v>
       </c>
       <c r="DI17" s="14" t="n">
-        <v>-0.03504454</v>
+        <v>0.03504454</v>
       </c>
       <c r="DJ17" s="14" t="n">
         <v>-0.12892506</v>
       </c>
       <c r="DK17" s="14" t="n">
-        <v>0.06811811</v>
+        <v>-0.06811811</v>
       </c>
       <c r="DL17" s="14" t="n">
         <v>0.00392973</v>
@@ -12866,46 +12866,46 @@
         <v>0.03722748</v>
       </c>
       <c r="DN17" s="14" t="n">
-        <v>-0.10647996</v>
+        <v>0.10647996</v>
       </c>
       <c r="DO17" s="14" t="n">
         <v>0.06525054</v>
       </c>
       <c r="DP17" s="14" t="n">
-        <v>0.14203416</v>
+        <v>-0.01687861</v>
       </c>
       <c r="DQ17" s="14" t="n">
         <v>-0.07265401</v>
       </c>
       <c r="DR17" s="14" t="n">
-        <v>-0.04543126</v>
+        <v>-0.02572644</v>
       </c>
       <c r="DS17" s="14" t="n">
         <v>0.00650554</v>
       </c>
       <c r="DT17" s="14" t="n">
-        <v>-0.05981194</v>
+        <v>0.05981194</v>
       </c>
       <c r="DU17" s="14" t="n">
         <v>-0.1595551</v>
       </c>
       <c r="DV17" s="14" t="n">
-        <v>0.04514884</v>
+        <v>-0.04514884</v>
       </c>
       <c r="DW17" s="14" t="n">
-        <v>-0.04823539</v>
+        <v>0.05978489</v>
       </c>
       <c r="DX17" s="14" t="n">
         <v>0.02303518</v>
       </c>
       <c r="DY17" s="14" t="n">
-        <v>0.12601054</v>
+        <v>-0.12601054</v>
       </c>
       <c r="DZ17" s="14" t="n">
-        <v>0.00479105</v>
+        <v>-0.00479105</v>
       </c>
       <c r="EA17" s="14" t="n">
-        <v>-0.00463252</v>
+        <v>0.16457152</v>
       </c>
       <c r="EB17" s="14" t="n">
         <v>0.10728533</v>
@@ -12917,7 +12917,7 @@
         <v>-0.10329067</v>
       </c>
       <c r="EE17" s="14" t="n">
-        <v>0.06427869999999999</v>
+        <v>-0.06427869999999999</v>
       </c>
     </row>
     <row r="18" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -12928,61 +12928,61 @@
         <v>7</v>
       </c>
       <c r="C18" s="14" t="n">
-        <v>0.18401889</v>
+        <v>-0.0591468</v>
       </c>
       <c r="D18" s="14" t="n">
-        <v>0.18401889</v>
+        <v>0.40188368</v>
       </c>
       <c r="E18" s="14" t="n">
-        <v>0.10047562</v>
+        <v>-0.10047562</v>
       </c>
       <c r="F18" s="14" t="n">
-        <v>-0.11938296</v>
+        <v>0.11938296</v>
       </c>
       <c r="G18" s="14" t="n">
         <v>-0.10831637</v>
       </c>
       <c r="H18" s="14" t="n">
-        <v>-0.00862223</v>
+        <v>0.00862223</v>
       </c>
       <c r="I18" s="14" t="n">
-        <v>-0.12862656</v>
+        <v>-0.13550018</v>
       </c>
       <c r="J18" s="14" t="n">
-        <v>-0.09117322999999999</v>
+        <v>0.04341152</v>
       </c>
       <c r="K18" s="14" t="n">
-        <v>-0.13564789</v>
+        <v>0.13564789</v>
       </c>
       <c r="L18" s="14" t="n">
         <v>-0.05075821</v>
       </c>
       <c r="M18" s="14" t="n">
-        <v>-0.02905146</v>
+        <v>0.02905146</v>
       </c>
       <c r="N18" s="14" t="n">
         <v>0.14120749</v>
       </c>
       <c r="O18" s="14" t="n">
-        <v>-0.03173794</v>
+        <v>0.10367049</v>
       </c>
       <c r="P18" s="14" t="n">
-        <v>-0.00832809</v>
+        <v>0.00832809</v>
       </c>
       <c r="Q18" s="14" t="n">
-        <v>0.09305959</v>
+        <v>0.18897542</v>
       </c>
       <c r="R18" s="14" t="n">
-        <v>0.15418919</v>
+        <v>0.06973403</v>
       </c>
       <c r="S18" s="14" t="n">
-        <v>-0.14380523</v>
+        <v>0.14380523</v>
       </c>
       <c r="T18" s="14" t="n">
-        <v>-0.0523097</v>
+        <v>0.0526381</v>
       </c>
       <c r="U18" s="14" t="n">
-        <v>-0.05515034</v>
+        <v>0.13249502</v>
       </c>
       <c r="V18" s="14" t="n">
         <v>0.12139146</v>
@@ -12991,31 +12991,31 @@
         <v>0.16613483</v>
       </c>
       <c r="X18" s="14" t="n">
-        <v>0.21512106</v>
+        <v>0.12712281</v>
       </c>
       <c r="Y18" s="14" t="n">
         <v>0.10387924</v>
       </c>
       <c r="Z18" s="14" t="n">
-        <v>0.05146973</v>
+        <v>0.08923436</v>
       </c>
       <c r="AA18" s="14" t="n">
-        <v>-0.17257066</v>
+        <v>-0.04170525</v>
       </c>
       <c r="AB18" s="14" t="n">
-        <v>-0.06264481</v>
+        <v>-0.0846983</v>
       </c>
       <c r="AC18" s="14" t="n">
         <v>0.00136542</v>
       </c>
       <c r="AD18" s="14" t="n">
-        <v>0.07244378999999999</v>
+        <v>-0.07244378999999999</v>
       </c>
       <c r="AE18" s="14" t="n">
-        <v>-0.25839135</v>
+        <v>0.25839135</v>
       </c>
       <c r="AF18" s="14" t="n">
-        <v>0.15054364</v>
+        <v>-0.15054364</v>
       </c>
       <c r="AG18" s="14" t="n">
         <v>-0.08171998</v>
@@ -13024,124 +13024,124 @@
         <v>0.1630685</v>
       </c>
       <c r="AI18" s="14" t="n">
-        <v>0.08142375</v>
+        <v>-0.08142375</v>
       </c>
       <c r="AJ18" s="14" t="n">
         <v>-0.07086721999999999</v>
       </c>
       <c r="AK18" s="14" t="n">
-        <v>0.02283289</v>
+        <v>-0.02283289</v>
       </c>
       <c r="AL18" s="14" t="n">
-        <v>0.03281281</v>
+        <v>0.04586013</v>
       </c>
       <c r="AM18" s="14" t="n">
-        <v>0.09605303</v>
+        <v>0.06664341</v>
       </c>
       <c r="AN18" s="14" t="n">
-        <v>-0.00279442</v>
+        <v>0.11682605</v>
       </c>
       <c r="AO18" s="14" t="n">
-        <v>-0.02458428</v>
+        <v>0.02458428</v>
       </c>
       <c r="AP18" s="14" t="n">
-        <v>-0.09554579000000001</v>
+        <v>-0.00201443</v>
       </c>
       <c r="AQ18" s="14" t="n">
-        <v>-0.06415497000000001</v>
+        <v>0.07623085</v>
       </c>
       <c r="AR18" s="14" t="n">
-        <v>-0.03900247</v>
+        <v>-0.06169452</v>
       </c>
       <c r="AS18" s="14" t="n">
-        <v>0.08325312999999999</v>
+        <v>0.08582655</v>
       </c>
       <c r="AT18" s="14" t="n">
-        <v>-0.16638581</v>
+        <v>0.16638581</v>
       </c>
       <c r="AU18" s="14" t="n">
         <v>0.13889821</v>
       </c>
       <c r="AV18" s="14" t="n">
-        <v>-0.06023566</v>
+        <v>0.03505769</v>
       </c>
       <c r="AW18" s="14" t="n">
-        <v>-0.09776686</v>
+        <v>-0.02453803</v>
       </c>
       <c r="AX18" s="14" t="n">
-        <v>0.11340549</v>
+        <v>-0.11340549</v>
       </c>
       <c r="AY18" s="14" t="n">
         <v>-0.03018936</v>
       </c>
       <c r="AZ18" s="14" t="n">
-        <v>0.05164633</v>
+        <v>-0.05164633</v>
       </c>
       <c r="BA18" s="14" t="n">
-        <v>0.03530224</v>
+        <v>0.00063231</v>
       </c>
       <c r="BB18" s="14" t="n">
-        <v>0.31745743</v>
+        <v>0.16725802</v>
       </c>
       <c r="BC18" s="14" t="n">
-        <v>-0.02794205</v>
+        <v>0.0939821</v>
       </c>
       <c r="BD18" s="14" t="n">
-        <v>0.00385735</v>
+        <v>-0.01172948</v>
       </c>
       <c r="BE18" s="14" t="n">
-        <v>0.09117285</v>
+        <v>-0.06836121000000001</v>
       </c>
       <c r="BF18" s="14" t="n">
         <v>0.16498649</v>
       </c>
       <c r="BG18" s="14" t="n">
-        <v>0.14671397</v>
+        <v>-0.01680624</v>
       </c>
       <c r="BH18" s="14" t="n">
-        <v>0.13789827</v>
+        <v>0.03944029</v>
       </c>
       <c r="BI18" s="14" t="n">
-        <v>-0.07599109</v>
+        <v>0.07599109</v>
       </c>
       <c r="BJ18" s="14" t="n">
         <v>0.09853386</v>
       </c>
       <c r="BK18" s="14" t="n">
-        <v>-0.0009810800000000001</v>
+        <v>0.0009810800000000001</v>
       </c>
       <c r="BL18" s="14" t="n">
         <v>0.05578788</v>
       </c>
       <c r="BM18" s="14" t="n">
-        <v>-0.02808136</v>
+        <v>0.02808136</v>
       </c>
       <c r="BN18" s="14" t="n">
         <v>0.04219159</v>
       </c>
       <c r="BO18" s="14" t="n">
-        <v>-0.06216908</v>
+        <v>-0.01694786</v>
       </c>
       <c r="BP18" s="14" t="n">
-        <v>-0.00845134</v>
+        <v>-0.06246343</v>
       </c>
       <c r="BQ18" s="14" t="n">
         <v>-0.08645969000000001</v>
       </c>
       <c r="BR18" s="14" t="n">
-        <v>-0.12096182</v>
+        <v>-0.00574819</v>
       </c>
       <c r="BS18" s="14" t="n">
-        <v>0.03287326</v>
+        <v>-0.03287326</v>
       </c>
       <c r="BT18" s="14" t="n">
-        <v>0.06154532</v>
+        <v>-0.06154532</v>
       </c>
       <c r="BU18" s="14" t="n">
-        <v>-0.00892067</v>
+        <v>0.08067744</v>
       </c>
       <c r="BV18" s="14" t="n">
-        <v>0.03962443</v>
+        <v>-0.11550552</v>
       </c>
       <c r="BW18" s="14" t="n">
         <v>0.2183755</v>
@@ -13150,31 +13150,31 @@
         <v>-0.07458086</v>
       </c>
       <c r="BY18" s="14" t="n">
-        <v>0.08746527</v>
+        <v>-0.06268674</v>
       </c>
       <c r="BZ18" s="14" t="n">
-        <v>-0.03534765</v>
+        <v>-0.15331999</v>
       </c>
       <c r="CA18" s="14" t="n">
-        <v>-0.11432599</v>
+        <v>-0.01607654</v>
       </c>
       <c r="CB18" s="14" t="n">
-        <v>0.09738728000000001</v>
+        <v>-0.10684606</v>
       </c>
       <c r="CC18" s="14" t="n">
-        <v>-0.10559806</v>
+        <v>0.10466062</v>
       </c>
       <c r="CD18" s="14" t="n">
-        <v>0.12159522</v>
+        <v>-0.12159522</v>
       </c>
       <c r="CE18" s="14" t="n">
-        <v>0.13007559</v>
+        <v>-0.16739394</v>
       </c>
       <c r="CF18" s="14" t="n">
         <v>-0.04395774</v>
       </c>
       <c r="CG18" s="14" t="n">
-        <v>0.09160926</v>
+        <v>-0.09160926</v>
       </c>
       <c r="CH18" s="14" t="n">
         <v>0.04536565</v>
@@ -13183,64 +13183,64 @@
         <v>0.11505931</v>
       </c>
       <c r="CJ18" s="14" t="n">
-        <v>0.00377237</v>
+        <v>0.06231368</v>
       </c>
       <c r="CK18" s="14" t="n">
-        <v>-0.09605803</v>
+        <v>0.09605803</v>
       </c>
       <c r="CL18" s="14" t="n">
         <v>-0.15291394</v>
       </c>
       <c r="CM18" s="14" t="n">
-        <v>0.01554875</v>
+        <v>0.14364854</v>
       </c>
       <c r="CN18" s="14" t="n">
-        <v>-0.12094313</v>
+        <v>0.03799704</v>
       </c>
       <c r="CO18" s="14" t="n">
-        <v>0.15059751</v>
+        <v>-0.15059751</v>
       </c>
       <c r="CP18" s="14" t="n">
-        <v>-0.11627032</v>
+        <v>-0.16283911</v>
       </c>
       <c r="CQ18" s="14" t="n">
         <v>0.03824268</v>
       </c>
       <c r="CR18" s="14" t="n">
-        <v>0.19372241</v>
+        <v>-0.19372241</v>
       </c>
       <c r="CS18" s="14" t="n">
-        <v>-0.05769065</v>
+        <v>0.02812856</v>
       </c>
       <c r="CT18" s="14" t="n">
-        <v>0.01627249</v>
+        <v>-0.01627249</v>
       </c>
       <c r="CU18" s="14" t="n">
         <v>0.14456482</v>
       </c>
       <c r="CV18" s="14" t="n">
-        <v>-0.12702227</v>
+        <v>-0.06294462000000001</v>
       </c>
       <c r="CW18" s="14" t="n">
-        <v>-0.06655857</v>
+        <v>0.06655857</v>
       </c>
       <c r="CX18" s="14" t="n">
-        <v>0.15307569</v>
+        <v>-0.15307569</v>
       </c>
       <c r="CY18" s="14" t="n">
         <v>-0.09317838000000001</v>
       </c>
       <c r="CZ18" s="14" t="n">
-        <v>0.09145921</v>
+        <v>-0.09145921</v>
       </c>
       <c r="DA18" s="14" t="n">
-        <v>-0.07689055</v>
+        <v>-0.04530745</v>
       </c>
       <c r="DB18" s="14" t="n">
-        <v>-0.22238211</v>
+        <v>0.04573521</v>
       </c>
       <c r="DC18" s="14" t="n">
-        <v>0.08281971</v>
+        <v>-0.03640878</v>
       </c>
       <c r="DD18" s="14" t="n">
         <v>0.04101419</v>
@@ -13255,16 +13255,16 @@
         <v>0.11821709</v>
       </c>
       <c r="DH18" s="14" t="n">
-        <v>-0.01305003</v>
+        <v>-0.19240138</v>
       </c>
       <c r="DI18" s="14" t="n">
-        <v>-0.01861325</v>
+        <v>0.01861325</v>
       </c>
       <c r="DJ18" s="14" t="n">
         <v>-0.14619608</v>
       </c>
       <c r="DK18" s="14" t="n">
-        <v>0.05725059</v>
+        <v>-0.05725059</v>
       </c>
       <c r="DL18" s="14" t="n">
         <v>0.00383027</v>
@@ -13273,46 +13273,46 @@
         <v>0.00525068</v>
       </c>
       <c r="DN18" s="14" t="n">
-        <v>-0.12510868</v>
+        <v>0.12510868</v>
       </c>
       <c r="DO18" s="14" t="n">
         <v>0.03019902</v>
       </c>
       <c r="DP18" s="14" t="n">
-        <v>0.13348647</v>
+        <v>-0.02060469</v>
       </c>
       <c r="DQ18" s="14" t="n">
         <v>-0.06574946</v>
       </c>
       <c r="DR18" s="14" t="n">
-        <v>-0.05246106</v>
+        <v>-0.01045125</v>
       </c>
       <c r="DS18" s="14" t="n">
         <v>0.02538565</v>
       </c>
       <c r="DT18" s="14" t="n">
-        <v>-0.02260103</v>
+        <v>0.02260103</v>
       </c>
       <c r="DU18" s="14" t="n">
         <v>-0.16258878</v>
       </c>
       <c r="DV18" s="14" t="n">
-        <v>0.07052769</v>
+        <v>-0.07052769</v>
       </c>
       <c r="DW18" s="14" t="n">
-        <v>-0.05797738</v>
+        <v>0.08190869000000001</v>
       </c>
       <c r="DX18" s="14" t="n">
         <v>0.06817729</v>
       </c>
       <c r="DY18" s="14" t="n">
-        <v>0.1657631</v>
+        <v>-0.1657631</v>
       </c>
       <c r="DZ18" s="14" t="n">
-        <v>0.04322785</v>
+        <v>-0.04322785</v>
       </c>
       <c r="EA18" s="14" t="n">
-        <v>-0.0047383</v>
+        <v>0.19894575</v>
       </c>
       <c r="EB18" s="14" t="n">
         <v>0.10996435</v>
@@ -13324,7 +13324,7 @@
         <v>-0.0827591</v>
       </c>
       <c r="EE18" s="14" t="n">
-        <v>0.05301504</v>
+        <v>-0.05301504</v>
       </c>
     </row>
     <row r="19" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -13335,61 +13335,61 @@
         <v>6</v>
       </c>
       <c r="C19" s="14" t="n">
-        <v>0.21954287</v>
+        <v>-0.07386193000000001</v>
       </c>
       <c r="D19" s="14" t="n">
-        <v>0.21954287</v>
+        <v>0.40752071</v>
       </c>
       <c r="E19" s="14" t="n">
-        <v>0.14058368</v>
+        <v>-0.14058368</v>
       </c>
       <c r="F19" s="14" t="n">
-        <v>-0.17768866</v>
+        <v>0.17768866</v>
       </c>
       <c r="G19" s="14" t="n">
         <v>-0.09606597</v>
       </c>
       <c r="H19" s="14" t="n">
-        <v>0.01206879</v>
+        <v>-0.01206879</v>
       </c>
       <c r="I19" s="14" t="n">
-        <v>-0.13411218</v>
+        <v>-0.13465433</v>
       </c>
       <c r="J19" s="14" t="n">
-        <v>-0.11143724</v>
+        <v>0.03542958</v>
       </c>
       <c r="K19" s="14" t="n">
-        <v>-0.23878941</v>
+        <v>0.23878941</v>
       </c>
       <c r="L19" s="14" t="n">
         <v>-0.02032665</v>
       </c>
       <c r="M19" s="14" t="n">
-        <v>0.04369024</v>
+        <v>-0.04369024</v>
       </c>
       <c r="N19" s="14" t="n">
         <v>0.15184358</v>
       </c>
       <c r="O19" s="14" t="n">
-        <v>-0.03156187</v>
+        <v>0.09222138000000001</v>
       </c>
       <c r="P19" s="14" t="n">
-        <v>-0.02351316</v>
+        <v>0.02351316</v>
       </c>
       <c r="Q19" s="14" t="n">
-        <v>0.08186611000000001</v>
+        <v>0.19776575</v>
       </c>
       <c r="R19" s="14" t="n">
-        <v>0.14558327</v>
+        <v>0.09029909</v>
       </c>
       <c r="S19" s="14" t="n">
-        <v>-0.12269188</v>
+        <v>0.12269188</v>
       </c>
       <c r="T19" s="14" t="n">
-        <v>-0.05146472</v>
+        <v>0.02528021</v>
       </c>
       <c r="U19" s="14" t="n">
-        <v>-0.06725</v>
+        <v>0.1557937</v>
       </c>
       <c r="V19" s="14" t="n">
         <v>0.09268832</v>
@@ -13398,31 +13398,31 @@
         <v>0.17473476</v>
       </c>
       <c r="X19" s="14" t="n">
-        <v>0.14939987</v>
+        <v>0.12292315</v>
       </c>
       <c r="Y19" s="14" t="n">
         <v>0.10313024</v>
       </c>
       <c r="Z19" s="14" t="n">
-        <v>0.05788873</v>
+        <v>0.09161911</v>
       </c>
       <c r="AA19" s="14" t="n">
-        <v>-0.1318329</v>
+        <v>-0.02329</v>
       </c>
       <c r="AB19" s="14" t="n">
-        <v>-0.05171875</v>
+        <v>-0.09924193000000001</v>
       </c>
       <c r="AC19" s="14" t="n">
         <v>0.01414154</v>
       </c>
       <c r="AD19" s="14" t="n">
-        <v>0.02399746</v>
+        <v>-0.02399746</v>
       </c>
       <c r="AE19" s="14" t="n">
-        <v>-0.30849286</v>
+        <v>0.30849286</v>
       </c>
       <c r="AF19" s="14" t="n">
-        <v>0.16883058</v>
+        <v>-0.16883058</v>
       </c>
       <c r="AG19" s="14" t="n">
         <v>-0.0414871</v>
@@ -13431,124 +13431,124 @@
         <v>0.20415629</v>
       </c>
       <c r="AI19" s="14" t="n">
-        <v>0.04776635</v>
+        <v>-0.04776635</v>
       </c>
       <c r="AJ19" s="14" t="n">
         <v>-0.07720270999999999</v>
       </c>
       <c r="AK19" s="14" t="n">
-        <v>0.04058152</v>
+        <v>-0.04058152</v>
       </c>
       <c r="AL19" s="14" t="n">
-        <v>0.01491461</v>
+        <v>0.07027095</v>
       </c>
       <c r="AM19" s="14" t="n">
-        <v>0.06112413</v>
+        <v>0.04310601</v>
       </c>
       <c r="AN19" s="14" t="n">
-        <v>0.01023955</v>
+        <v>0.08356829</v>
       </c>
       <c r="AO19" s="14" t="n">
-        <v>-0.05589013</v>
+        <v>0.05589013</v>
       </c>
       <c r="AP19" s="14" t="n">
-        <v>-0.12482825</v>
+        <v>-0.009712119999999999</v>
       </c>
       <c r="AQ19" s="14" t="n">
-        <v>-0.04237567</v>
+        <v>0.08825276</v>
       </c>
       <c r="AR19" s="14" t="n">
-        <v>0.04114451</v>
+        <v>-0.0746169</v>
       </c>
       <c r="AS19" s="14" t="n">
-        <v>0.10919888</v>
+        <v>0.09779696</v>
       </c>
       <c r="AT19" s="14" t="n">
-        <v>-0.18459366</v>
+        <v>0.18459366</v>
       </c>
       <c r="AU19" s="14" t="n">
         <v>0.15301463</v>
       </c>
       <c r="AV19" s="14" t="n">
-        <v>0.00303261</v>
+        <v>0.0426773</v>
       </c>
       <c r="AW19" s="14" t="n">
-        <v>-0.1366934</v>
+        <v>-0.02235617</v>
       </c>
       <c r="AX19" s="14" t="n">
-        <v>0.14007951</v>
+        <v>-0.14007951</v>
       </c>
       <c r="AY19" s="14" t="n">
         <v>-0.06627324</v>
       </c>
       <c r="AZ19" s="14" t="n">
-        <v>0.11561153</v>
+        <v>-0.11561153</v>
       </c>
       <c r="BA19" s="14" t="n">
-        <v>0.00150902</v>
+        <v>-0.03436388</v>
       </c>
       <c r="BB19" s="14" t="n">
-        <v>0.36416093</v>
+        <v>0.20180191</v>
       </c>
       <c r="BC19" s="14" t="n">
-        <v>-0.18457179</v>
+        <v>0.06405549000000001</v>
       </c>
       <c r="BD19" s="14" t="n">
-        <v>-0.01432005</v>
+        <v>-0.00323439</v>
       </c>
       <c r="BE19" s="14" t="n">
-        <v>0.08948072</v>
+        <v>-0.0538675</v>
       </c>
       <c r="BF19" s="14" t="n">
         <v>0.14180943</v>
       </c>
       <c r="BG19" s="14" t="n">
-        <v>0.15330875</v>
+        <v>-0.01634366</v>
       </c>
       <c r="BH19" s="14" t="n">
-        <v>0.14049691</v>
+        <v>0.0020182</v>
       </c>
       <c r="BI19" s="14" t="n">
-        <v>-0.10128423</v>
+        <v>0.10128423</v>
       </c>
       <c r="BJ19" s="14" t="n">
         <v>0.05891222</v>
       </c>
       <c r="BK19" s="14" t="n">
-        <v>0.06951904</v>
+        <v>-0.06951904</v>
       </c>
       <c r="BL19" s="14" t="n">
         <v>0.06316453</v>
       </c>
       <c r="BM19" s="14" t="n">
-        <v>-0.03178626</v>
+        <v>0.03178626</v>
       </c>
       <c r="BN19" s="14" t="n">
         <v>0.0721851</v>
       </c>
       <c r="BO19" s="14" t="n">
-        <v>-0.10556468</v>
+        <v>-0.02572896</v>
       </c>
       <c r="BP19" s="14" t="n">
-        <v>0.00281414</v>
+        <v>-0.01241034</v>
       </c>
       <c r="BQ19" s="14" t="n">
         <v>-0.10965313</v>
       </c>
       <c r="BR19" s="14" t="n">
-        <v>-0.13683924</v>
+        <v>0.00667525</v>
       </c>
       <c r="BS19" s="14" t="n">
-        <v>-0.00349993</v>
+        <v>0.00349993</v>
       </c>
       <c r="BT19" s="14" t="n">
-        <v>0.0823234</v>
+        <v>-0.0823234</v>
       </c>
       <c r="BU19" s="14" t="n">
-        <v>-0.04324663</v>
+        <v>0.07593625</v>
       </c>
       <c r="BV19" s="14" t="n">
-        <v>0.03035079</v>
+        <v>-0.10008527</v>
       </c>
       <c r="BW19" s="14" t="n">
         <v>0.30745301</v>
@@ -13557,31 +13557,31 @@
         <v>-0.05483028</v>
       </c>
       <c r="BY19" s="14" t="n">
-        <v>0.07986693</v>
+        <v>-0.02767549</v>
       </c>
       <c r="BZ19" s="14" t="n">
-        <v>-0.00342503</v>
+        <v>-0.06381539</v>
       </c>
       <c r="CA19" s="14" t="n">
-        <v>-0.05621514</v>
+        <v>-0.02932876</v>
       </c>
       <c r="CB19" s="14" t="n">
-        <v>0.07897680999999999</v>
+        <v>-0.12783821</v>
       </c>
       <c r="CC19" s="14" t="n">
-        <v>-0.10541676</v>
+        <v>0.02250623</v>
       </c>
       <c r="CD19" s="14" t="n">
-        <v>0.14873191</v>
+        <v>-0.14873191</v>
       </c>
       <c r="CE19" s="14" t="n">
-        <v>0.11441436</v>
+        <v>-0.19826583</v>
       </c>
       <c r="CF19" s="14" t="n">
         <v>-0.07905152</v>
       </c>
       <c r="CG19" s="14" t="n">
-        <v>0.05711762</v>
+        <v>-0.05711762</v>
       </c>
       <c r="CH19" s="14" t="n">
         <v>0.04271504</v>
@@ -13590,64 +13590,64 @@
         <v>0.11073421</v>
       </c>
       <c r="CJ19" s="14" t="n">
-        <v>0.01181192</v>
+        <v>0.0619405</v>
       </c>
       <c r="CK19" s="14" t="n">
-        <v>-0.11879726</v>
+        <v>0.11879726</v>
       </c>
       <c r="CL19" s="14" t="n">
         <v>-0.11534778</v>
       </c>
       <c r="CM19" s="14" t="n">
-        <v>0.07558187</v>
+        <v>0.17534764</v>
       </c>
       <c r="CN19" s="14" t="n">
-        <v>-0.14319321</v>
+        <v>0.07693265000000001</v>
       </c>
       <c r="CO19" s="14" t="n">
-        <v>0.16614656</v>
+        <v>-0.16614656</v>
       </c>
       <c r="CP19" s="14" t="n">
-        <v>-0.13741472</v>
+        <v>-0.1590326</v>
       </c>
       <c r="CQ19" s="14" t="n">
         <v>0.03239461</v>
       </c>
       <c r="CR19" s="14" t="n">
-        <v>0.17630672</v>
+        <v>-0.17630672</v>
       </c>
       <c r="CS19" s="14" t="n">
-        <v>-0.05425045</v>
+        <v>0.04377499</v>
       </c>
       <c r="CT19" s="14" t="n">
-        <v>0.02794064</v>
+        <v>-0.02794064</v>
       </c>
       <c r="CU19" s="14" t="n">
         <v>0.14660754</v>
       </c>
       <c r="CV19" s="14" t="n">
-        <v>-0.09455301000000001</v>
+        <v>-0.07614248999999999</v>
       </c>
       <c r="CW19" s="14" t="n">
-        <v>-0.06051588</v>
+        <v>0.06051588</v>
       </c>
       <c r="CX19" s="14" t="n">
-        <v>0.14815029</v>
+        <v>-0.14815029</v>
       </c>
       <c r="CY19" s="14" t="n">
         <v>-0.10789212</v>
       </c>
       <c r="CZ19" s="14" t="n">
-        <v>0.05749926</v>
+        <v>-0.05749926</v>
       </c>
       <c r="DA19" s="14" t="n">
-        <v>-0.1196964</v>
+        <v>-0.05822388</v>
       </c>
       <c r="DB19" s="14" t="n">
-        <v>-0.28613845</v>
+        <v>0.0357209</v>
       </c>
       <c r="DC19" s="14" t="n">
-        <v>0.06558758000000001</v>
+        <v>0.0351794</v>
       </c>
       <c r="DD19" s="14" t="n">
         <v>0.00620113</v>
@@ -13662,16 +13662,16 @@
         <v>0.1264908</v>
       </c>
       <c r="DH19" s="14" t="n">
-        <v>-0.04322061</v>
+        <v>-0.22458978</v>
       </c>
       <c r="DI19" s="14" t="n">
-        <v>-0.05864703</v>
+        <v>0.05864703</v>
       </c>
       <c r="DJ19" s="14" t="n">
         <v>-0.16525047</v>
       </c>
       <c r="DK19" s="14" t="n">
-        <v>0.01598429</v>
+        <v>-0.01598429</v>
       </c>
       <c r="DL19" s="14" t="n">
         <v>0.01198279</v>
@@ -13680,46 +13680,46 @@
         <v>-0.0460979</v>
       </c>
       <c r="DN19" s="14" t="n">
-        <v>-0.1739283</v>
+        <v>0.1739283</v>
       </c>
       <c r="DO19" s="14" t="n">
         <v>0.04870552</v>
       </c>
       <c r="DP19" s="14" t="n">
-        <v>0.17026813</v>
+        <v>0.02783801</v>
       </c>
       <c r="DQ19" s="14" t="n">
         <v>-0.08037416999999999</v>
       </c>
       <c r="DR19" s="14" t="n">
-        <v>-0.03318106</v>
+        <v>-0.0175448</v>
       </c>
       <c r="DS19" s="14" t="n">
         <v>0.04491896</v>
       </c>
       <c r="DT19" s="14" t="n">
-        <v>-0.00503325</v>
+        <v>0.00503325</v>
       </c>
       <c r="DU19" s="14" t="n">
         <v>-0.19451944</v>
       </c>
       <c r="DV19" s="14" t="n">
-        <v>0.07159339000000001</v>
+        <v>-0.07159339000000001</v>
       </c>
       <c r="DW19" s="14" t="n">
-        <v>-0.05684399</v>
+        <v>0.06060914</v>
       </c>
       <c r="DX19" s="14" t="n">
         <v>0.09461419</v>
       </c>
       <c r="DY19" s="14" t="n">
-        <v>0.15211941</v>
+        <v>-0.15211941</v>
       </c>
       <c r="DZ19" s="14" t="n">
-        <v>0.07964357</v>
+        <v>-0.07964357</v>
       </c>
       <c r="EA19" s="14" t="n">
-        <v>0.03291973</v>
+        <v>0.23304583</v>
       </c>
       <c r="EB19" s="14" t="n">
         <v>0.10875351</v>
@@ -13731,7 +13731,7 @@
         <v>-0.08028526</v>
       </c>
       <c r="EE19" s="14" t="n">
-        <v>0.02281589</v>
+        <v>-0.02281589</v>
       </c>
     </row>
     <row r="20" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -13742,61 +13742,61 @@
         <v>5</v>
       </c>
       <c r="C20" s="14" t="n">
-        <v>0.22258639</v>
+        <v>0.01124133</v>
       </c>
       <c r="D20" s="14" t="n">
-        <v>0.22258639</v>
+        <v>0.38202502</v>
       </c>
       <c r="E20" s="14" t="n">
-        <v>0.14612491</v>
+        <v>-0.14612491</v>
       </c>
       <c r="F20" s="14" t="n">
-        <v>-0.20553126</v>
+        <v>0.20553126</v>
       </c>
       <c r="G20" s="14" t="n">
         <v>-0.11718314</v>
       </c>
       <c r="H20" s="14" t="n">
-        <v>-0.01158303</v>
+        <v>0.01158303</v>
       </c>
       <c r="I20" s="14" t="n">
-        <v>-0.18586318</v>
+        <v>-0.15814956</v>
       </c>
       <c r="J20" s="14" t="n">
-        <v>-0.14728813</v>
+        <v>0.03447126</v>
       </c>
       <c r="K20" s="14" t="n">
-        <v>-0.2147245</v>
+        <v>0.2147245</v>
       </c>
       <c r="L20" s="14" t="n">
         <v>-0.008999770000000001</v>
       </c>
       <c r="M20" s="14" t="n">
-        <v>0.07771823</v>
+        <v>-0.07771823</v>
       </c>
       <c r="N20" s="14" t="n">
         <v>0.16814359</v>
       </c>
       <c r="O20" s="14" t="n">
-        <v>-0.04986489</v>
+        <v>0.09910148000000001</v>
       </c>
       <c r="P20" s="14" t="n">
-        <v>-0.04313868</v>
+        <v>0.04313868</v>
       </c>
       <c r="Q20" s="14" t="n">
-        <v>0.10704532</v>
+        <v>0.21672574</v>
       </c>
       <c r="R20" s="14" t="n">
-        <v>0.19094247</v>
+        <v>0.10925306</v>
       </c>
       <c r="S20" s="14" t="n">
-        <v>-0.08256260999999999</v>
+        <v>0.08256260999999999</v>
       </c>
       <c r="T20" s="14" t="n">
-        <v>-0.08546545999999999</v>
+        <v>-0.01566291</v>
       </c>
       <c r="U20" s="14" t="n">
-        <v>-0.01372036</v>
+        <v>0.12232904</v>
       </c>
       <c r="V20" s="14" t="n">
         <v>0.1035176</v>
@@ -13805,31 +13805,31 @@
         <v>0.22644366</v>
       </c>
       <c r="X20" s="14" t="n">
-        <v>0.21038641</v>
+        <v>0.15004231</v>
       </c>
       <c r="Y20" s="14" t="n">
         <v>0.12896504</v>
       </c>
       <c r="Z20" s="14" t="n">
-        <v>0.07402717</v>
+        <v>0.10561696</v>
       </c>
       <c r="AA20" s="14" t="n">
-        <v>-0.13048337</v>
+        <v>-0.02159455</v>
       </c>
       <c r="AB20" s="14" t="n">
-        <v>-0.03289855</v>
+        <v>-0.08475984</v>
       </c>
       <c r="AC20" s="14" t="n">
         <v>0.04724826</v>
       </c>
       <c r="AD20" s="14" t="n">
-        <v>0.0269873</v>
+        <v>-0.0269873</v>
       </c>
       <c r="AE20" s="14" t="n">
-        <v>-0.16122121</v>
+        <v>0.16122121</v>
       </c>
       <c r="AF20" s="14" t="n">
-        <v>0.22349782</v>
+        <v>-0.22349782</v>
       </c>
       <c r="AG20" s="14" t="n">
         <v>-0.03216325</v>
@@ -13838,124 +13838,124 @@
         <v>0.21664245</v>
       </c>
       <c r="AI20" s="14" t="n">
-        <v>0.08327935</v>
+        <v>-0.08327935</v>
       </c>
       <c r="AJ20" s="14" t="n">
         <v>-0.06072568</v>
       </c>
       <c r="AK20" s="14" t="n">
-        <v>0.008248520000000001</v>
+        <v>-0.008248520000000001</v>
       </c>
       <c r="AL20" s="14" t="n">
-        <v>0.02078027</v>
+        <v>0.07289345</v>
       </c>
       <c r="AM20" s="14" t="n">
-        <v>0.06752986</v>
+        <v>0.03309598</v>
       </c>
       <c r="AN20" s="14" t="n">
-        <v>-0.03444452</v>
+        <v>0.0645854</v>
       </c>
       <c r="AO20" s="14" t="n">
-        <v>-0.04910829</v>
+        <v>0.04910829</v>
       </c>
       <c r="AP20" s="14" t="n">
-        <v>-0.13972026</v>
+        <v>-0.01260452</v>
       </c>
       <c r="AQ20" s="14" t="n">
-        <v>-0.03330823</v>
+        <v>-0.02745249</v>
       </c>
       <c r="AR20" s="14" t="n">
-        <v>0.029739</v>
+        <v>-0.01328927</v>
       </c>
       <c r="AS20" s="14" t="n">
-        <v>0.04229172</v>
+        <v>0.11209581</v>
       </c>
       <c r="AT20" s="14" t="n">
-        <v>-0.23912375</v>
+        <v>0.23912375</v>
       </c>
       <c r="AU20" s="14" t="n">
         <v>0.14307264</v>
       </c>
       <c r="AV20" s="14" t="n">
-        <v>0.03224661</v>
+        <v>0.07147319000000001</v>
       </c>
       <c r="AW20" s="14" t="n">
-        <v>-0.22499784</v>
+        <v>-0.00686527</v>
       </c>
       <c r="AX20" s="14" t="n">
-        <v>0.20433922</v>
+        <v>-0.20433922</v>
       </c>
       <c r="AY20" s="14" t="n">
         <v>0.08205764</v>
       </c>
       <c r="AZ20" s="14" t="n">
-        <v>0.15627401</v>
+        <v>-0.15627401</v>
       </c>
       <c r="BA20" s="14" t="n">
-        <v>0.10207757</v>
+        <v>-0.03679886</v>
       </c>
       <c r="BB20" s="14" t="n">
-        <v>0.37844679</v>
+        <v>0.23121363</v>
       </c>
       <c r="BC20" s="14" t="n">
-        <v>-0.24014067</v>
+        <v>0.07060557000000001</v>
       </c>
       <c r="BD20" s="14" t="n">
-        <v>-0.0113083</v>
+        <v>-0.05342981</v>
       </c>
       <c r="BE20" s="14" t="n">
-        <v>0.09827837</v>
+        <v>0.0059468</v>
       </c>
       <c r="BF20" s="14" t="n">
         <v>0.13797126</v>
       </c>
       <c r="BG20" s="14" t="n">
-        <v>0.09406206</v>
+        <v>0.00378214</v>
       </c>
       <c r="BH20" s="14" t="n">
-        <v>0.1500573</v>
+        <v>-0.07160645</v>
       </c>
       <c r="BI20" s="14" t="n">
-        <v>-0.11425567</v>
+        <v>0.11425567</v>
       </c>
       <c r="BJ20" s="14" t="n">
         <v>0.04913978</v>
       </c>
       <c r="BK20" s="14" t="n">
-        <v>0.10259828</v>
+        <v>-0.10259828</v>
       </c>
       <c r="BL20" s="14" t="n">
         <v>0.06985943999999999</v>
       </c>
       <c r="BM20" s="14" t="n">
-        <v>-0.04746855</v>
+        <v>0.04746855</v>
       </c>
       <c r="BN20" s="14" t="n">
         <v>0.08566463000000001</v>
       </c>
       <c r="BO20" s="14" t="n">
-        <v>-0.13121844</v>
+        <v>0.03846172</v>
       </c>
       <c r="BP20" s="14" t="n">
-        <v>0.01525946</v>
+        <v>0.00728225</v>
       </c>
       <c r="BQ20" s="14" t="n">
         <v>-0.10860027</v>
       </c>
       <c r="BR20" s="14" t="n">
-        <v>-0.18112708</v>
+        <v>0.01338515</v>
       </c>
       <c r="BS20" s="14" t="n">
-        <v>-0.0325362</v>
+        <v>0.0325362</v>
       </c>
       <c r="BT20" s="14" t="n">
-        <v>0.09653050000000001</v>
+        <v>-0.09653050000000001</v>
       </c>
       <c r="BU20" s="14" t="n">
-        <v>0.0406836</v>
+        <v>0.09875494999999999</v>
       </c>
       <c r="BV20" s="14" t="n">
-        <v>-0.08154343999999999</v>
+        <v>-0.13370992</v>
       </c>
       <c r="BW20" s="14" t="n">
         <v>0.35182955</v>
@@ -13964,31 +13964,31 @@
         <v>-0.05798802</v>
       </c>
       <c r="BY20" s="14" t="n">
-        <v>0.00463936</v>
+        <v>-0.04318348</v>
       </c>
       <c r="BZ20" s="14" t="n">
-        <v>-0.00572006</v>
+        <v>-0.0902714</v>
       </c>
       <c r="CA20" s="14" t="n">
-        <v>0.02424853</v>
+        <v>-0.0113335</v>
       </c>
       <c r="CB20" s="14" t="n">
-        <v>-0.00010776</v>
+        <v>-0.12649505</v>
       </c>
       <c r="CC20" s="14" t="n">
-        <v>-0.10142938</v>
+        <v>0.01291515</v>
       </c>
       <c r="CD20" s="14" t="n">
-        <v>0.18885951</v>
+        <v>-0.18885951</v>
       </c>
       <c r="CE20" s="14" t="n">
-        <v>0.11376847</v>
+        <v>-0.2439638</v>
       </c>
       <c r="CF20" s="14" t="n">
         <v>-0.10578489</v>
       </c>
       <c r="CG20" s="14" t="n">
-        <v>0.07597023999999999</v>
+        <v>-0.07597023999999999</v>
       </c>
       <c r="CH20" s="14" t="n">
         <v>0.02219523</v>
@@ -13997,64 +13997,64 @@
         <v>0.0852082</v>
       </c>
       <c r="CJ20" s="14" t="n">
-        <v>0.04150998</v>
+        <v>0.12344032</v>
       </c>
       <c r="CK20" s="14" t="n">
-        <v>-0.08058962</v>
+        <v>0.08058962</v>
       </c>
       <c r="CL20" s="14" t="n">
         <v>-0.14931315</v>
       </c>
       <c r="CM20" s="14" t="n">
-        <v>0.07945473</v>
+        <v>0.18905117</v>
       </c>
       <c r="CN20" s="14" t="n">
-        <v>-0.20489183</v>
+        <v>-0.02215941</v>
       </c>
       <c r="CO20" s="14" t="n">
-        <v>0.2285182</v>
+        <v>-0.2285182</v>
       </c>
       <c r="CP20" s="14" t="n">
-        <v>-0.15666076</v>
+        <v>-0.19203121</v>
       </c>
       <c r="CQ20" s="14" t="n">
         <v>0.02311805</v>
       </c>
       <c r="CR20" s="14" t="n">
-        <v>0.19548611</v>
+        <v>-0.19548611</v>
       </c>
       <c r="CS20" s="14" t="n">
-        <v>-0.0971371</v>
+        <v>0.02229304</v>
       </c>
       <c r="CT20" s="14" t="n">
-        <v>0.01807671</v>
+        <v>-0.01807671</v>
       </c>
       <c r="CU20" s="14" t="n">
         <v>0.14672801</v>
       </c>
       <c r="CV20" s="14" t="n">
-        <v>-0.11921413</v>
+        <v>-0.09700395000000001</v>
       </c>
       <c r="CW20" s="14" t="n">
-        <v>-0.06790371000000001</v>
+        <v>0.06790371000000001</v>
       </c>
       <c r="CX20" s="14" t="n">
-        <v>0.14515419</v>
+        <v>-0.14515419</v>
       </c>
       <c r="CY20" s="14" t="n">
         <v>-0.10096666</v>
       </c>
       <c r="CZ20" s="14" t="n">
-        <v>0.01306263</v>
+        <v>-0.01306263</v>
       </c>
       <c r="DA20" s="14" t="n">
-        <v>-0.22461946</v>
+        <v>-0.04747189</v>
       </c>
       <c r="DB20" s="14" t="n">
-        <v>-0.38248992</v>
+        <v>0.05690271</v>
       </c>
       <c r="DC20" s="14" t="n">
-        <v>0.03733231</v>
+        <v>0.03315031</v>
       </c>
       <c r="DD20" s="14" t="n">
         <v>0.00359718</v>
@@ -14069,16 +14069,16 @@
         <v>0.12407331</v>
       </c>
       <c r="DH20" s="14" t="n">
-        <v>-0.04805841</v>
+        <v>-0.27829885</v>
       </c>
       <c r="DI20" s="14" t="n">
-        <v>-0.07424834</v>
+        <v>0.07424834</v>
       </c>
       <c r="DJ20" s="14" t="n">
         <v>-0.13655809</v>
       </c>
       <c r="DK20" s="14" t="n">
-        <v>0.02076566</v>
+        <v>-0.02076566</v>
       </c>
       <c r="DL20" s="14" t="n">
         <v>0.01946537</v>
@@ -14087,46 +14087,46 @@
         <v>0.04286477</v>
       </c>
       <c r="DN20" s="14" t="n">
-        <v>-0.18323473</v>
+        <v>0.18323473</v>
       </c>
       <c r="DO20" s="14" t="n">
         <v>0.04982085</v>
       </c>
       <c r="DP20" s="14" t="n">
-        <v>0.20015543</v>
+        <v>0.009830530000000001</v>
       </c>
       <c r="DQ20" s="14" t="n">
         <v>-0.05746018</v>
       </c>
       <c r="DR20" s="14" t="n">
-        <v>-0.08820888</v>
+        <v>-0.05555799</v>
       </c>
       <c r="DS20" s="14" t="n">
         <v>-0.06979276</v>
       </c>
       <c r="DT20" s="14" t="n">
-        <v>0.02968534</v>
+        <v>-0.02968534</v>
       </c>
       <c r="DU20" s="14" t="n">
         <v>-0.27264433</v>
       </c>
       <c r="DV20" s="14" t="n">
-        <v>0.10204218</v>
+        <v>-0.10204218</v>
       </c>
       <c r="DW20" s="14" t="n">
-        <v>-0.06228539</v>
+        <v>0.0690602</v>
       </c>
       <c r="DX20" s="14" t="n">
         <v>0.09785122</v>
       </c>
       <c r="DY20" s="14" t="n">
-        <v>0.18740183</v>
+        <v>-0.18740183</v>
       </c>
       <c r="DZ20" s="14" t="n">
-        <v>-0.01811513</v>
+        <v>0.01811513</v>
       </c>
       <c r="EA20" s="14" t="n">
-        <v>-0.0059256</v>
+        <v>0.29368998</v>
       </c>
       <c r="EB20" s="14" t="n">
         <v>0.08240714</v>
@@ -14138,7 +14138,7 @@
         <v>-0.05782756</v>
       </c>
       <c r="EE20" s="14" t="n">
-        <v>0.02001759</v>
+        <v>-0.02001759</v>
       </c>
     </row>
     <row r="21" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -14149,61 +14149,61 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="n">
-        <v>0.32500828</v>
+        <v>0.01038483</v>
       </c>
       <c r="D21" s="14" t="n">
-        <v>0.32500828</v>
+        <v>0.12638792</v>
       </c>
       <c r="E21" s="14" t="n">
-        <v>0.04371755</v>
+        <v>-0.04371755</v>
       </c>
       <c r="F21" s="14" t="n">
-        <v>-0.18403858</v>
+        <v>0.18403858</v>
       </c>
       <c r="G21" s="14" t="n">
         <v>-0.14384215</v>
       </c>
       <c r="H21" s="14" t="n">
-        <v>0.03784408</v>
+        <v>-0.03784408</v>
       </c>
       <c r="I21" s="14" t="n">
-        <v>-0.23932306</v>
+        <v>-0.14725561</v>
       </c>
       <c r="J21" s="14" t="n">
-        <v>-0.09056664</v>
+        <v>0.06043533</v>
       </c>
       <c r="K21" s="14" t="n">
-        <v>-0.20688003</v>
+        <v>0.20688003</v>
       </c>
       <c r="L21" s="14" t="n">
         <v>-0.05722617</v>
       </c>
       <c r="M21" s="14" t="n">
-        <v>0.09968459</v>
+        <v>-0.09968459</v>
       </c>
       <c r="N21" s="14" t="n">
         <v>0.13905068</v>
       </c>
       <c r="O21" s="14" t="n">
-        <v>-0.03435199</v>
+        <v>0.11215927</v>
       </c>
       <c r="P21" s="14" t="n">
-        <v>-0.03989172</v>
+        <v>0.03989172</v>
       </c>
       <c r="Q21" s="14" t="n">
-        <v>0.08119537</v>
+        <v>0.25731007</v>
       </c>
       <c r="R21" s="14" t="n">
-        <v>0.14269209</v>
+        <v>0.10583571</v>
       </c>
       <c r="S21" s="14" t="n">
-        <v>-0.20915948</v>
+        <v>0.20915948</v>
       </c>
       <c r="T21" s="14" t="n">
-        <v>-0.09846167</v>
+        <v>0.01404036</v>
       </c>
       <c r="U21" s="14" t="n">
-        <v>0.08021573999999999</v>
+        <v>0.08627841999999999</v>
       </c>
       <c r="V21" s="14" t="n">
         <v>0.10537077</v>
@@ -14212,31 +14212,31 @@
         <v>0.32292055</v>
       </c>
       <c r="X21" s="14" t="n">
-        <v>0.21363094</v>
+        <v>0.20780127</v>
       </c>
       <c r="Y21" s="14" t="n">
         <v>0.09272922</v>
       </c>
       <c r="Z21" s="14" t="n">
-        <v>0.1093802</v>
+        <v>0.11420399</v>
       </c>
       <c r="AA21" s="14" t="n">
-        <v>-0.11063591</v>
+        <v>0.01949104</v>
       </c>
       <c r="AB21" s="14" t="n">
-        <v>-0.02195594</v>
+        <v>-0.12814324</v>
       </c>
       <c r="AC21" s="14" t="n">
         <v>0.01882774</v>
       </c>
       <c r="AD21" s="14" t="n">
-        <v>-0.02593328</v>
+        <v>0.02593328</v>
       </c>
       <c r="AE21" s="14" t="n">
-        <v>-0.12810498</v>
+        <v>0.12810498</v>
       </c>
       <c r="AF21" s="14" t="n">
-        <v>0.29514426</v>
+        <v>-0.29514426</v>
       </c>
       <c r="AG21" s="14" t="n">
         <v>-0.01104657</v>
@@ -14245,124 +14245,124 @@
         <v>0.24035126</v>
       </c>
       <c r="AI21" s="14" t="n">
-        <v>0.06772968</v>
+        <v>-0.06772968</v>
       </c>
       <c r="AJ21" s="14" t="n">
         <v>-0.07894116</v>
       </c>
       <c r="AK21" s="14" t="n">
-        <v>-0.01831837</v>
+        <v>0.01831837</v>
       </c>
       <c r="AL21" s="14" t="n">
-        <v>0.03739149</v>
+        <v>0.06537982000000001</v>
       </c>
       <c r="AM21" s="14" t="n">
-        <v>-0.06312572</v>
+        <v>0.06485697999999999</v>
       </c>
       <c r="AN21" s="14" t="n">
-        <v>-0.02178903</v>
+        <v>0.11195606</v>
       </c>
       <c r="AO21" s="14" t="n">
-        <v>-0.08556777</v>
+        <v>0.08556777</v>
       </c>
       <c r="AP21" s="14" t="n">
-        <v>-0.18810121</v>
+        <v>-0.01894238</v>
       </c>
       <c r="AQ21" s="14" t="n">
-        <v>-0.03703619</v>
+        <v>-0.02459114</v>
       </c>
       <c r="AR21" s="14" t="n">
-        <v>0.0341979</v>
+        <v>0.04798814</v>
       </c>
       <c r="AS21" s="14" t="n">
-        <v>0.04540668</v>
+        <v>0.06445587</v>
       </c>
       <c r="AT21" s="14" t="n">
-        <v>-0.26483826</v>
+        <v>0.26483826</v>
       </c>
       <c r="AU21" s="14" t="n">
         <v>0.06345533</v>
       </c>
       <c r="AV21" s="14" t="n">
-        <v>0.06871391</v>
+        <v>0.05089757</v>
       </c>
       <c r="AW21" s="14" t="n">
-        <v>-0.26325492</v>
+        <v>-0.009791029999999999</v>
       </c>
       <c r="AX21" s="14" t="n">
-        <v>0.2177183</v>
+        <v>-0.2177183</v>
       </c>
       <c r="AY21" s="14" t="n">
         <v>0.06572229</v>
       </c>
       <c r="AZ21" s="14" t="n">
-        <v>0.09305939000000001</v>
+        <v>-0.09305939000000001</v>
       </c>
       <c r="BA21" s="14" t="n">
-        <v>0.01929321</v>
+        <v>-0.07103218</v>
       </c>
       <c r="BB21" s="14" t="n">
-        <v>0.40443143</v>
+        <v>0.29451264</v>
       </c>
       <c r="BC21" s="14" t="n">
-        <v>-0.16446053</v>
+        <v>0.03832115</v>
       </c>
       <c r="BD21" s="14" t="n">
-        <v>-0.03028798</v>
+        <v>-0.02175086</v>
       </c>
       <c r="BE21" s="14" t="n">
-        <v>0.13674536</v>
+        <v>-0.00635053</v>
       </c>
       <c r="BF21" s="14" t="n">
         <v>0.19911722</v>
       </c>
       <c r="BG21" s="14" t="n">
-        <v>0.09228557</v>
+        <v>0.01324431</v>
       </c>
       <c r="BH21" s="14" t="n">
-        <v>0.10684211</v>
+        <v>-0.0480537</v>
       </c>
       <c r="BI21" s="14" t="n">
-        <v>-0.15387465</v>
+        <v>0.15387465</v>
       </c>
       <c r="BJ21" s="14" t="n">
         <v>0.03198251</v>
       </c>
       <c r="BK21" s="14" t="n">
-        <v>0.08297316</v>
+        <v>-0.08297316</v>
       </c>
       <c r="BL21" s="14" t="n">
         <v>0.08734079</v>
       </c>
       <c r="BM21" s="14" t="n">
-        <v>-0.04079529</v>
+        <v>0.04079529</v>
       </c>
       <c r="BN21" s="14" t="n">
         <v>0.1882475</v>
       </c>
       <c r="BO21" s="14" t="n">
-        <v>-0.17006877</v>
+        <v>0.06385724</v>
       </c>
       <c r="BP21" s="14" t="n">
-        <v>-0.03027136</v>
+        <v>-0.0041808</v>
       </c>
       <c r="BQ21" s="14" t="n">
         <v>-0.07289074</v>
       </c>
       <c r="BR21" s="14" t="n">
-        <v>-0.14206146</v>
+        <v>0.01880519</v>
       </c>
       <c r="BS21" s="14" t="n">
-        <v>-0.06574182000000001</v>
+        <v>0.06574182000000001</v>
       </c>
       <c r="BT21" s="14" t="n">
-        <v>0.0929522</v>
+        <v>-0.0929522</v>
       </c>
       <c r="BU21" s="14" t="n">
-        <v>-0.01299661</v>
+        <v>0.13549646</v>
       </c>
       <c r="BV21" s="14" t="n">
-        <v>-0.04433998</v>
+        <v>-0.01924049</v>
       </c>
       <c r="BW21" s="14" t="n">
         <v>0.18446067</v>
@@ -14371,31 +14371,31 @@
         <v>-0.08837933000000001</v>
       </c>
       <c r="BY21" s="14" t="n">
-        <v>0.05566629</v>
+        <v>-0.01491638</v>
       </c>
       <c r="BZ21" s="14" t="n">
-        <v>0.0514982</v>
+        <v>-0.04766293</v>
       </c>
       <c r="CA21" s="14" t="n">
-        <v>0.03807894</v>
+        <v>-0.06303215</v>
       </c>
       <c r="CB21" s="14" t="n">
-        <v>0.07346610000000001</v>
+        <v>-0.20786985</v>
       </c>
       <c r="CC21" s="14" t="n">
-        <v>-0.05330758</v>
+        <v>-0.00801895</v>
       </c>
       <c r="CD21" s="14" t="n">
-        <v>0.15078839</v>
+        <v>-0.15078839</v>
       </c>
       <c r="CE21" s="14" t="n">
-        <v>0.14537496</v>
+        <v>-0.39507594</v>
       </c>
       <c r="CF21" s="14" t="n">
         <v>-0.11452616</v>
       </c>
       <c r="CG21" s="14" t="n">
-        <v>0.08508534</v>
+        <v>-0.08508534</v>
       </c>
       <c r="CH21" s="14" t="n">
         <v>0.15662644</v>
@@ -14404,64 +14404,64 @@
         <v>0.07318273</v>
       </c>
       <c r="CJ21" s="14" t="n">
-        <v>0.05514085</v>
+        <v>0.08562776</v>
       </c>
       <c r="CK21" s="14" t="n">
-        <v>-0.06715963</v>
+        <v>0.06715963</v>
       </c>
       <c r="CL21" s="14" t="n">
         <v>-0.18743312</v>
       </c>
       <c r="CM21" s="14" t="n">
-        <v>0.06299433</v>
+        <v>0.22550299</v>
       </c>
       <c r="CN21" s="14" t="n">
-        <v>-0.08085151</v>
+        <v>-0.03053889</v>
       </c>
       <c r="CO21" s="14" t="n">
-        <v>0.23779198</v>
+        <v>-0.23779198</v>
       </c>
       <c r="CP21" s="14" t="n">
-        <v>-0.09830730999999999</v>
+        <v>-0.22270006</v>
       </c>
       <c r="CQ21" s="14" t="n">
         <v>0.02291219</v>
       </c>
       <c r="CR21" s="14" t="n">
-        <v>0.23905997</v>
+        <v>-0.23905997</v>
       </c>
       <c r="CS21" s="14" t="n">
-        <v>-0.06126904</v>
+        <v>0.03090775</v>
       </c>
       <c r="CT21" s="14" t="n">
-        <v>0.08607256000000001</v>
+        <v>-0.08607256000000001</v>
       </c>
       <c r="CU21" s="14" t="n">
         <v>0.15891662</v>
       </c>
       <c r="CV21" s="14" t="n">
-        <v>-0.15433184</v>
+        <v>-0.13162753</v>
       </c>
       <c r="CW21" s="14" t="n">
-        <v>-0.03834552</v>
+        <v>0.03834552</v>
       </c>
       <c r="CX21" s="14" t="n">
-        <v>0.15696885</v>
+        <v>-0.15696885</v>
       </c>
       <c r="CY21" s="14" t="n">
         <v>-0.15245231</v>
       </c>
       <c r="CZ21" s="14" t="n">
-        <v>0.01384721</v>
+        <v>-0.01384721</v>
       </c>
       <c r="DA21" s="14" t="n">
-        <v>-0.27617087</v>
+        <v>0.00119226</v>
       </c>
       <c r="DB21" s="14" t="n">
-        <v>-0.47235074</v>
+        <v>0.03446341</v>
       </c>
       <c r="DC21" s="14" t="n">
-        <v>0.1539048</v>
+        <v>0.02112899</v>
       </c>
       <c r="DD21" s="14" t="n">
         <v>0.00281879</v>
@@ -14476,16 +14476,16 @@
         <v>0.14818493</v>
       </c>
       <c r="DH21" s="14" t="n">
-        <v>0.01035557</v>
+        <v>-0.08143619000000001</v>
       </c>
       <c r="DI21" s="14" t="n">
-        <v>-0.0901492</v>
+        <v>0.0901492</v>
       </c>
       <c r="DJ21" s="14" t="n">
         <v>-0.15660572</v>
       </c>
       <c r="DK21" s="14" t="n">
-        <v>0.02096606</v>
+        <v>-0.02096606</v>
       </c>
       <c r="DL21" s="14" t="n">
         <v>0.01273699</v>
@@ -14494,46 +14494,46 @@
         <v>-0.00425456</v>
       </c>
       <c r="DN21" s="14" t="n">
-        <v>-0.22029564</v>
+        <v>0.22029564</v>
       </c>
       <c r="DO21" s="14" t="n">
         <v>-0.01855881</v>
       </c>
       <c r="DP21" s="14" t="n">
-        <v>0.22901989</v>
+        <v>0.02426616</v>
       </c>
       <c r="DQ21" s="14" t="n">
         <v>-0.0704227</v>
       </c>
       <c r="DR21" s="14" t="n">
-        <v>-0.11639751</v>
+        <v>-0.05355699</v>
       </c>
       <c r="DS21" s="14" t="n">
         <v>-0.08460543</v>
       </c>
       <c r="DT21" s="14" t="n">
-        <v>0.00521519</v>
+        <v>-0.00521519</v>
       </c>
       <c r="DU21" s="14" t="n">
         <v>-0.33980664</v>
       </c>
       <c r="DV21" s="14" t="n">
-        <v>0.15489825</v>
+        <v>-0.15489825</v>
       </c>
       <c r="DW21" s="14" t="n">
-        <v>-0.12266433</v>
+        <v>0.15158288</v>
       </c>
       <c r="DX21" s="14" t="n">
         <v>0.11682889</v>
       </c>
       <c r="DY21" s="14" t="n">
-        <v>0.22566188</v>
+        <v>-0.22566188</v>
       </c>
       <c r="DZ21" s="14" t="n">
-        <v>-0.17989102</v>
+        <v>0.17989102</v>
       </c>
       <c r="EA21" s="14" t="n">
-        <v>-0.03506646</v>
+        <v>0.26605683</v>
       </c>
       <c r="EB21" s="14" t="n">
         <v>0.02630219</v>
@@ -14545,7 +14545,7 @@
         <v>0.1291552</v>
       </c>
       <c r="EE21" s="14" t="n">
-        <v>-0.01095595</v>
+        <v>0.01095595</v>
       </c>
     </row>
     <row r="22" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -14556,61 +14556,61 @@
         <v>3</v>
       </c>
       <c r="C22" s="14" t="n">
-        <v>0.41742192</v>
+        <v>0.02592233</v>
       </c>
       <c r="D22" s="14" t="n">
-        <v>0.41742192</v>
+        <v>0.14242785</v>
       </c>
       <c r="E22" s="14" t="n">
-        <v>0.02223041</v>
+        <v>-0.02223041</v>
       </c>
       <c r="F22" s="14" t="n">
-        <v>-0.06783106</v>
+        <v>0.06783106</v>
       </c>
       <c r="G22" s="14" t="n">
         <v>-0.10388436</v>
       </c>
       <c r="H22" s="14" t="n">
-        <v>0.22980554</v>
+        <v>-0.22980554</v>
       </c>
       <c r="I22" s="14" t="n">
-        <v>-0.2544329</v>
+        <v>-0.12349317</v>
       </c>
       <c r="J22" s="14" t="n">
-        <v>-0.11837828</v>
+        <v>0.05259859</v>
       </c>
       <c r="K22" s="14" t="n">
-        <v>-0.24536591</v>
+        <v>0.24536591</v>
       </c>
       <c r="L22" s="14" t="n">
         <v>-0.10748717</v>
       </c>
       <c r="M22" s="14" t="n">
-        <v>0.07410006</v>
+        <v>-0.07410006</v>
       </c>
       <c r="N22" s="14" t="n">
         <v>0.09803086</v>
       </c>
       <c r="O22" s="14" t="n">
-        <v>0.00671588</v>
+        <v>0.14348035</v>
       </c>
       <c r="P22" s="14" t="n">
-        <v>-0.04285849</v>
+        <v>0.04285849</v>
       </c>
       <c r="Q22" s="14" t="n">
-        <v>0.08928252</v>
+        <v>0.27677689</v>
       </c>
       <c r="R22" s="14" t="n">
-        <v>0.18067973</v>
+        <v>0.03662843</v>
       </c>
       <c r="S22" s="14" t="n">
-        <v>-0.24705663</v>
+        <v>0.24705663</v>
       </c>
       <c r="T22" s="14" t="n">
-        <v>-0.12881242</v>
+        <v>0.0716519</v>
       </c>
       <c r="U22" s="14" t="n">
-        <v>0.15202918</v>
+        <v>0.11059002</v>
       </c>
       <c r="V22" s="14" t="n">
         <v>0.05702413</v>
@@ -14619,31 +14619,31 @@
         <v>0.34619349</v>
       </c>
       <c r="X22" s="14" t="n">
-        <v>0.22178676</v>
+        <v>0.25720235</v>
       </c>
       <c r="Y22" s="14" t="n">
         <v>0.04793833</v>
       </c>
       <c r="Z22" s="14" t="n">
-        <v>0.15015011</v>
+        <v>0.07554827</v>
       </c>
       <c r="AA22" s="14" t="n">
-        <v>-0.08252443</v>
+        <v>0.00704802</v>
       </c>
       <c r="AB22" s="14" t="n">
-        <v>0.00386523</v>
+        <v>-0.13443621</v>
       </c>
       <c r="AC22" s="14" t="n">
         <v>0.08577646</v>
       </c>
       <c r="AD22" s="14" t="n">
-        <v>-0.01859375</v>
+        <v>0.01859375</v>
       </c>
       <c r="AE22" s="14" t="n">
-        <v>-0.13082384</v>
+        <v>0.13082384</v>
       </c>
       <c r="AF22" s="14" t="n">
-        <v>0.42991677</v>
+        <v>-0.42991677</v>
       </c>
       <c r="AG22" s="14" t="n">
         <v>-0.0108121</v>
@@ -14652,124 +14652,124 @@
         <v>0.24762225</v>
       </c>
       <c r="AI22" s="14" t="n">
-        <v>0.06739290000000001</v>
+        <v>-0.06739290000000001</v>
       </c>
       <c r="AJ22" s="14" t="n">
         <v>-0.04586613</v>
       </c>
       <c r="AK22" s="14" t="n">
-        <v>-0.07857577</v>
+        <v>0.07857577</v>
       </c>
       <c r="AL22" s="14" t="n">
-        <v>0.00114473</v>
+        <v>0.04034097</v>
       </c>
       <c r="AM22" s="14" t="n">
-        <v>-0.05637375</v>
+        <v>0.08408889999999999</v>
       </c>
       <c r="AN22" s="14" t="n">
-        <v>-0.02786057</v>
+        <v>0.11113281</v>
       </c>
       <c r="AO22" s="14" t="n">
-        <v>-0.15815288</v>
+        <v>0.15815288</v>
       </c>
       <c r="AP22" s="14" t="n">
-        <v>-0.25139506</v>
+        <v>-0.02049273</v>
       </c>
       <c r="AQ22" s="14" t="n">
-        <v>0.05512672</v>
+        <v>-0.01449598</v>
       </c>
       <c r="AR22" s="14" t="n">
-        <v>0.1081837</v>
+        <v>0.06792449</v>
       </c>
       <c r="AS22" s="14" t="n">
-        <v>-0.0738437</v>
+        <v>0.08281044</v>
       </c>
       <c r="AT22" s="14" t="n">
-        <v>-0.01772837</v>
+        <v>0.01772837</v>
       </c>
       <c r="AU22" s="14" t="n">
         <v>0.1099146</v>
       </c>
       <c r="AV22" s="14" t="n">
-        <v>0.08975398</v>
+        <v>0.05964614</v>
       </c>
       <c r="AW22" s="14" t="n">
-        <v>-0.37079928</v>
+        <v>0.03014939</v>
       </c>
       <c r="AX22" s="14" t="n">
-        <v>-0.009875190000000001</v>
+        <v>0.009875190000000001</v>
       </c>
       <c r="AY22" s="14" t="n">
         <v>0.09845627999999999</v>
       </c>
       <c r="AZ22" s="14" t="n">
-        <v>0.2274855</v>
+        <v>-0.2274855</v>
       </c>
       <c r="BA22" s="14" t="n">
-        <v>0.04917694</v>
+        <v>-0.04559843</v>
       </c>
       <c r="BB22" s="14" t="n">
-        <v>0.51826405</v>
+        <v>0.36955058</v>
       </c>
       <c r="BC22" s="14" t="n">
-        <v>-0.19562604</v>
+        <v>-0.13083694</v>
       </c>
       <c r="BD22" s="14" t="n">
-        <v>-0.05833635</v>
+        <v>0.01294739</v>
       </c>
       <c r="BE22" s="14" t="n">
-        <v>0.12806788</v>
+        <v>-0.02221618</v>
       </c>
       <c r="BF22" s="14" t="n">
         <v>0.19910245</v>
       </c>
       <c r="BG22" s="14" t="n">
-        <v>-0.04123147</v>
+        <v>0.04627951</v>
       </c>
       <c r="BH22" s="14" t="n">
-        <v>0.12770701</v>
+        <v>-0.12796054</v>
       </c>
       <c r="BI22" s="14" t="n">
-        <v>-0.08731806</v>
+        <v>0.08731806</v>
       </c>
       <c r="BJ22" s="14" t="n">
         <v>-0.01023398</v>
       </c>
       <c r="BK22" s="14" t="n">
-        <v>0.02085476</v>
+        <v>-0.02085476</v>
       </c>
       <c r="BL22" s="14" t="n">
         <v>0.13947139</v>
       </c>
       <c r="BM22" s="14" t="n">
-        <v>-0.00243048</v>
+        <v>0.00243048</v>
       </c>
       <c r="BN22" s="14" t="n">
         <v>-0.02851881</v>
       </c>
       <c r="BO22" s="14" t="n">
-        <v>-0.0337511</v>
+        <v>0.05048443</v>
       </c>
       <c r="BP22" s="14" t="n">
-        <v>0.00372744</v>
+        <v>-0.000541</v>
       </c>
       <c r="BQ22" s="14" t="n">
         <v>-0.09122819</v>
       </c>
       <c r="BR22" s="14" t="n">
-        <v>-0.10656678</v>
+        <v>0.02081361</v>
       </c>
       <c r="BS22" s="14" t="n">
-        <v>-0.09704759</v>
+        <v>0.09704759</v>
       </c>
       <c r="BT22" s="14" t="n">
-        <v>-0.06714322</v>
+        <v>0.06714322</v>
       </c>
       <c r="BU22" s="14" t="n">
-        <v>-0.04036847</v>
+        <v>0.21294877</v>
       </c>
       <c r="BV22" s="14" t="n">
-        <v>-0.04860353</v>
+        <v>-0.00068176</v>
       </c>
       <c r="BW22" s="14" t="n">
         <v>0.13217179</v>
@@ -14778,31 +14778,31 @@
         <v>-0.15293737</v>
       </c>
       <c r="BY22" s="14" t="n">
-        <v>0.05559705</v>
+        <v>0.03235288</v>
       </c>
       <c r="BZ22" s="14" t="n">
-        <v>0.05632235</v>
+        <v>-0.04725774</v>
       </c>
       <c r="CA22" s="14" t="n">
-        <v>0.06340676000000001</v>
+        <v>-0.02749008</v>
       </c>
       <c r="CB22" s="14" t="n">
-        <v>0.06360427</v>
+        <v>-0.25473926</v>
       </c>
       <c r="CC22" s="14" t="n">
-        <v>0.02243147</v>
+        <v>-0.125104</v>
       </c>
       <c r="CD22" s="14" t="n">
-        <v>0.31577166</v>
+        <v>-0.31577166</v>
       </c>
       <c r="CE22" s="14" t="n">
-        <v>0.13394243</v>
+        <v>-0.39338734</v>
       </c>
       <c r="CF22" s="14" t="n">
         <v>-0.10077036</v>
       </c>
       <c r="CG22" s="14" t="n">
-        <v>0.20708533</v>
+        <v>-0.20708533</v>
       </c>
       <c r="CH22" s="14" t="n">
         <v>0.15360628</v>
@@ -14811,64 +14811,64 @@
         <v>0.06461732000000001</v>
       </c>
       <c r="CJ22" s="14" t="n">
-        <v>0.12632536</v>
+        <v>0.10337951</v>
       </c>
       <c r="CK22" s="14" t="n">
-        <v>-0.11092354</v>
+        <v>0.11092354</v>
       </c>
       <c r="CL22" s="14" t="n">
         <v>-0.09499701000000001</v>
       </c>
       <c r="CM22" s="14" t="n">
-        <v>0.04644128</v>
+        <v>0.320432</v>
       </c>
       <c r="CN22" s="14" t="n">
-        <v>-0.15280392</v>
+        <v>0.00854677</v>
       </c>
       <c r="CO22" s="14" t="n">
-        <v>0.18528576</v>
+        <v>-0.18528576</v>
       </c>
       <c r="CP22" s="14" t="n">
-        <v>-0.17184373</v>
+        <v>-0.25940856</v>
       </c>
       <c r="CQ22" s="14" t="n">
         <v>0.01715962</v>
       </c>
       <c r="CR22" s="14" t="n">
-        <v>0.24677277</v>
+        <v>-0.24677277</v>
       </c>
       <c r="CS22" s="14" t="n">
-        <v>-0.08478194</v>
+        <v>0.02443959</v>
       </c>
       <c r="CT22" s="14" t="n">
-        <v>0.12609138</v>
+        <v>-0.12609138</v>
       </c>
       <c r="CU22" s="14" t="n">
         <v>0.16735391</v>
       </c>
       <c r="CV22" s="14" t="n">
-        <v>-0.16622268</v>
+        <v>-0.1296175</v>
       </c>
       <c r="CW22" s="14" t="n">
-        <v>-0.02288404</v>
+        <v>0.02288404</v>
       </c>
       <c r="CX22" s="14" t="n">
-        <v>0.0542933</v>
+        <v>-0.0542933</v>
       </c>
       <c r="CY22" s="14" t="n">
         <v>-0.16243987</v>
       </c>
       <c r="CZ22" s="14" t="n">
-        <v>0.00758725</v>
+        <v>-0.00758725</v>
       </c>
       <c r="DA22" s="14" t="n">
-        <v>-0.30545166</v>
+        <v>-0.00399175</v>
       </c>
       <c r="DB22" s="14" t="n">
-        <v>-0.59337517</v>
+        <v>0.03026336</v>
       </c>
       <c r="DC22" s="14" t="n">
-        <v>0.14116724</v>
+        <v>0.0120564</v>
       </c>
       <c r="DD22" s="14" t="n">
         <v>0.03171017</v>
@@ -14883,16 +14883,16 @@
         <v>0.08812141</v>
       </c>
       <c r="DH22" s="14" t="n">
-        <v>-0.03468875</v>
+        <v>-0.08145438000000001</v>
       </c>
       <c r="DI22" s="14" t="n">
-        <v>-0.08110554</v>
+        <v>0.08110554</v>
       </c>
       <c r="DJ22" s="14" t="n">
         <v>-0.15369976</v>
       </c>
       <c r="DK22" s="14" t="n">
-        <v>0.02334618</v>
+        <v>-0.02334618</v>
       </c>
       <c r="DL22" s="14" t="n">
         <v>0.00321333</v>
@@ -14901,46 +14901,46 @@
         <v>-0.04267655</v>
       </c>
       <c r="DN22" s="14" t="n">
-        <v>-0.30537503</v>
+        <v>0.30537503</v>
       </c>
       <c r="DO22" s="14" t="n">
         <v>0.02376867</v>
       </c>
       <c r="DP22" s="14" t="n">
-        <v>0.16956243</v>
+        <v>0.00217232</v>
       </c>
       <c r="DQ22" s="14" t="n">
         <v>-0.16540417</v>
       </c>
       <c r="DR22" s="14" t="n">
-        <v>-0.12963071</v>
+        <v>-0.0712363</v>
       </c>
       <c r="DS22" s="14" t="n">
         <v>-0.12952384</v>
       </c>
       <c r="DT22" s="14" t="n">
-        <v>-0.02712875</v>
+        <v>0.02712875</v>
       </c>
       <c r="DU22" s="14" t="n">
         <v>-0.37526887</v>
       </c>
       <c r="DV22" s="14" t="n">
-        <v>0.15706237</v>
+        <v>-0.15706237</v>
       </c>
       <c r="DW22" s="14" t="n">
-        <v>0.00210726</v>
+        <v>0.10950307</v>
       </c>
       <c r="DX22" s="14" t="n">
         <v>0.16435212</v>
       </c>
       <c r="DY22" s="14" t="n">
-        <v>0.31775437</v>
+        <v>-0.31775437</v>
       </c>
       <c r="DZ22" s="14" t="n">
-        <v>-0.16562625</v>
+        <v>0.16562625</v>
       </c>
       <c r="EA22" s="14" t="n">
-        <v>-0.03419124</v>
+        <v>0.14035616</v>
       </c>
       <c r="EB22" s="14" t="n">
         <v>0.12976595</v>
@@ -14952,7 +14952,7 @@
         <v>0.18368199</v>
       </c>
       <c r="EE22" s="14" t="n">
-        <v>-0.03589936</v>
+        <v>0.03589936</v>
       </c>
     </row>
     <row r="23" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -14963,61 +14963,61 @@
         <v>2</v>
       </c>
       <c r="C23" s="14" t="n">
-        <v>-0.08896662</v>
+        <v>0.03132568</v>
       </c>
       <c r="D23" s="14" t="n">
-        <v>-0.08896662</v>
+        <v>0.25409263</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>0.01506159</v>
+        <v>-0.01506159</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>-0.18239608</v>
+        <v>0.18239608</v>
       </c>
       <c r="G23" s="14" t="n">
         <v>0.02697157</v>
       </c>
       <c r="H23" s="14" t="n">
-        <v>0.26281024</v>
+        <v>-0.26281024</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>-0.25570287</v>
+        <v>-0.14815203</v>
       </c>
       <c r="J23" s="14" t="n">
-        <v>-0.15529382</v>
+        <v>-0.06164751</v>
       </c>
       <c r="K23" s="14" t="n">
-        <v>-0.14260758</v>
+        <v>0.14260758</v>
       </c>
       <c r="L23" s="14" t="n">
         <v>-0.23244436</v>
       </c>
       <c r="M23" s="14" t="n">
-        <v>0.25844992</v>
+        <v>-0.25844992</v>
       </c>
       <c r="N23" s="14" t="n">
         <v>0.12680001</v>
       </c>
       <c r="O23" s="14" t="n">
-        <v>0.01940771</v>
+        <v>0.20456438</v>
       </c>
       <c r="P23" s="14" t="n">
-        <v>-0.0106835</v>
+        <v>0.0106835</v>
       </c>
       <c r="Q23" s="14" t="n">
-        <v>0.25084968</v>
+        <v>-0.05956802</v>
       </c>
       <c r="R23" s="14" t="n">
-        <v>0.089628</v>
+        <v>0.02431379</v>
       </c>
       <c r="S23" s="14" t="n">
-        <v>-0.169295</v>
+        <v>0.169295</v>
       </c>
       <c r="T23" s="14" t="n">
-        <v>-0.15460269</v>
+        <v>0.00037337</v>
       </c>
       <c r="U23" s="14" t="n">
-        <v>0.21298177</v>
+        <v>0.09375741999999999</v>
       </c>
       <c r="V23" s="14" t="n">
         <v>-0.06335701000000001</v>
@@ -15026,31 +15026,31 @@
         <v>0.50391933</v>
       </c>
       <c r="X23" s="14" t="n">
-        <v>0.18178119</v>
+        <v>0.19455646</v>
       </c>
       <c r="Y23" s="14" t="n">
         <v>0.00758876</v>
       </c>
       <c r="Z23" s="14" t="n">
-        <v>0.14764041</v>
+        <v>0.06213982</v>
       </c>
       <c r="AA23" s="14" t="n">
-        <v>0.05674845</v>
+        <v>0.00660629</v>
       </c>
       <c r="AB23" s="14" t="n">
-        <v>0.03099139</v>
+        <v>-0.06403978</v>
       </c>
       <c r="AC23" s="14" t="n">
         <v>0.1687548</v>
       </c>
       <c r="AD23" s="14" t="n">
-        <v>-0.00299529</v>
+        <v>0.00299529</v>
       </c>
       <c r="AE23" s="14" t="n">
-        <v>-0.13721199</v>
+        <v>0.13721199</v>
       </c>
       <c r="AF23" s="14" t="n">
-        <v>0.32465933</v>
+        <v>-0.32465933</v>
       </c>
       <c r="AG23" s="14" t="n">
         <v>0.14589389</v>
@@ -15059,124 +15059,124 @@
         <v>-0.13564892</v>
       </c>
       <c r="AI23" s="14" t="n">
-        <v>0.07545017</v>
+        <v>-0.07545017</v>
       </c>
       <c r="AJ23" s="14" t="n">
         <v>0.01696246</v>
       </c>
       <c r="AK23" s="14" t="n">
-        <v>-0.09119922</v>
+        <v>0.09119922</v>
       </c>
       <c r="AL23" s="14" t="n">
-        <v>0.05131031</v>
+        <v>0.13143171</v>
       </c>
       <c r="AM23" s="14" t="n">
-        <v>0.02047054</v>
+        <v>0.00776949</v>
       </c>
       <c r="AN23" s="14" t="n">
-        <v>-0.16052014</v>
+        <v>0.2423147</v>
       </c>
       <c r="AO23" s="14" t="n">
-        <v>-0.09078248</v>
+        <v>0.09078248</v>
       </c>
       <c r="AP23" s="14" t="n">
-        <v>0.01044782</v>
+        <v>0.16526637</v>
       </c>
       <c r="AQ23" s="14" t="n">
-        <v>-0.17571221</v>
+        <v>-0.08942499</v>
       </c>
       <c r="AR23" s="14" t="n">
-        <v>0.2534608</v>
+        <v>0.14613616</v>
       </c>
       <c r="AS23" s="14" t="n">
-        <v>-0.08166362000000001</v>
+        <v>-0.01470689</v>
       </c>
       <c r="AT23" s="14" t="n">
-        <v>-0.1095059</v>
+        <v>0.1095059</v>
       </c>
       <c r="AU23" s="14" t="n">
         <v>0.20359589</v>
       </c>
       <c r="AV23" s="14" t="n">
-        <v>0.04915007</v>
+        <v>-0.09675725</v>
       </c>
       <c r="AW23" s="14" t="n">
-        <v>-0.58225997</v>
+        <v>0.05202691</v>
       </c>
       <c r="AX23" s="14" t="n">
-        <v>-0.01481278</v>
+        <v>0.01481278</v>
       </c>
       <c r="AY23" s="14" t="n">
         <v>0.0581396</v>
       </c>
       <c r="AZ23" s="14" t="n">
-        <v>0.31598452</v>
+        <v>-0.31598452</v>
       </c>
       <c r="BA23" s="14" t="n">
-        <v>-0.17208091</v>
+        <v>0.009646780000000001</v>
       </c>
       <c r="BB23" s="14" t="n">
-        <v>0.68602333</v>
+        <v>0.5668265300000001</v>
       </c>
       <c r="BC23" s="14" t="n">
-        <v>-0.25286918</v>
+        <v>-0.30082825</v>
       </c>
       <c r="BD23" s="14" t="n">
-        <v>-0.01535067</v>
+        <v>0.09483088000000001</v>
       </c>
       <c r="BE23" s="14" t="n">
-        <v>0.12429214</v>
+        <v>0.07143076</v>
       </c>
       <c r="BF23" s="14" t="n">
         <v>0.21000911</v>
       </c>
       <c r="BG23" s="14" t="n">
-        <v>0.03832283</v>
+        <v>0.07476147</v>
       </c>
       <c r="BH23" s="14" t="n">
-        <v>0.0633652</v>
+        <v>-0.20348398</v>
       </c>
       <c r="BI23" s="14" t="n">
-        <v>-0.13821956</v>
+        <v>0.13821956</v>
       </c>
       <c r="BJ23" s="14" t="n">
         <v>0.05802021</v>
       </c>
       <c r="BK23" s="14" t="n">
-        <v>0.00500986</v>
+        <v>-0.00500986</v>
       </c>
       <c r="BL23" s="14" t="n">
         <v>0.11436629</v>
       </c>
       <c r="BM23" s="14" t="n">
-        <v>0.06949546</v>
+        <v>-0.06949546</v>
       </c>
       <c r="BN23" s="14" t="n">
         <v>-0.02660347</v>
       </c>
       <c r="BO23" s="14" t="n">
-        <v>0.00514959</v>
+        <v>0.16631017</v>
       </c>
       <c r="BP23" s="14" t="n">
-        <v>-0.03191355</v>
+        <v>-0.02247572</v>
       </c>
       <c r="BQ23" s="14" t="n">
         <v>-0.05935642</v>
       </c>
       <c r="BR23" s="14" t="n">
-        <v>-0.10282259</v>
+        <v>0.01784432</v>
       </c>
       <c r="BS23" s="14" t="n">
-        <v>-0.22056709</v>
+        <v>0.22056709</v>
       </c>
       <c r="BT23" s="14" t="n">
-        <v>-0.07018926</v>
+        <v>0.07018926</v>
       </c>
       <c r="BU23" s="14" t="n">
-        <v>-0.16327469</v>
+        <v>0.20568774</v>
       </c>
       <c r="BV23" s="14" t="n">
-        <v>-0.05326905</v>
+        <v>0.01701895</v>
       </c>
       <c r="BW23" s="14" t="n">
         <v>0.01536252</v>
@@ -15185,31 +15185,31 @@
         <v>-0.12421952</v>
       </c>
       <c r="BY23" s="14" t="n">
-        <v>-0.11824923</v>
+        <v>0.03993945</v>
       </c>
       <c r="BZ23" s="14" t="n">
-        <v>0.20232498</v>
+        <v>-0.00766976</v>
       </c>
       <c r="CA23" s="14" t="n">
-        <v>-0.03428362</v>
+        <v>-0.0756532</v>
       </c>
       <c r="CB23" s="14" t="n">
-        <v>-0.04166499</v>
+        <v>-0.31616676</v>
       </c>
       <c r="CC23" s="14" t="n">
-        <v>0.08355591</v>
+        <v>-0.08454461000000001</v>
       </c>
       <c r="CD23" s="14" t="n">
-        <v>0.64074658</v>
+        <v>-0.64074658</v>
       </c>
       <c r="CE23" s="14" t="n">
-        <v>0.20459072</v>
+        <v>-0.11662461</v>
       </c>
       <c r="CF23" s="14" t="n">
         <v>-0.01616084</v>
       </c>
       <c r="CG23" s="14" t="n">
-        <v>0.21663724</v>
+        <v>-0.21663724</v>
       </c>
       <c r="CH23" s="14" t="n">
         <v>0.16212257</v>
@@ -15218,64 +15218,64 @@
         <v>0.1352222</v>
       </c>
       <c r="CJ23" s="14" t="n">
-        <v>0.1565159</v>
+        <v>0.01987537</v>
       </c>
       <c r="CK23" s="14" t="n">
-        <v>-0.07185639000000001</v>
+        <v>0.07185639000000001</v>
       </c>
       <c r="CL23" s="14" t="n">
         <v>-0.16404946</v>
       </c>
       <c r="CM23" s="14" t="n">
-        <v>0.00697501</v>
+        <v>0.38673295</v>
       </c>
       <c r="CN23" s="14" t="n">
-        <v>-0.27710426</v>
+        <v>0.05300518</v>
       </c>
       <c r="CO23" s="14" t="n">
-        <v>0.26845098</v>
+        <v>-0.26845098</v>
       </c>
       <c r="CP23" s="14" t="n">
-        <v>-0.24610177</v>
+        <v>-0.31136074</v>
       </c>
       <c r="CQ23" s="14" t="n">
         <v>-0.02470227</v>
       </c>
       <c r="CR23" s="14" t="n">
-        <v>0.15099817</v>
+        <v>-0.15099817</v>
       </c>
       <c r="CS23" s="14" t="n">
-        <v>-0.06515988</v>
+        <v>0.06901537000000001</v>
       </c>
       <c r="CT23" s="14" t="n">
-        <v>0.03285022</v>
+        <v>-0.03285022</v>
       </c>
       <c r="CU23" s="14" t="n">
         <v>0.20210388</v>
       </c>
       <c r="CV23" s="14" t="n">
-        <v>-0.15333097</v>
+        <v>-0.20185146</v>
       </c>
       <c r="CW23" s="14" t="n">
-        <v>0.02418629</v>
+        <v>-0.02418629</v>
       </c>
       <c r="CX23" s="14" t="n">
-        <v>0.06185999</v>
+        <v>-0.06185999</v>
       </c>
       <c r="CY23" s="14" t="n">
         <v>-0.28171083</v>
       </c>
       <c r="CZ23" s="14" t="n">
-        <v>-0.0612811</v>
+        <v>0.0612811</v>
       </c>
       <c r="DA23" s="14" t="n">
-        <v>-0.51777096</v>
+        <v>-0.03098214</v>
       </c>
       <c r="DB23" s="14" t="n">
-        <v>-0.86457557</v>
+        <v>0.01595516</v>
       </c>
       <c r="DC23" s="14" t="n">
-        <v>0.1579489</v>
+        <v>-0.11919049</v>
       </c>
       <c r="DD23" s="14" t="n">
         <v>0.09279867</v>
@@ -15290,16 +15290,16 @@
         <v>0.15297665</v>
       </c>
       <c r="DH23" s="14" t="n">
-        <v>-0.1095822</v>
+        <v>-0.13922689</v>
       </c>
       <c r="DI23" s="14" t="n">
-        <v>-0.18491271</v>
+        <v>0.18491271</v>
       </c>
       <c r="DJ23" s="14" t="n">
         <v>-0.12003258</v>
       </c>
       <c r="DK23" s="14" t="n">
-        <v>0.0477498</v>
+        <v>-0.0477498</v>
       </c>
       <c r="DL23" s="14" t="n">
         <v>-0.02624265</v>
@@ -15308,46 +15308,46 @@
         <v>0.01071033</v>
       </c>
       <c r="DN23" s="14" t="n">
-        <v>-0.26497486</v>
+        <v>0.26497486</v>
       </c>
       <c r="DO23" s="14" t="n">
         <v>-0.08467083</v>
       </c>
       <c r="DP23" s="14" t="n">
-        <v>0.17683962</v>
+        <v>0.04708823</v>
       </c>
       <c r="DQ23" s="14" t="n">
         <v>-0.24594611</v>
       </c>
       <c r="DR23" s="14" t="n">
-        <v>-0.12391735</v>
+        <v>-0.1024258</v>
       </c>
       <c r="DS23" s="14" t="n">
         <v>-0.24719455</v>
       </c>
       <c r="DT23" s="14" t="n">
-        <v>0.02229646</v>
+        <v>-0.02229646</v>
       </c>
       <c r="DU23" s="14" t="n">
         <v>-0.52524171</v>
       </c>
       <c r="DV23" s="14" t="n">
-        <v>0.1927414</v>
+        <v>-0.1927414</v>
       </c>
       <c r="DW23" s="14" t="n">
-        <v>0.26698913</v>
+        <v>0.14122823</v>
       </c>
       <c r="DX23" s="14" t="n">
         <v>0.17100279</v>
       </c>
       <c r="DY23" s="14" t="n">
-        <v>0.26822193</v>
+        <v>-0.26822193</v>
       </c>
       <c r="DZ23" s="14" t="n">
-        <v>-0.12933302</v>
+        <v>0.12933302</v>
       </c>
       <c r="EA23" s="14" t="n">
-        <v>-0.09336208</v>
+        <v>-0.02875878</v>
       </c>
       <c r="EB23" s="14" t="n">
         <v>0.24428466</v>
@@ -15359,7 +15359,7 @@
         <v>0.19432328</v>
       </c>
       <c r="EE23" s="14" t="n">
-        <v>-0.06954556000000001</v>
+        <v>0.06954556000000001</v>
       </c>
     </row>
     <row r="24" ht="16.15" customFormat="1" customHeight="1" s="11" thickBot="1">
@@ -15370,61 +15370,61 @@
         <v>1</v>
       </c>
       <c r="C24" s="14" t="n">
-        <v>-0.08198838</v>
+        <v>0.02776697</v>
       </c>
       <c r="D24" s="14" t="n">
-        <v>-0.08198838</v>
+        <v>0.10060991</v>
       </c>
       <c r="E24" s="14" t="n">
-        <v>-0.08188033</v>
+        <v>0.08188033</v>
       </c>
       <c r="F24" s="14" t="n">
-        <v>-0.20154572</v>
+        <v>0.20154572</v>
       </c>
       <c r="G24" s="14" t="n">
         <v>0.02262239</v>
       </c>
       <c r="H24" s="14" t="n">
-        <v>0.35082219</v>
+        <v>-0.35082219</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>-0.24038624</v>
+        <v>0.00211193</v>
       </c>
       <c r="J24" s="14" t="n">
-        <v>-0.00403572</v>
+        <v>-0.09997219</v>
       </c>
       <c r="K24" s="14" t="n">
-        <v>-0.05044434</v>
+        <v>0.05044434</v>
       </c>
       <c r="L24" s="14" t="n">
         <v>-0.33375944</v>
       </c>
       <c r="M24" s="14" t="n">
-        <v>0.14681934</v>
+        <v>-0.14681934</v>
       </c>
       <c r="N24" s="14" t="n">
         <v>0.10519171</v>
       </c>
       <c r="O24" s="14" t="n">
-        <v>-0.03664879</v>
+        <v>0.23530919</v>
       </c>
       <c r="P24" s="14" t="n">
-        <v>-0.07773649000000001</v>
+        <v>0.07773649000000001</v>
       </c>
       <c r="Q24" s="14" t="n">
-        <v>-0.09014495</v>
+        <v>-0.06096496</v>
       </c>
       <c r="R24" s="14" t="n">
-        <v>0.10836549</v>
+        <v>0.24569737</v>
       </c>
       <c r="S24" s="14" t="n">
-        <v>-0.1398838</v>
+        <v>0.1398838</v>
       </c>
       <c r="T24" s="14" t="n">
-        <v>0.27048671</v>
+        <v>-0.12369104</v>
       </c>
       <c r="U24" s="14" t="n">
-        <v>0.39296188</v>
+        <v>0.14851867</v>
       </c>
       <c r="V24" s="14" t="n">
         <v>-0.11654032</v>
@@ -15433,31 +15433,31 @@
         <v>0.64293353</v>
       </c>
       <c r="X24" s="14" t="n">
-        <v>-0.0361579</v>
+        <v>-0.00089888</v>
       </c>
       <c r="Y24" s="14" t="n">
         <v>0.02939884</v>
       </c>
       <c r="Z24" s="14" t="n">
-        <v>0.15040993</v>
+        <v>0.10584233</v>
       </c>
       <c r="AA24" s="14" t="n">
-        <v>-0.21854458</v>
+        <v>0.01354777</v>
       </c>
       <c r="AB24" s="14" t="n">
-        <v>0.30039379</v>
+        <v>-0.19533962</v>
       </c>
       <c r="AC24" s="14" t="n">
         <v>0.40174733</v>
       </c>
       <c r="AD24" s="14" t="n">
-        <v>-0.05992215</v>
+        <v>0.05992215</v>
       </c>
       <c r="AE24" s="14" t="n">
-        <v>-0.19314179</v>
+        <v>0.19314179</v>
       </c>
       <c r="AF24" s="14" t="n">
-        <v>0.49538941</v>
+        <v>-0.49538941</v>
       </c>
       <c r="AG24" s="14" t="n">
         <v>0.38005539</v>
@@ -15466,124 +15466,124 @@
         <v>-0.30212276</v>
       </c>
       <c r="AI24" s="14" t="n">
-        <v>0.15191167</v>
+        <v>-0.15191167</v>
       </c>
       <c r="AJ24" s="14" t="n">
         <v>0.02011237</v>
       </c>
       <c r="AK24" s="14" t="n">
-        <v>-0.11317916</v>
+        <v>0.11317916</v>
       </c>
       <c r="AL24" s="14" t="n">
-        <v>0.10745443</v>
+        <v>-0.05467694</v>
       </c>
       <c r="AM24" s="14" t="n">
-        <v>-0.01496655</v>
+        <v>-0.01891928</v>
       </c>
       <c r="AN24" s="14" t="n">
-        <v>-0.11066077</v>
+        <v>0.22118947</v>
       </c>
       <c r="AO24" s="14" t="n">
-        <v>-0.1029057</v>
+        <v>0.1029057</v>
       </c>
       <c r="AP24" s="14" t="n">
-        <v>0.41640853</v>
+        <v>0.16448669</v>
       </c>
       <c r="AQ24" s="14" t="n">
-        <v>-0.35649193</v>
+        <v>-0.04707697</v>
       </c>
       <c r="AR24" s="14" t="n">
-        <v>0.02035084</v>
+        <v>0.17083341</v>
       </c>
       <c r="AS24" s="14" t="n">
-        <v>-0.00328677</v>
+        <v>-0.02795608</v>
       </c>
       <c r="AT24" s="14" t="n">
-        <v>-0.15076898</v>
+        <v>0.15076898</v>
       </c>
       <c r="AU24" s="14" t="n">
         <v>0.22984102</v>
       </c>
       <c r="AV24" s="14" t="n">
-        <v>-0.24768466</v>
+        <v>-0.01952221</v>
       </c>
       <c r="AW24" s="14" t="n">
-        <v>0.14871096</v>
+        <v>-0.00498754</v>
       </c>
       <c r="AX24" s="14" t="n">
-        <v>0.11149134</v>
+        <v>-0.11149134</v>
       </c>
       <c r="AY24" s="14" t="n">
         <v>0.26743574</v>
       </c>
       <c r="AZ24" s="14" t="n">
-        <v>0.60989956</v>
+        <v>-0.60989956</v>
       </c>
       <c r="BA24" s="14" t="n">
-        <v>-0.10178269</v>
+        <v>-0.05379473</v>
       </c>
       <c r="BB24" s="14" t="n">
-        <v>0.87270315</v>
+        <v>0.6907765300000001</v>
       </c>
       <c r="BC24" s="14" t="n">
-        <v>0.00436687</v>
+        <v>-0.59942164</v>
       </c>
       <c r="BD24" s="14" t="n">
-        <v>0.17257014</v>
+        <v>0.18559522</v>
       </c>
       <c r="BE24" s="14" t="n">
-        <v>-0.05738054</v>
+        <v>0.04606435</v>
       </c>
       <c r="BF24" s="14" t="n">
         <v>-0.06437042</v>
       </c>
       <c r="BG24" s="14" t="n">
-        <v>-0.09098423</v>
+        <v>0.02683597</v>
       </c>
       <c r="BH24" s="14" t="n">
-        <v>0.14767357</v>
+        <v>-0.38625534</v>
       </c>
       <c r="BI24" s="14" t="n">
-        <v>0.02815163</v>
+        <v>-0.02815163</v>
       </c>
       <c r="BJ24" s="14" t="n">
         <v>-0.06056725</v>
       </c>
       <c r="BK24" s="14" t="n">
-        <v>0.01001973</v>
+        <v>-0.01001973</v>
       </c>
       <c r="BL24" s="14" t="n">
         <v>0.10610692</v>
       </c>
       <c r="BM24" s="14" t="n">
-        <v>-0.08478294</v>
+        <v>0.08478294</v>
       </c>
       <c r="BN24" s="14" t="n">
         <v>-0.01989016</v>
       </c>
       <c r="BO24" s="14" t="n">
-        <v>-0.20807633</v>
+        <v>0.16110969</v>
       </c>
       <c r="BP24" s="14" t="n">
-        <v>0.16903187</v>
+        <v>0.0317941</v>
       </c>
       <c r="BQ24" s="14" t="n">
         <v>0.01385747</v>
       </c>
       <c r="BR24" s="14" t="n">
-        <v>-0.09892089</v>
+        <v>0.04235622</v>
       </c>
       <c r="BS24" s="14" t="n">
-        <v>-0.12162104</v>
+        <v>0.12162104</v>
       </c>
       <c r="BT24" s="14" t="n">
-        <v>-0.05579926</v>
+        <v>0.05579926</v>
       </c>
       <c r="BU24" s="14" t="n">
-        <v>-0.45156954</v>
+        <v>0.22832663</v>
       </c>
       <c r="BV24" s="14" t="n">
-        <v>-0.04625871</v>
+        <v>0.20330415</v>
       </c>
       <c r="BW24" s="14" t="n">
         <v>0.15102745</v>
@@ -15592,31 +15592,31 @@
         <v>-0.05804337</v>
       </c>
       <c r="BY24" s="14" t="n">
-        <v>-0.11840823</v>
+        <v>-0.29033687</v>
       </c>
       <c r="BZ24" s="14" t="n">
-        <v>0.32032943</v>
+        <v>-0.2588929</v>
       </c>
       <c r="CA24" s="14" t="n">
-        <v>-0.08535214000000001</v>
+        <v>-0.11522168</v>
       </c>
       <c r="CB24" s="14" t="n">
-        <v>0.06412708</v>
+        <v>-0.63969813</v>
       </c>
       <c r="CC24" s="14" t="n">
-        <v>0.21983119</v>
+        <v>-0.18246988</v>
       </c>
       <c r="CD24" s="14" t="n">
-        <v>0.69133197</v>
+        <v>-0.69133197</v>
       </c>
       <c r="CE24" s="14" t="n">
-        <v>0.17930378</v>
+        <v>-0.21012144</v>
       </c>
       <c r="CF24" s="14" t="n">
         <v>0.04396463</v>
       </c>
       <c r="CG24" s="14" t="n">
-        <v>0.51996897</v>
+        <v>-0.51996897</v>
       </c>
       <c r="CH24" s="14" t="n">
         <v>0.21297288</v>
@@ -15625,64 +15625,64 @@
         <v>0.29359964</v>
       </c>
       <c r="CJ24" s="14" t="n">
-        <v>0.30018689</v>
+        <v>-0.01310949</v>
       </c>
       <c r="CK24" s="14" t="n">
-        <v>-0.32305927</v>
+        <v>0.32305927</v>
       </c>
       <c r="CL24" s="14" t="n">
         <v>-0.01568375</v>
       </c>
       <c r="CM24" s="14" t="n">
-        <v>0.04468854</v>
+        <v>0.54958711</v>
       </c>
       <c r="CN24" s="14" t="n">
-        <v>-0.6096772</v>
+        <v>0.10773877</v>
       </c>
       <c r="CO24" s="14" t="n">
-        <v>0.57240961</v>
+        <v>-0.57240961</v>
       </c>
       <c r="CP24" s="14" t="n">
-        <v>-0.19806735</v>
+        <v>-0.1603442</v>
       </c>
       <c r="CQ24" s="14" t="n">
         <v>-0.16018965</v>
       </c>
       <c r="CR24" s="14" t="n">
-        <v>0.13778746</v>
+        <v>-0.13778746</v>
       </c>
       <c r="CS24" s="14" t="n">
-        <v>-0.10797424</v>
+        <v>-0.02685492</v>
       </c>
       <c r="CT24" s="14" t="n">
-        <v>-0.18289659</v>
+        <v>0.18289659</v>
       </c>
       <c r="CU24" s="14" t="n">
         <v>0.05272904</v>
       </c>
       <c r="CV24" s="14" t="n">
-        <v>-0.18286409</v>
+        <v>-0.3614803</v>
       </c>
       <c r="CW24" s="14" t="n">
-        <v>0.23499322</v>
+        <v>-0.23499322</v>
       </c>
       <c r="CX24" s="14" t="n">
-        <v>0.14669463</v>
+        <v>-0.14669463</v>
       </c>
       <c r="CY24" s="14" t="n">
         <v>-0.36022805</v>
       </c>
       <c r="CZ24" s="14" t="n">
-        <v>-0.16210691</v>
+        <v>0.16210691</v>
       </c>
       <c r="DA24" s="14" t="n">
-        <v>-0.8130224</v>
+        <v>0.0245112</v>
       </c>
       <c r="DB24" s="14" t="n">
-        <v>-0.9481095899999999</v>
+        <v>0.19546067</v>
       </c>
       <c r="DC24" s="14" t="n">
-        <v>0.28272978</v>
+        <v>-0.19117576</v>
       </c>
       <c r="DD24" s="14" t="n">
         <v>-0.19584472</v>
@@ -15697,16 +15697,16 @@
         <v>0.24858898</v>
       </c>
       <c r="DH24" s="14" t="n">
-        <v>-0.10283284</v>
+        <v>-0.26580268</v>
       </c>
       <c r="DI24" s="14" t="n">
-        <v>-0.4230988</v>
+        <v>0.4230988</v>
       </c>
       <c r="DJ24" s="14" t="n">
         <v>-0.22936987</v>
       </c>
       <c r="DK24" s="14" t="n">
-        <v>0.16602173</v>
+        <v>-0.16602173</v>
       </c>
       <c r="DL24" s="14" t="n">
         <v>-0.06136051</v>
@@ -15715,46 +15715,46 @@
         <v>0.1083161</v>
       </c>
       <c r="DN24" s="14" t="n">
-        <v>-0.51684794</v>
+        <v>0.51684794</v>
       </c>
       <c r="DO24" s="14" t="n">
         <v>-0.08311428999999999</v>
       </c>
       <c r="DP24" s="14" t="n">
-        <v>0.22357182</v>
+        <v>0.11437343</v>
       </c>
       <c r="DQ24" s="14" t="n">
         <v>-0.3590713</v>
       </c>
       <c r="DR24" s="14" t="n">
-        <v>-0.34727417</v>
+        <v>-0.02339173</v>
       </c>
       <c r="DS24" s="14" t="n">
         <v>-0.14400697</v>
       </c>
       <c r="DT24" s="14" t="n">
-        <v>0.02943573</v>
+        <v>-0.02943573</v>
       </c>
       <c r="DU24" s="14" t="n">
         <v>-0.77054331</v>
       </c>
       <c r="DV24" s="14" t="n">
-        <v>0.75045655</v>
+        <v>-0.75045655</v>
       </c>
       <c r="DW24" s="14" t="n">
-        <v>0.38336324</v>
+        <v>0.10885709</v>
       </c>
       <c r="DX24" s="14" t="n">
         <v>0.17373733</v>
       </c>
       <c r="DY24" s="14" t="n">
-        <v>0.03206654</v>
+        <v>-0.03206654</v>
       </c>
       <c r="DZ24" s="14" t="n">
-        <v>0.04890466</v>
+        <v>-0.04890466</v>
       </c>
       <c r="EA24" s="14" t="n">
-        <v>-0.0231715</v>
+        <v>-0.05492018</v>
       </c>
       <c r="EB24" s="14" t="n">
         <v>0.58969792</v>
@@ -15766,7 +15766,7 @@
         <v>0.08454009</v>
       </c>
       <c r="EE24" s="14" t="n">
-        <v>0.03566398</v>
+        <v>-0.03566398</v>
       </c>
     </row>
     <row r="25" ht="16.15" customHeight="1" s="23" thickBot="1"/>
